--- a/TestData/Web_POS/Order/auto_switching_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/auto_switching_order_test_data.xlsx
@@ -1,221 +1,209 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="36">
   <si>
-    <t>TC_Id</t>
+    <t xml:space="preserve">TC_Id</t>
   </si>
   <si>
-    <t>serial_key</t>
+    <t xml:space="preserve">serial_key</t>
   </si>
   <si>
-    <t>username_admin</t>
+    <t xml:space="preserve">username_admin</t>
   </si>
   <si>
-    <t>password_admin</t>
+    <t xml:space="preserve">password_admin</t>
   </si>
   <si>
-    <t>username_pos</t>
+    <t xml:space="preserve">username_pos</t>
   </si>
   <si>
-    <t>password_pos</t>
+    <t xml:space="preserve">password_pos</t>
   </si>
   <si>
-    <t>closing_balance</t>
+    <t xml:space="preserve">closing_balance</t>
   </si>
   <si>
-    <t>opening_balance</t>
+    <t xml:space="preserve">opening_balance</t>
   </si>
   <si>
-    <t>store_name</t>
+    <t xml:space="preserve">store_name</t>
   </si>
   <si>
-    <t>Mode</t>
+    <t xml:space="preserve">Mode</t>
   </si>
   <si>
-    <t>TC_1</t>
+    <t xml:space="preserve">TC_01</t>
   </si>
   <si>
-    <t>307260624ut0</t>
+    <t xml:space="preserve">307260624JNG</t>
   </si>
   <si>
-    <t>zwshashank.agrawal@teampureplay.com</t>
+    <t xml:space="preserve">zwshashank.agrawal@teampureplay.com</t>
   </si>
   <si>
-    <t>123456</t>
+    <t xml:space="preserve">123456</t>
   </si>
   <si>
-    <t>userone_p2</t>
+    <t xml:space="preserve">userone_p12</t>
   </si>
   <si>
-    <t>1000</t>
+    <t xml:space="preserve">1000</t>
   </si>
   <si>
-    <t>600</t>
+    <t xml:space="preserve">600</t>
   </si>
   <si>
-    <t>Index9QA</t>
+    <t xml:space="preserve">i9_store_p12</t>
   </si>
   <si>
-    <t>Order</t>
+    <t xml:space="preserve">Order</t>
   </si>
   <si>
-    <t>TC_2</t>
+    <t xml:space="preserve">TC_02</t>
   </si>
   <si>
-    <t>307260624P3E</t>
+    <t xml:space="preserve">307260624P3E</t>
   </si>
   <si>
-    <t>userone_p1</t>
+    <t xml:space="preserve">userone_p1</t>
   </si>
   <si>
-    <t>TC_03</t>
+    <t xml:space="preserve">i9_store_p1</t>
   </si>
   <si>
-    <t>TC_04</t>
+    <t xml:space="preserve">TC_03</t>
   </si>
   <si>
-    <t>TC_05</t>
+    <t xml:space="preserve">TC_04</t>
   </si>
   <si>
-    <t>TC_06</t>
+    <t xml:space="preserve">TC_05</t>
   </si>
   <si>
-    <t>TC_07</t>
+    <t xml:space="preserve">TC_06</t>
   </si>
   <si>
-    <t>TC_08</t>
+    <t xml:space="preserve">TC_153</t>
   </si>
   <si>
-    <t>TC_09</t>
+    <t xml:space="preserve">TC_154</t>
   </si>
   <si>
-    <t>TC_10</t>
+    <t xml:space="preserve">TC_155</t>
   </si>
   <si>
-    <t>TC_11</t>
+    <t xml:space="preserve">TC_156</t>
   </si>
   <si>
-    <t>TC_12</t>
+    <t xml:space="preserve">TC_157</t>
   </si>
   <si>
-    <t>TC_13</t>
+    <t xml:space="preserve">TC_158</t>
   </si>
   <si>
-    <t>TC_14</t>
+    <t xml:space="preserve">TC_159</t>
   </si>
   <si>
-    <t>TC_15</t>
+    <t xml:space="preserve">TC_160</t>
   </si>
   <si>
-    <t>useronep12</t>
-  </si>
-  <si>
-    <t>307260624JNG</t>
-  </si>
-  <si>
-    <t>i9_store_p12</t>
-  </si>
-  <si>
-    <t>userone_p12</t>
+    <t xml:space="preserve">TC_161</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2B579A"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF2B579A"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E7E7"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -227,26 +215,127 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
-    <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="20"/>
+    <cellStyle name="HeaderStyle" xfId="21"/>
   </cellStyles>
-  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFE7E7E7"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF2B579A"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -258,94 +347,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -353,33 +438,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -392,13 +468,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -408,15 +478,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -424,7 +492,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -432,11 +499,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -445,22 +512,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryRight="0" summaryBelow="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.63" customHeight="true" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="17.3203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,12 +566,12 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -512,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -524,7 +592,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -536,7 +604,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -562,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -574,9 +642,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
@@ -600,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -612,9 +680,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -638,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -650,9 +718,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -676,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -688,9 +756,9 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -714,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -726,9 +794,9 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -752,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
@@ -764,9 +832,9 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -790,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
@@ -802,9 +870,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -828,7 +896,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
@@ -840,9 +908,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -866,7 +934,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
@@ -878,9 +946,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -904,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
@@ -916,9 +984,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -942,7 +1010,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
@@ -954,9 +1022,9 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -980,7 +1048,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>18</v>
@@ -992,9 +1060,9 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -1018,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>18</v>
@@ -1030,9 +1098,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
@@ -1056,7 +1124,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>18</v>
@@ -1068,7 +1136,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1086,7 +1154,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1104,7 +1172,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1122,7 +1190,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1140,7 +1208,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1158,7 +1226,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1176,7 +1244,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1194,7 +1262,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1212,7 +1280,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1230,7 +1298,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1248,7 +1316,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1266,7 +1334,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1284,7 +1352,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1302,7 +1370,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1320,7 +1388,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1338,7 +1406,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1356,7 +1424,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1374,7 +1442,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1392,7 +1460,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1410,7 +1478,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1428,7 +1496,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1446,7 +1514,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1464,7 +1532,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1482,7 +1550,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1500,7 +1568,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1518,7 +1586,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1536,7 +1604,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1554,7 +1622,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1572,7 +1640,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1590,7 +1658,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1608,7 +1676,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1626,7 +1694,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1644,7 +1712,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1662,7 +1730,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1680,7 +1748,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1698,7 +1766,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1716,7 +1784,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1734,7 +1802,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1752,7 +1820,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1770,7 +1838,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1788,7 +1856,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1806,7 +1874,7 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1824,7 +1892,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1842,7 +1910,7 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1860,7 +1928,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1878,7 +1946,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1896,7 +1964,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1914,7 +1982,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1932,7 +2000,7 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1950,7 +2018,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1968,7 +2036,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1986,7 +2054,7 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2004,7 +2072,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2022,7 +2090,7 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2040,7 +2108,7 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2058,7 +2126,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2076,7 +2144,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2094,7 +2162,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2112,7 +2180,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2130,7 +2198,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2148,7 +2216,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2166,7 +2234,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2184,7 +2252,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2202,7 +2270,7 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2220,7 +2288,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2238,7 +2306,7 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2256,7 +2324,7 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2274,7 +2342,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2292,7 +2360,7 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2310,7 +2378,7 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2328,7 +2396,7 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2346,7 +2414,7 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2364,7 +2432,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2382,7 +2450,7 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2400,7 +2468,7 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2418,7 +2486,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2436,7 +2504,7 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2454,7 +2522,7 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2472,7 +2540,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2490,7 +2558,7 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2508,7 +2576,7 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2526,7 +2594,7 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2544,7 +2612,7 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2562,7 +2630,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2580,7 +2648,7 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2598,7 +2666,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2616,7 +2684,7 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2634,7 +2702,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2652,7 +2720,7 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2670,7 +2738,7 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2688,7 +2756,7 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2706,7 +2774,7 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2724,7 +2792,7 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2742,7 +2810,7 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2760,7 +2828,7 @@
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2778,7 +2846,7 @@
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2796,7 +2864,7 @@
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2814,7 +2882,7 @@
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2832,7 +2900,7 @@
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2850,7 +2918,7 @@
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2868,7 +2936,7 @@
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2886,7 +2954,7 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2904,7 +2972,7 @@
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2922,7 +2990,7 @@
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2940,7 +3008,7 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2958,7 +3026,7 @@
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2976,7 +3044,7 @@
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2994,7 +3062,7 @@
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3012,7 +3080,7 @@
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3030,7 +3098,7 @@
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3048,7 +3116,7 @@
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3066,7 +3134,7 @@
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3084,7 +3152,7 @@
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3102,7 +3170,7 @@
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3120,7 +3188,7 @@
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3138,7 +3206,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3156,7 +3224,7 @@
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3174,7 +3242,7 @@
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3192,7 +3260,7 @@
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3210,7 +3278,7 @@
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3228,7 +3296,7 @@
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3246,7 +3314,7 @@
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3264,7 +3332,7 @@
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3282,7 +3350,7 @@
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3300,7 +3368,7 @@
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3318,7 +3386,7 @@
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3336,7 +3404,7 @@
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3354,7 +3422,7 @@
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3372,7 +3440,7 @@
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3390,7 +3458,7 @@
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3408,7 +3476,7 @@
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3426,7 +3494,7 @@
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3444,7 +3512,7 @@
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3462,7 +3530,7 @@
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3480,7 +3548,7 @@
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3498,7 +3566,7 @@
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3516,7 +3584,7 @@
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3534,7 +3602,7 @@
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3552,7 +3620,7 @@
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3570,7 +3638,7 @@
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3588,7 +3656,7 @@
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3606,7 +3674,7 @@
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3624,7 +3692,7 @@
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3642,7 +3710,7 @@
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3660,7 +3728,7 @@
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3678,7 +3746,7 @@
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3696,7 +3764,7 @@
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3714,7 +3782,7 @@
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3732,7 +3800,7 @@
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3750,7 +3818,7 @@
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3768,7 +3836,7 @@
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3786,7 +3854,7 @@
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3804,7 +3872,7 @@
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3822,7 +3890,7 @@
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3840,7 +3908,7 @@
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3858,7 +3926,7 @@
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3876,7 +3944,7 @@
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3894,7 +3962,7 @@
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3912,7 +3980,7 @@
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3930,7 +3998,7 @@
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3948,7 +4016,7 @@
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3966,7 +4034,7 @@
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3984,7 +4052,7 @@
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4002,7 +4070,7 @@
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4020,7 +4088,7 @@
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4038,7 +4106,7 @@
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4056,7 +4124,7 @@
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4074,7 +4142,7 @@
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4092,7 +4160,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4110,7 +4178,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4128,7 +4196,7 @@
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4146,7 +4214,7 @@
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -4164,7 +4232,7 @@
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -4182,7 +4250,7 @@
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4200,7 +4268,7 @@
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4218,7 +4286,7 @@
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4236,7 +4304,7 @@
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4254,7 +4322,7 @@
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4272,7 +4340,7 @@
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4290,7 +4358,7 @@
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4308,7 +4376,7 @@
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4326,7 +4394,7 @@
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4344,7 +4412,7 @@
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4362,7 +4430,7 @@
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4380,7 +4448,7 @@
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4398,7 +4466,7 @@
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4416,7 +4484,7 @@
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4434,7 +4502,7 @@
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -4452,7 +4520,7 @@
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -4470,7 +4538,7 @@
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -4488,7 +4556,7 @@
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -4506,7 +4574,7 @@
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -4524,7 +4592,7 @@
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -4542,7 +4610,7 @@
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -4560,7 +4628,7 @@
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -4578,7 +4646,7 @@
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -4596,7 +4664,7 @@
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -4614,7 +4682,7 @@
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -4632,7 +4700,7 @@
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -4650,7 +4718,7 @@
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -4668,7 +4736,7 @@
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -4686,7 +4754,7 @@
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -4704,7 +4772,7 @@
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -4722,7 +4790,7 @@
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -4740,7 +4808,7 @@
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -4758,7 +4826,7 @@
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -4776,7 +4844,7 @@
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -4794,7 +4862,7 @@
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -4812,7 +4880,7 @@
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -4830,7 +4898,7 @@
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -4848,7 +4916,7 @@
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -4866,7 +4934,7 @@
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -4884,7 +4952,7 @@
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -4902,7 +4970,7 @@
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -4920,7 +4988,7 @@
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4938,7 +5006,7 @@
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -4956,7 +5024,7 @@
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -4974,7 +5042,7 @@
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -4992,7 +5060,7 @@
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -5010,7 +5078,7 @@
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -5028,7 +5096,7 @@
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -5046,7 +5114,7 @@
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -5064,7 +5132,7 @@
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -5082,7 +5150,7 @@
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -5100,7 +5168,7 @@
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -5118,7 +5186,7 @@
       <c r="O241" s="2"/>
       <c r="P241" s="2"/>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -5136,7 +5204,7 @@
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -5154,7 +5222,7 @@
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -5172,7 +5240,7 @@
       <c r="O244" s="2"/>
       <c r="P244" s="2"/>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -5190,7 +5258,7 @@
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -5208,7 +5276,7 @@
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -5226,7 +5294,7 @@
       <c r="O247" s="2"/>
       <c r="P247" s="2"/>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -5244,7 +5312,7 @@
       <c r="O248" s="2"/>
       <c r="P248" s="2"/>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -5262,7 +5330,7 @@
       <c r="O249" s="2"/>
       <c r="P249" s="2"/>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -5280,7 +5348,7 @@
       <c r="O250" s="2"/>
       <c r="P250" s="2"/>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -5298,7 +5366,7 @@
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -5316,7 +5384,7 @@
       <c r="O252" s="2"/>
       <c r="P252" s="2"/>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -5334,7 +5402,7 @@
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -5352,7 +5420,7 @@
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -5370,7 +5438,7 @@
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -5388,7 +5456,7 @@
       <c r="O256" s="2"/>
       <c r="P256" s="2"/>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -5406,7 +5474,7 @@
       <c r="O257" s="2"/>
       <c r="P257" s="2"/>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -5424,7 +5492,7 @@
       <c r="O258" s="2"/>
       <c r="P258" s="2"/>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -5442,7 +5510,7 @@
       <c r="O259" s="2"/>
       <c r="P259" s="2"/>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -5460,7 +5528,7 @@
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -5478,7 +5546,7 @@
       <c r="O261" s="2"/>
       <c r="P261" s="2"/>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -5496,7 +5564,7 @@
       <c r="O262" s="2"/>
       <c r="P262" s="2"/>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -5514,7 +5582,7 @@
       <c r="O263" s="2"/>
       <c r="P263" s="2"/>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -5532,7 +5600,7 @@
       <c r="O264" s="2"/>
       <c r="P264" s="2"/>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -5550,7 +5618,7 @@
       <c r="O265" s="2"/>
       <c r="P265" s="2"/>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -5568,7 +5636,7 @@
       <c r="O266" s="2"/>
       <c r="P266" s="2"/>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -5586,7 +5654,7 @@
       <c r="O267" s="2"/>
       <c r="P267" s="2"/>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -5604,7 +5672,7 @@
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -5622,7 +5690,7 @@
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -5640,7 +5708,7 @@
       <c r="O270" s="2"/>
       <c r="P270" s="2"/>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -5658,7 +5726,7 @@
       <c r="O271" s="2"/>
       <c r="P271" s="2"/>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -5676,7 +5744,7 @@
       <c r="O272" s="2"/>
       <c r="P272" s="2"/>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -5694,7 +5762,7 @@
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -5712,7 +5780,7 @@
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -5730,7 +5798,7 @@
       <c r="O275" s="2"/>
       <c r="P275" s="2"/>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -5748,7 +5816,7 @@
       <c r="O276" s="2"/>
       <c r="P276" s="2"/>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -5766,7 +5834,7 @@
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -5784,7 +5852,7 @@
       <c r="O278" s="2"/>
       <c r="P278" s="2"/>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -5802,7 +5870,7 @@
       <c r="O279" s="2"/>
       <c r="P279" s="2"/>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -5820,7 +5888,7 @@
       <c r="O280" s="2"/>
       <c r="P280" s="2"/>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -5838,7 +5906,7 @@
       <c r="O281" s="2"/>
       <c r="P281" s="2"/>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -5856,7 +5924,7 @@
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -5874,7 +5942,7 @@
       <c r="O283" s="2"/>
       <c r="P283" s="2"/>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -5892,7 +5960,7 @@
       <c r="O284" s="2"/>
       <c r="P284" s="2"/>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -5910,7 +5978,7 @@
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -5928,7 +5996,7 @@
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -5946,7 +6014,7 @@
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -5964,7 +6032,7 @@
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -5982,7 +6050,7 @@
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -6000,7 +6068,7 @@
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -6018,7 +6086,7 @@
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -6036,7 +6104,7 @@
       <c r="O292" s="2"/>
       <c r="P292" s="2"/>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -6054,7 +6122,7 @@
       <c r="O293" s="2"/>
       <c r="P293" s="2"/>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -6072,7 +6140,7 @@
       <c r="O294" s="2"/>
       <c r="P294" s="2"/>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -6090,7 +6158,7 @@
       <c r="O295" s="2"/>
       <c r="P295" s="2"/>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -6108,7 +6176,7 @@
       <c r="O296" s="2"/>
       <c r="P296" s="2"/>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -6126,7 +6194,7 @@
       <c r="O297" s="2"/>
       <c r="P297" s="2"/>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -6144,7 +6212,7 @@
       <c r="O298" s="2"/>
       <c r="P298" s="2"/>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -6162,7 +6230,7 @@
       <c r="O299" s="2"/>
       <c r="P299" s="2"/>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -6180,7 +6248,7 @@
       <c r="O300" s="2"/>
       <c r="P300" s="2"/>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -6198,7 +6266,7 @@
       <c r="O301" s="2"/>
       <c r="P301" s="2"/>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -6216,7 +6284,7 @@
       <c r="O302" s="2"/>
       <c r="P302" s="2"/>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -6234,7 +6302,7 @@
       <c r="O303" s="2"/>
       <c r="P303" s="2"/>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -6252,7 +6320,7 @@
       <c r="O304" s="2"/>
       <c r="P304" s="2"/>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -6270,7 +6338,7 @@
       <c r="O305" s="2"/>
       <c r="P305" s="2"/>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -6288,7 +6356,7 @@
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -6306,7 +6374,7 @@
       <c r="O307" s="2"/>
       <c r="P307" s="2"/>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -6324,7 +6392,7 @@
       <c r="O308" s="2"/>
       <c r="P308" s="2"/>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -6342,7 +6410,7 @@
       <c r="O309" s="2"/>
       <c r="P309" s="2"/>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -6360,7 +6428,7 @@
       <c r="O310" s="2"/>
       <c r="P310" s="2"/>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -6378,7 +6446,7 @@
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -6396,7 +6464,7 @@
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -6414,7 +6482,7 @@
       <c r="O313" s="2"/>
       <c r="P313" s="2"/>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -6432,7 +6500,7 @@
       <c r="O314" s="2"/>
       <c r="P314" s="2"/>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -6450,7 +6518,7 @@
       <c r="O315" s="2"/>
       <c r="P315" s="2"/>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -6468,7 +6536,7 @@
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -6486,7 +6554,7 @@
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -6504,7 +6572,7 @@
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -6522,7 +6590,7 @@
       <c r="O319" s="2"/>
       <c r="P319" s="2"/>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -6540,7 +6608,7 @@
       <c r="O320" s="2"/>
       <c r="P320" s="2"/>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -6558,7 +6626,7 @@
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -6576,7 +6644,7 @@
       <c r="O322" s="2"/>
       <c r="P322" s="2"/>
     </row>
-    <row r="323" spans="1:16">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -6594,7 +6662,7 @@
       <c r="O323" s="2"/>
       <c r="P323" s="2"/>
     </row>
-    <row r="324" spans="1:16">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -6612,7 +6680,7 @@
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
     </row>
-    <row r="325" spans="1:16">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -6630,7 +6698,7 @@
       <c r="O325" s="2"/>
       <c r="P325" s="2"/>
     </row>
-    <row r="326" spans="1:16">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -6648,7 +6716,7 @@
       <c r="O326" s="2"/>
       <c r="P326" s="2"/>
     </row>
-    <row r="327" spans="1:16">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -6666,7 +6734,7 @@
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
     </row>
-    <row r="328" spans="1:16">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -6684,7 +6752,7 @@
       <c r="O328" s="2"/>
       <c r="P328" s="2"/>
     </row>
-    <row r="329" spans="1:16">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -6702,7 +6770,7 @@
       <c r="O329" s="2"/>
       <c r="P329" s="2"/>
     </row>
-    <row r="330" spans="1:16">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -6720,7 +6788,7 @@
       <c r="O330" s="2"/>
       <c r="P330" s="2"/>
     </row>
-    <row r="331" spans="1:16">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -6738,7 +6806,7 @@
       <c r="O331" s="2"/>
       <c r="P331" s="2"/>
     </row>
-    <row r="332" spans="1:16">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -6756,7 +6824,7 @@
       <c r="O332" s="2"/>
       <c r="P332" s="2"/>
     </row>
-    <row r="333" spans="1:16">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -6774,7 +6842,7 @@
       <c r="O333" s="2"/>
       <c r="P333" s="2"/>
     </row>
-    <row r="334" spans="1:16">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -6792,7 +6860,7 @@
       <c r="O334" s="2"/>
       <c r="P334" s="2"/>
     </row>
-    <row r="335" spans="1:16">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -6810,7 +6878,7 @@
       <c r="O335" s="2"/>
       <c r="P335" s="2"/>
     </row>
-    <row r="336" spans="1:16">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -6828,7 +6896,7 @@
       <c r="O336" s="2"/>
       <c r="P336" s="2"/>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -6846,7 +6914,7 @@
       <c r="O337" s="2"/>
       <c r="P337" s="2"/>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -6864,7 +6932,7 @@
       <c r="O338" s="2"/>
       <c r="P338" s="2"/>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -6882,7 +6950,7 @@
       <c r="O339" s="2"/>
       <c r="P339" s="2"/>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -6900,7 +6968,7 @@
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -6918,7 +6986,7 @@
       <c r="O341" s="2"/>
       <c r="P341" s="2"/>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -6936,7 +7004,7 @@
       <c r="O342" s="2"/>
       <c r="P342" s="2"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -6954,7 +7022,7 @@
       <c r="O343" s="2"/>
       <c r="P343" s="2"/>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -6972,7 +7040,7 @@
       <c r="O344" s="2"/>
       <c r="P344" s="2"/>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -6990,7 +7058,7 @@
       <c r="O345" s="2"/>
       <c r="P345" s="2"/>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -7008,7 +7076,7 @@
       <c r="O346" s="2"/>
       <c r="P346" s="2"/>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -7026,7 +7094,7 @@
       <c r="O347" s="2"/>
       <c r="P347" s="2"/>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -7044,7 +7112,7 @@
       <c r="O348" s="2"/>
       <c r="P348" s="2"/>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -7062,7 +7130,7 @@
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -7080,7 +7148,7 @@
       <c r="O350" s="2"/>
       <c r="P350" s="2"/>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -7098,7 +7166,7 @@
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -7116,7 +7184,7 @@
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
     </row>
-    <row r="353" spans="1:16">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -7134,7 +7202,7 @@
       <c r="O353" s="2"/>
       <c r="P353" s="2"/>
     </row>
-    <row r="354" spans="1:16">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -7152,7 +7220,7 @@
       <c r="O354" s="2"/>
       <c r="P354" s="2"/>
     </row>
-    <row r="355" spans="1:16">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -7170,7 +7238,7 @@
       <c r="O355" s="2"/>
       <c r="P355" s="2"/>
     </row>
-    <row r="356" spans="1:16">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -7188,7 +7256,7 @@
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
     </row>
-    <row r="357" spans="1:16">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -7206,7 +7274,7 @@
       <c r="O357" s="2"/>
       <c r="P357" s="2"/>
     </row>
-    <row r="358" spans="1:16">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -7224,7 +7292,7 @@
       <c r="O358" s="2"/>
       <c r="P358" s="2"/>
     </row>
-    <row r="359" spans="1:16">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -7242,7 +7310,7 @@
       <c r="O359" s="2"/>
       <c r="P359" s="2"/>
     </row>
-    <row r="360" spans="1:16">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -7260,7 +7328,7 @@
       <c r="O360" s="2"/>
       <c r="P360" s="2"/>
     </row>
-    <row r="361" spans="1:16">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -7278,7 +7346,7 @@
       <c r="O361" s="2"/>
       <c r="P361" s="2"/>
     </row>
-    <row r="362" spans="1:16">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -7296,7 +7364,7 @@
       <c r="O362" s="2"/>
       <c r="P362" s="2"/>
     </row>
-    <row r="363" spans="1:16">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -7314,7 +7382,7 @@
       <c r="O363" s="2"/>
       <c r="P363" s="2"/>
     </row>
-    <row r="364" spans="1:16">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -7332,7 +7400,7 @@
       <c r="O364" s="2"/>
       <c r="P364" s="2"/>
     </row>
-    <row r="365" spans="1:16">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -7350,7 +7418,7 @@
       <c r="O365" s="2"/>
       <c r="P365" s="2"/>
     </row>
-    <row r="366" spans="1:16">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -7368,7 +7436,7 @@
       <c r="O366" s="2"/>
       <c r="P366" s="2"/>
     </row>
-    <row r="367" spans="1:16">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -7386,7 +7454,7 @@
       <c r="O367" s="2"/>
       <c r="P367" s="2"/>
     </row>
-    <row r="368" spans="1:16">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -7404,7 +7472,7 @@
       <c r="O368" s="2"/>
       <c r="P368" s="2"/>
     </row>
-    <row r="369" spans="1:16">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -7422,7 +7490,7 @@
       <c r="O369" s="2"/>
       <c r="P369" s="2"/>
     </row>
-    <row r="370" spans="1:16">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -7440,7 +7508,7 @@
       <c r="O370" s="2"/>
       <c r="P370" s="2"/>
     </row>
-    <row r="371" spans="1:16">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -7458,7 +7526,7 @@
       <c r="O371" s="2"/>
       <c r="P371" s="2"/>
     </row>
-    <row r="372" spans="1:16">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -7476,7 +7544,7 @@
       <c r="O372" s="2"/>
       <c r="P372" s="2"/>
     </row>
-    <row r="373" spans="1:16">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -7494,7 +7562,7 @@
       <c r="O373" s="2"/>
       <c r="P373" s="2"/>
     </row>
-    <row r="374" spans="1:16">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -7512,7 +7580,7 @@
       <c r="O374" s="2"/>
       <c r="P374" s="2"/>
     </row>
-    <row r="375" spans="1:16">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -7530,7 +7598,7 @@
       <c r="O375" s="2"/>
       <c r="P375" s="2"/>
     </row>
-    <row r="376" spans="1:16">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -7548,7 +7616,7 @@
       <c r="O376" s="2"/>
       <c r="P376" s="2"/>
     </row>
-    <row r="377" spans="1:16">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -7566,7 +7634,7 @@
       <c r="O377" s="2"/>
       <c r="P377" s="2"/>
     </row>
-    <row r="378" spans="1:16">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -7584,7 +7652,7 @@
       <c r="O378" s="2"/>
       <c r="P378" s="2"/>
     </row>
-    <row r="379" spans="1:16">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -7602,7 +7670,7 @@
       <c r="O379" s="2"/>
       <c r="P379" s="2"/>
     </row>
-    <row r="380" spans="1:16">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -7620,7 +7688,7 @@
       <c r="O380" s="2"/>
       <c r="P380" s="2"/>
     </row>
-    <row r="381" spans="1:16">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -7638,7 +7706,7 @@
       <c r="O381" s="2"/>
       <c r="P381" s="2"/>
     </row>
-    <row r="382" spans="1:16">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -7656,7 +7724,7 @@
       <c r="O382" s="2"/>
       <c r="P382" s="2"/>
     </row>
-    <row r="383" spans="1:16">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -7674,7 +7742,7 @@
       <c r="O383" s="2"/>
       <c r="P383" s="2"/>
     </row>
-    <row r="384" spans="1:16">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -7692,7 +7760,7 @@
       <c r="O384" s="2"/>
       <c r="P384" s="2"/>
     </row>
-    <row r="385" spans="1:16">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -7710,7 +7778,7 @@
       <c r="O385" s="2"/>
       <c r="P385" s="2"/>
     </row>
-    <row r="386" spans="1:16">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -7728,7 +7796,7 @@
       <c r="O386" s="2"/>
       <c r="P386" s="2"/>
     </row>
-    <row r="387" spans="1:16">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -7746,7 +7814,7 @@
       <c r="O387" s="2"/>
       <c r="P387" s="2"/>
     </row>
-    <row r="388" spans="1:16">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -7764,7 +7832,7 @@
       <c r="O388" s="2"/>
       <c r="P388" s="2"/>
     </row>
-    <row r="389" spans="1:16">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -7782,7 +7850,7 @@
       <c r="O389" s="2"/>
       <c r="P389" s="2"/>
     </row>
-    <row r="390" spans="1:16">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -7800,7 +7868,7 @@
       <c r="O390" s="2"/>
       <c r="P390" s="2"/>
     </row>
-    <row r="391" spans="1:16">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -7818,7 +7886,7 @@
       <c r="O391" s="2"/>
       <c r="P391" s="2"/>
     </row>
-    <row r="392" spans="1:16">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -7836,7 +7904,7 @@
       <c r="O392" s="2"/>
       <c r="P392" s="2"/>
     </row>
-    <row r="393" spans="1:16">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -7854,7 +7922,7 @@
       <c r="O393" s="2"/>
       <c r="P393" s="2"/>
     </row>
-    <row r="394" spans="1:16">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -7872,7 +7940,7 @@
       <c r="O394" s="2"/>
       <c r="P394" s="2"/>
     </row>
-    <row r="395" spans="1:16">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -7890,7 +7958,7 @@
       <c r="O395" s="2"/>
       <c r="P395" s="2"/>
     </row>
-    <row r="396" spans="1:16">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -7908,7 +7976,7 @@
       <c r="O396" s="2"/>
       <c r="P396" s="2"/>
     </row>
-    <row r="397" spans="1:16">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -7926,7 +7994,7 @@
       <c r="O397" s="2"/>
       <c r="P397" s="2"/>
     </row>
-    <row r="398" spans="1:16">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -7944,7 +8012,7 @@
       <c r="O398" s="2"/>
       <c r="P398" s="2"/>
     </row>
-    <row r="399" spans="1:16">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -7962,7 +8030,7 @@
       <c r="O399" s="2"/>
       <c r="P399" s="2"/>
     </row>
-    <row r="400" spans="1:16">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -7980,7 +8048,7 @@
       <c r="O400" s="2"/>
       <c r="P400" s="2"/>
     </row>
-    <row r="401" spans="1:16">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -7998,7 +8066,7 @@
       <c r="O401" s="2"/>
       <c r="P401" s="2"/>
     </row>
-    <row r="402" spans="1:16">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -8016,7 +8084,7 @@
       <c r="O402" s="2"/>
       <c r="P402" s="2"/>
     </row>
-    <row r="403" spans="1:16">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -8034,7 +8102,7 @@
       <c r="O403" s="2"/>
       <c r="P403" s="2"/>
     </row>
-    <row r="404" spans="1:16">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -8052,7 +8120,7 @@
       <c r="O404" s="2"/>
       <c r="P404" s="2"/>
     </row>
-    <row r="405" spans="1:16">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -8070,7 +8138,7 @@
       <c r="O405" s="2"/>
       <c r="P405" s="2"/>
     </row>
-    <row r="406" spans="1:16">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -8088,7 +8156,7 @@
       <c r="O406" s="2"/>
       <c r="P406" s="2"/>
     </row>
-    <row r="407" spans="1:16">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -8106,7 +8174,7 @@
       <c r="O407" s="2"/>
       <c r="P407" s="2"/>
     </row>
-    <row r="408" spans="1:16">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -8124,7 +8192,7 @@
       <c r="O408" s="2"/>
       <c r="P408" s="2"/>
     </row>
-    <row r="409" spans="1:16">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -8142,7 +8210,7 @@
       <c r="O409" s="2"/>
       <c r="P409" s="2"/>
     </row>
-    <row r="410" spans="1:16">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -8160,7 +8228,7 @@
       <c r="O410" s="2"/>
       <c r="P410" s="2"/>
     </row>
-    <row r="411" spans="1:16">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -8178,7 +8246,7 @@
       <c r="O411" s="2"/>
       <c r="P411" s="2"/>
     </row>
-    <row r="412" spans="1:16">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -8196,7 +8264,7 @@
       <c r="O412" s="2"/>
       <c r="P412" s="2"/>
     </row>
-    <row r="413" spans="1:16">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -8214,7 +8282,7 @@
       <c r="O413" s="2"/>
       <c r="P413" s="2"/>
     </row>
-    <row r="414" spans="1:16">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -8232,7 +8300,7 @@
       <c r="O414" s="2"/>
       <c r="P414" s="2"/>
     </row>
-    <row r="415" spans="1:16">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -8250,7 +8318,7 @@
       <c r="O415" s="2"/>
       <c r="P415" s="2"/>
     </row>
-    <row r="416" spans="1:16">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -8268,7 +8336,7 @@
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
     </row>
-    <row r="417" spans="1:16">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -8286,7 +8354,7 @@
       <c r="O417" s="2"/>
       <c r="P417" s="2"/>
     </row>
-    <row r="418" spans="1:16">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -8304,7 +8372,7 @@
       <c r="O418" s="2"/>
       <c r="P418" s="2"/>
     </row>
-    <row r="419" spans="1:16">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -8322,7 +8390,7 @@
       <c r="O419" s="2"/>
       <c r="P419" s="2"/>
     </row>
-    <row r="420" spans="1:16">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -8340,7 +8408,7 @@
       <c r="O420" s="2"/>
       <c r="P420" s="2"/>
     </row>
-    <row r="421" spans="1:16">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -8358,7 +8426,7 @@
       <c r="O421" s="2"/>
       <c r="P421" s="2"/>
     </row>
-    <row r="422" spans="1:16">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -8376,7 +8444,7 @@
       <c r="O422" s="2"/>
       <c r="P422" s="2"/>
     </row>
-    <row r="423" spans="1:16">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -8394,7 +8462,7 @@
       <c r="O423" s="2"/>
       <c r="P423" s="2"/>
     </row>
-    <row r="424" spans="1:16">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -8412,7 +8480,7 @@
       <c r="O424" s="2"/>
       <c r="P424" s="2"/>
     </row>
-    <row r="425" spans="1:16">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -8430,7 +8498,7 @@
       <c r="O425" s="2"/>
       <c r="P425" s="2"/>
     </row>
-    <row r="426" spans="1:16">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -8448,7 +8516,7 @@
       <c r="O426" s="2"/>
       <c r="P426" s="2"/>
     </row>
-    <row r="427" spans="1:16">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -8466,7 +8534,7 @@
       <c r="O427" s="2"/>
       <c r="P427" s="2"/>
     </row>
-    <row r="428" spans="1:16">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -8484,7 +8552,7 @@
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
     </row>
-    <row r="429" spans="1:16">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -8502,7 +8570,7 @@
       <c r="O429" s="2"/>
       <c r="P429" s="2"/>
     </row>
-    <row r="430" spans="1:16">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -8520,7 +8588,7 @@
       <c r="O430" s="2"/>
       <c r="P430" s="2"/>
     </row>
-    <row r="431" spans="1:16">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -8538,7 +8606,7 @@
       <c r="O431" s="2"/>
       <c r="P431" s="2"/>
     </row>
-    <row r="432" spans="1:16">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -8556,7 +8624,7 @@
       <c r="O432" s="2"/>
       <c r="P432" s="2"/>
     </row>
-    <row r="433" spans="1:16">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -8574,7 +8642,7 @@
       <c r="O433" s="2"/>
       <c r="P433" s="2"/>
     </row>
-    <row r="434" spans="1:16">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -8592,7 +8660,7 @@
       <c r="O434" s="2"/>
       <c r="P434" s="2"/>
     </row>
-    <row r="435" spans="1:16">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -8610,7 +8678,7 @@
       <c r="O435" s="2"/>
       <c r="P435" s="2"/>
     </row>
-    <row r="436" spans="1:16">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -8628,7 +8696,7 @@
       <c r="O436" s="2"/>
       <c r="P436" s="2"/>
     </row>
-    <row r="437" spans="1:16">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -8646,7 +8714,7 @@
       <c r="O437" s="2"/>
       <c r="P437" s="2"/>
     </row>
-    <row r="438" spans="1:16">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -8664,7 +8732,7 @@
       <c r="O438" s="2"/>
       <c r="P438" s="2"/>
     </row>
-    <row r="439" spans="1:16">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -8682,7 +8750,7 @@
       <c r="O439" s="2"/>
       <c r="P439" s="2"/>
     </row>
-    <row r="440" spans="1:16">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -8700,7 +8768,7 @@
       <c r="O440" s="2"/>
       <c r="P440" s="2"/>
     </row>
-    <row r="441" spans="1:16">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -8718,7 +8786,7 @@
       <c r="O441" s="2"/>
       <c r="P441" s="2"/>
     </row>
-    <row r="442" spans="1:16">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -8736,7 +8804,7 @@
       <c r="O442" s="2"/>
       <c r="P442" s="2"/>
     </row>
-    <row r="443" spans="1:16">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -8754,7 +8822,7 @@
       <c r="O443" s="2"/>
       <c r="P443" s="2"/>
     </row>
-    <row r="444" spans="1:16">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -8772,7 +8840,7 @@
       <c r="O444" s="2"/>
       <c r="P444" s="2"/>
     </row>
-    <row r="445" spans="1:16">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -8790,7 +8858,7 @@
       <c r="O445" s="2"/>
       <c r="P445" s="2"/>
     </row>
-    <row r="446" spans="1:16">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -8808,7 +8876,7 @@
       <c r="O446" s="2"/>
       <c r="P446" s="2"/>
     </row>
-    <row r="447" spans="1:16">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -8826,7 +8894,7 @@
       <c r="O447" s="2"/>
       <c r="P447" s="2"/>
     </row>
-    <row r="448" spans="1:16">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -8844,7 +8912,7 @@
       <c r="O448" s="2"/>
       <c r="P448" s="2"/>
     </row>
-    <row r="449" spans="1:16">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -8862,7 +8930,7 @@
       <c r="O449" s="2"/>
       <c r="P449" s="2"/>
     </row>
-    <row r="450" spans="1:16">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -8880,7 +8948,7 @@
       <c r="O450" s="2"/>
       <c r="P450" s="2"/>
     </row>
-    <row r="451" spans="1:16">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -8898,7 +8966,7 @@
       <c r="O451" s="2"/>
       <c r="P451" s="2"/>
     </row>
-    <row r="452" spans="1:16">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -8916,7 +8984,7 @@
       <c r="O452" s="2"/>
       <c r="P452" s="2"/>
     </row>
-    <row r="453" spans="1:16">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -8934,7 +9002,7 @@
       <c r="O453" s="2"/>
       <c r="P453" s="2"/>
     </row>
-    <row r="454" spans="1:16">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -8952,7 +9020,7 @@
       <c r="O454" s="2"/>
       <c r="P454" s="2"/>
     </row>
-    <row r="455" spans="1:16">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -8970,7 +9038,7 @@
       <c r="O455" s="2"/>
       <c r="P455" s="2"/>
     </row>
-    <row r="456" spans="1:16">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -8988,7 +9056,7 @@
       <c r="O456" s="2"/>
       <c r="P456" s="2"/>
     </row>
-    <row r="457" spans="1:16">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -9006,7 +9074,7 @@
       <c r="O457" s="2"/>
       <c r="P457" s="2"/>
     </row>
-    <row r="458" spans="1:16">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -9024,7 +9092,7 @@
       <c r="O458" s="2"/>
       <c r="P458" s="2"/>
     </row>
-    <row r="459" spans="1:16">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -9042,7 +9110,7 @@
       <c r="O459" s="2"/>
       <c r="P459" s="2"/>
     </row>
-    <row r="460" spans="1:16">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -9060,7 +9128,7 @@
       <c r="O460" s="2"/>
       <c r="P460" s="2"/>
     </row>
-    <row r="461" spans="1:16">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -9078,7 +9146,7 @@
       <c r="O461" s="2"/>
       <c r="P461" s="2"/>
     </row>
-    <row r="462" spans="1:16">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -9096,7 +9164,7 @@
       <c r="O462" s="2"/>
       <c r="P462" s="2"/>
     </row>
-    <row r="463" spans="1:16">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -9114,7 +9182,7 @@
       <c r="O463" s="2"/>
       <c r="P463" s="2"/>
     </row>
-    <row r="464" spans="1:16">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -9132,7 +9200,7 @@
       <c r="O464" s="2"/>
       <c r="P464" s="2"/>
     </row>
-    <row r="465" spans="1:16">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -9150,7 +9218,7 @@
       <c r="O465" s="2"/>
       <c r="P465" s="2"/>
     </row>
-    <row r="466" spans="1:16">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -9168,7 +9236,7 @@
       <c r="O466" s="2"/>
       <c r="P466" s="2"/>
     </row>
-    <row r="467" spans="1:16">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -9186,7 +9254,7 @@
       <c r="O467" s="2"/>
       <c r="P467" s="2"/>
     </row>
-    <row r="468" spans="1:16">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -9204,7 +9272,7 @@
       <c r="O468" s="2"/>
       <c r="P468" s="2"/>
     </row>
-    <row r="469" spans="1:16">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -9222,7 +9290,7 @@
       <c r="O469" s="2"/>
       <c r="P469" s="2"/>
     </row>
-    <row r="470" spans="1:16">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -9240,7 +9308,7 @@
       <c r="O470" s="2"/>
       <c r="P470" s="2"/>
     </row>
-    <row r="471" spans="1:16">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -9258,7 +9326,7 @@
       <c r="O471" s="2"/>
       <c r="P471" s="2"/>
     </row>
-    <row r="472" spans="1:16">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -9276,7 +9344,7 @@
       <c r="O472" s="2"/>
       <c r="P472" s="2"/>
     </row>
-    <row r="473" spans="1:16">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -9294,7 +9362,7 @@
       <c r="O473" s="2"/>
       <c r="P473" s="2"/>
     </row>
-    <row r="474" spans="1:16">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -9312,7 +9380,7 @@
       <c r="O474" s="2"/>
       <c r="P474" s="2"/>
     </row>
-    <row r="475" spans="1:16">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -9330,7 +9398,7 @@
       <c r="O475" s="2"/>
       <c r="P475" s="2"/>
     </row>
-    <row r="476" spans="1:16">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -9348,7 +9416,7 @@
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
     </row>
-    <row r="477" spans="1:16">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -9366,7 +9434,7 @@
       <c r="O477" s="2"/>
       <c r="P477" s="2"/>
     </row>
-    <row r="478" spans="1:16">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -9384,7 +9452,7 @@
       <c r="O478" s="2"/>
       <c r="P478" s="2"/>
     </row>
-    <row r="479" spans="1:16">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -9402,7 +9470,7 @@
       <c r="O479" s="2"/>
       <c r="P479" s="2"/>
     </row>
-    <row r="480" spans="1:16">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -9420,7 +9488,7 @@
       <c r="O480" s="2"/>
       <c r="P480" s="2"/>
     </row>
-    <row r="481" spans="1:16">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -9438,7 +9506,7 @@
       <c r="O481" s="2"/>
       <c r="P481" s="2"/>
     </row>
-    <row r="482" spans="1:16">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -9456,7 +9524,7 @@
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
     </row>
-    <row r="483" spans="1:16">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -9474,7 +9542,7 @@
       <c r="O483" s="2"/>
       <c r="P483" s="2"/>
     </row>
-    <row r="484" spans="1:16">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -9492,7 +9560,7 @@
       <c r="O484" s="2"/>
       <c r="P484" s="2"/>
     </row>
-    <row r="485" spans="1:16">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -9510,7 +9578,7 @@
       <c r="O485" s="2"/>
       <c r="P485" s="2"/>
     </row>
-    <row r="486" spans="1:16">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -9528,7 +9596,7 @@
       <c r="O486" s="2"/>
       <c r="P486" s="2"/>
     </row>
-    <row r="487" spans="1:16">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -9546,7 +9614,7 @@
       <c r="O487" s="2"/>
       <c r="P487" s="2"/>
     </row>
-    <row r="488" spans="1:16">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -9564,7 +9632,7 @@
       <c r="O488" s="2"/>
       <c r="P488" s="2"/>
     </row>
-    <row r="489" spans="1:16">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -9582,7 +9650,7 @@
       <c r="O489" s="2"/>
       <c r="P489" s="2"/>
     </row>
-    <row r="490" spans="1:16">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -9600,7 +9668,7 @@
       <c r="O490" s="2"/>
       <c r="P490" s="2"/>
     </row>
-    <row r="491" spans="1:16">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -9618,7 +9686,7 @@
       <c r="O491" s="2"/>
       <c r="P491" s="2"/>
     </row>
-    <row r="492" spans="1:16">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -9636,7 +9704,7 @@
       <c r="O492" s="2"/>
       <c r="P492" s="2"/>
     </row>
-    <row r="493" spans="1:16">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -9654,7 +9722,7 @@
       <c r="O493" s="2"/>
       <c r="P493" s="2"/>
     </row>
-    <row r="494" spans="1:16">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -9672,7 +9740,7 @@
       <c r="O494" s="2"/>
       <c r="P494" s="2"/>
     </row>
-    <row r="495" spans="1:16">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -9690,7 +9758,7 @@
       <c r="O495" s="2"/>
       <c r="P495" s="2"/>
     </row>
-    <row r="496" spans="1:16">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -9708,7 +9776,7 @@
       <c r="O496" s="2"/>
       <c r="P496" s="2"/>
     </row>
-    <row r="497" spans="1:16">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -9726,7 +9794,7 @@
       <c r="O497" s="2"/>
       <c r="P497" s="2"/>
     </row>
-    <row r="498" spans="1:16">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -9744,7 +9812,7 @@
       <c r="O498" s="2"/>
       <c r="P498" s="2"/>
     </row>
-    <row r="499" spans="1:16">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -9762,7 +9830,7 @@
       <c r="O499" s="2"/>
       <c r="P499" s="2"/>
     </row>
-    <row r="500" spans="1:16">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -9780,7 +9848,7 @@
       <c r="O500" s="2"/>
       <c r="P500" s="2"/>
     </row>
-    <row r="501" spans="1:16">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -9798,7 +9866,7 @@
       <c r="O501" s="2"/>
       <c r="P501" s="2"/>
     </row>
-    <row r="502" spans="1:16">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -9816,7 +9884,7 @@
       <c r="O502" s="2"/>
       <c r="P502" s="2"/>
     </row>
-    <row r="503" spans="1:16">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -9834,7 +9902,7 @@
       <c r="O503" s="2"/>
       <c r="P503" s="2"/>
     </row>
-    <row r="504" spans="1:16">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -9852,7 +9920,7 @@
       <c r="O504" s="2"/>
       <c r="P504" s="2"/>
     </row>
-    <row r="505" spans="1:16">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -9870,7 +9938,7 @@
       <c r="O505" s="2"/>
       <c r="P505" s="2"/>
     </row>
-    <row r="506" spans="1:16">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -9888,7 +9956,7 @@
       <c r="O506" s="2"/>
       <c r="P506" s="2"/>
     </row>
-    <row r="507" spans="1:16">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -9906,7 +9974,7 @@
       <c r="O507" s="2"/>
       <c r="P507" s="2"/>
     </row>
-    <row r="508" spans="1:16">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -9924,7 +9992,7 @@
       <c r="O508" s="2"/>
       <c r="P508" s="2"/>
     </row>
-    <row r="509" spans="1:16">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -9942,7 +10010,7 @@
       <c r="O509" s="2"/>
       <c r="P509" s="2"/>
     </row>
-    <row r="510" spans="1:16">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -9960,7 +10028,7 @@
       <c r="O510" s="2"/>
       <c r="P510" s="2"/>
     </row>
-    <row r="511" spans="1:16">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -9978,7 +10046,7 @@
       <c r="O511" s="2"/>
       <c r="P511" s="2"/>
     </row>
-    <row r="512" spans="1:16">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -9996,7 +10064,7 @@
       <c r="O512" s="2"/>
       <c r="P512" s="2"/>
     </row>
-    <row r="513" spans="1:16">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -10014,7 +10082,7 @@
       <c r="O513" s="2"/>
       <c r="P513" s="2"/>
     </row>
-    <row r="514" spans="1:16">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -10032,7 +10100,7 @@
       <c r="O514" s="2"/>
       <c r="P514" s="2"/>
     </row>
-    <row r="515" spans="1:16">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -10050,7 +10118,7 @@
       <c r="O515" s="2"/>
       <c r="P515" s="2"/>
     </row>
-    <row r="516" spans="1:16">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -10068,7 +10136,7 @@
       <c r="O516" s="2"/>
       <c r="P516" s="2"/>
     </row>
-    <row r="517" spans="1:16">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -10086,7 +10154,7 @@
       <c r="O517" s="2"/>
       <c r="P517" s="2"/>
     </row>
-    <row r="518" spans="1:16">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -10104,7 +10172,7 @@
       <c r="O518" s="2"/>
       <c r="P518" s="2"/>
     </row>
-    <row r="519" spans="1:16">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -10122,7 +10190,7 @@
       <c r="O519" s="2"/>
       <c r="P519" s="2"/>
     </row>
-    <row r="520" spans="1:16">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -10140,7 +10208,7 @@
       <c r="O520" s="2"/>
       <c r="P520" s="2"/>
     </row>
-    <row r="521" spans="1:16">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -10158,7 +10226,7 @@
       <c r="O521" s="2"/>
       <c r="P521" s="2"/>
     </row>
-    <row r="522" spans="1:16">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -10176,7 +10244,7 @@
       <c r="O522" s="2"/>
       <c r="P522" s="2"/>
     </row>
-    <row r="523" spans="1:16">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -10194,7 +10262,7 @@
       <c r="O523" s="2"/>
       <c r="P523" s="2"/>
     </row>
-    <row r="524" spans="1:16">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -10212,7 +10280,7 @@
       <c r="O524" s="2"/>
       <c r="P524" s="2"/>
     </row>
-    <row r="525" spans="1:16">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -10230,7 +10298,7 @@
       <c r="O525" s="2"/>
       <c r="P525" s="2"/>
     </row>
-    <row r="526" spans="1:16">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -10248,7 +10316,7 @@
       <c r="O526" s="2"/>
       <c r="P526" s="2"/>
     </row>
-    <row r="527" spans="1:16">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -10266,7 +10334,7 @@
       <c r="O527" s="2"/>
       <c r="P527" s="2"/>
     </row>
-    <row r="528" spans="1:16">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -10284,7 +10352,7 @@
       <c r="O528" s="2"/>
       <c r="P528" s="2"/>
     </row>
-    <row r="529" spans="1:16">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -10302,7 +10370,7 @@
       <c r="O529" s="2"/>
       <c r="P529" s="2"/>
     </row>
-    <row r="530" spans="1:16">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -10320,7 +10388,7 @@
       <c r="O530" s="2"/>
       <c r="P530" s="2"/>
     </row>
-    <row r="531" spans="1:16">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -10338,7 +10406,7 @@
       <c r="O531" s="2"/>
       <c r="P531" s="2"/>
     </row>
-    <row r="532" spans="1:16">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -10356,7 +10424,7 @@
       <c r="O532" s="2"/>
       <c r="P532" s="2"/>
     </row>
-    <row r="533" spans="1:16">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -10374,7 +10442,7 @@
       <c r="O533" s="2"/>
       <c r="P533" s="2"/>
     </row>
-    <row r="534" spans="1:16">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -10392,7 +10460,7 @@
       <c r="O534" s="2"/>
       <c r="P534" s="2"/>
     </row>
-    <row r="535" spans="1:16">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -10410,7 +10478,7 @@
       <c r="O535" s="2"/>
       <c r="P535" s="2"/>
     </row>
-    <row r="536" spans="1:16">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -10428,7 +10496,7 @@
       <c r="O536" s="2"/>
       <c r="P536" s="2"/>
     </row>
-    <row r="537" spans="1:16">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -10446,7 +10514,7 @@
       <c r="O537" s="2"/>
       <c r="P537" s="2"/>
     </row>
-    <row r="538" spans="1:16">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -10464,7 +10532,7 @@
       <c r="O538" s="2"/>
       <c r="P538" s="2"/>
     </row>
-    <row r="539" spans="1:16">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -10482,7 +10550,7 @@
       <c r="O539" s="2"/>
       <c r="P539" s="2"/>
     </row>
-    <row r="540" spans="1:16">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -10500,7 +10568,7 @@
       <c r="O540" s="2"/>
       <c r="P540" s="2"/>
     </row>
-    <row r="541" spans="1:16">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -10518,7 +10586,7 @@
       <c r="O541" s="2"/>
       <c r="P541" s="2"/>
     </row>
-    <row r="542" spans="1:16">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -10536,7 +10604,7 @@
       <c r="O542" s="2"/>
       <c r="P542" s="2"/>
     </row>
-    <row r="543" spans="1:16">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -10554,7 +10622,7 @@
       <c r="O543" s="2"/>
       <c r="P543" s="2"/>
     </row>
-    <row r="544" spans="1:16">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -10572,7 +10640,7 @@
       <c r="O544" s="2"/>
       <c r="P544" s="2"/>
     </row>
-    <row r="545" spans="1:16">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -10590,7 +10658,7 @@
       <c r="O545" s="2"/>
       <c r="P545" s="2"/>
     </row>
-    <row r="546" spans="1:16">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -10608,7 +10676,7 @@
       <c r="O546" s="2"/>
       <c r="P546" s="2"/>
     </row>
-    <row r="547" spans="1:16">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -10626,7 +10694,7 @@
       <c r="O547" s="2"/>
       <c r="P547" s="2"/>
     </row>
-    <row r="548" spans="1:16">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -10644,7 +10712,7 @@
       <c r="O548" s="2"/>
       <c r="P548" s="2"/>
     </row>
-    <row r="549" spans="1:16">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -10662,7 +10730,7 @@
       <c r="O549" s="2"/>
       <c r="P549" s="2"/>
     </row>
-    <row r="550" spans="1:16">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -10680,7 +10748,7 @@
       <c r="O550" s="2"/>
       <c r="P550" s="2"/>
     </row>
-    <row r="551" spans="1:16">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -10698,7 +10766,7 @@
       <c r="O551" s="2"/>
       <c r="P551" s="2"/>
     </row>
-    <row r="552" spans="1:16">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -10716,7 +10784,7 @@
       <c r="O552" s="2"/>
       <c r="P552" s="2"/>
     </row>
-    <row r="553" spans="1:16">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -10734,7 +10802,7 @@
       <c r="O553" s="2"/>
       <c r="P553" s="2"/>
     </row>
-    <row r="554" spans="1:16">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -10752,7 +10820,7 @@
       <c r="O554" s="2"/>
       <c r="P554" s="2"/>
     </row>
-    <row r="555" spans="1:16">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -10770,7 +10838,7 @@
       <c r="O555" s="2"/>
       <c r="P555" s="2"/>
     </row>
-    <row r="556" spans="1:16">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -10788,7 +10856,7 @@
       <c r="O556" s="2"/>
       <c r="P556" s="2"/>
     </row>
-    <row r="557" spans="1:16">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -10806,7 +10874,7 @@
       <c r="O557" s="2"/>
       <c r="P557" s="2"/>
     </row>
-    <row r="558" spans="1:16">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -10824,7 +10892,7 @@
       <c r="O558" s="2"/>
       <c r="P558" s="2"/>
     </row>
-    <row r="559" spans="1:16">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -10842,7 +10910,7 @@
       <c r="O559" s="2"/>
       <c r="P559" s="2"/>
     </row>
-    <row r="560" spans="1:16">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -10860,7 +10928,7 @@
       <c r="O560" s="2"/>
       <c r="P560" s="2"/>
     </row>
-    <row r="561" spans="1:16">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -10878,7 +10946,7 @@
       <c r="O561" s="2"/>
       <c r="P561" s="2"/>
     </row>
-    <row r="562" spans="1:16">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -10896,7 +10964,7 @@
       <c r="O562" s="2"/>
       <c r="P562" s="2"/>
     </row>
-    <row r="563" spans="1:16">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -10914,7 +10982,7 @@
       <c r="O563" s="2"/>
       <c r="P563" s="2"/>
     </row>
-    <row r="564" spans="1:16">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -10932,7 +11000,7 @@
       <c r="O564" s="2"/>
       <c r="P564" s="2"/>
     </row>
-    <row r="565" spans="1:16">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -10950,7 +11018,7 @@
       <c r="O565" s="2"/>
       <c r="P565" s="2"/>
     </row>
-    <row r="566" spans="1:16">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -10968,7 +11036,7 @@
       <c r="O566" s="2"/>
       <c r="P566" s="2"/>
     </row>
-    <row r="567" spans="1:16">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -10986,7 +11054,7 @@
       <c r="O567" s="2"/>
       <c r="P567" s="2"/>
     </row>
-    <row r="568" spans="1:16">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -11004,7 +11072,7 @@
       <c r="O568" s="2"/>
       <c r="P568" s="2"/>
     </row>
-    <row r="569" spans="1:16">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -11022,7 +11090,7 @@
       <c r="O569" s="2"/>
       <c r="P569" s="2"/>
     </row>
-    <row r="570" spans="1:16">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -11040,7 +11108,7 @@
       <c r="O570" s="2"/>
       <c r="P570" s="2"/>
     </row>
-    <row r="571" spans="1:16">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -11058,7 +11126,7 @@
       <c r="O571" s="2"/>
       <c r="P571" s="2"/>
     </row>
-    <row r="572" spans="1:16">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -11076,7 +11144,7 @@
       <c r="O572" s="2"/>
       <c r="P572" s="2"/>
     </row>
-    <row r="573" spans="1:16">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -11094,7 +11162,7 @@
       <c r="O573" s="2"/>
       <c r="P573" s="2"/>
     </row>
-    <row r="574" spans="1:16">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -11112,7 +11180,7 @@
       <c r="O574" s="2"/>
       <c r="P574" s="2"/>
     </row>
-    <row r="575" spans="1:16">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -11130,7 +11198,7 @@
       <c r="O575" s="2"/>
       <c r="P575" s="2"/>
     </row>
-    <row r="576" spans="1:16">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -11148,7 +11216,7 @@
       <c r="O576" s="2"/>
       <c r="P576" s="2"/>
     </row>
-    <row r="577" spans="1:16">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -11166,7 +11234,7 @@
       <c r="O577" s="2"/>
       <c r="P577" s="2"/>
     </row>
-    <row r="578" spans="1:16">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -11184,7 +11252,7 @@
       <c r="O578" s="2"/>
       <c r="P578" s="2"/>
     </row>
-    <row r="579" spans="1:16">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -11202,7 +11270,7 @@
       <c r="O579" s="2"/>
       <c r="P579" s="2"/>
     </row>
-    <row r="580" spans="1:16">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -11220,7 +11288,7 @@
       <c r="O580" s="2"/>
       <c r="P580" s="2"/>
     </row>
-    <row r="581" spans="1:16">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -11238,7 +11306,7 @@
       <c r="O581" s="2"/>
       <c r="P581" s="2"/>
     </row>
-    <row r="582" spans="1:16">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -11256,7 +11324,7 @@
       <c r="O582" s="2"/>
       <c r="P582" s="2"/>
     </row>
-    <row r="583" spans="1:16">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -11274,7 +11342,7 @@
       <c r="O583" s="2"/>
       <c r="P583" s="2"/>
     </row>
-    <row r="584" spans="1:16">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -11292,7 +11360,7 @@
       <c r="O584" s="2"/>
       <c r="P584" s="2"/>
     </row>
-    <row r="585" spans="1:16">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -11310,7 +11378,7 @@
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
     </row>
-    <row r="586" spans="1:16">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -11328,7 +11396,7 @@
       <c r="O586" s="2"/>
       <c r="P586" s="2"/>
     </row>
-    <row r="587" spans="1:16">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -11346,7 +11414,7 @@
       <c r="O587" s="2"/>
       <c r="P587" s="2"/>
     </row>
-    <row r="588" spans="1:16">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -11364,7 +11432,7 @@
       <c r="O588" s="2"/>
       <c r="P588" s="2"/>
     </row>
-    <row r="589" spans="1:16">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -11382,7 +11450,7 @@
       <c r="O589" s="2"/>
       <c r="P589" s="2"/>
     </row>
-    <row r="590" spans="1:16">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -11400,7 +11468,7 @@
       <c r="O590" s="2"/>
       <c r="P590" s="2"/>
     </row>
-    <row r="591" spans="1:16">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -11418,7 +11486,7 @@
       <c r="O591" s="2"/>
       <c r="P591" s="2"/>
     </row>
-    <row r="592" spans="1:16">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -11436,7 +11504,7 @@
       <c r="O592" s="2"/>
       <c r="P592" s="2"/>
     </row>
-    <row r="593" spans="1:16">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -11454,7 +11522,7 @@
       <c r="O593" s="2"/>
       <c r="P593" s="2"/>
     </row>
-    <row r="594" spans="1:16">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -11472,7 +11540,7 @@
       <c r="O594" s="2"/>
       <c r="P594" s="2"/>
     </row>
-    <row r="595" spans="1:16">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -11490,7 +11558,7 @@
       <c r="O595" s="2"/>
       <c r="P595" s="2"/>
     </row>
-    <row r="596" spans="1:16">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -11508,7 +11576,7 @@
       <c r="O596" s="2"/>
       <c r="P596" s="2"/>
     </row>
-    <row r="597" spans="1:16">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -11526,7 +11594,7 @@
       <c r="O597" s="2"/>
       <c r="P597" s="2"/>
     </row>
-    <row r="598" spans="1:16">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -11544,7 +11612,7 @@
       <c r="O598" s="2"/>
       <c r="P598" s="2"/>
     </row>
-    <row r="599" spans="1:16">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -11562,7 +11630,7 @@
       <c r="O599" s="2"/>
       <c r="P599" s="2"/>
     </row>
-    <row r="600" spans="1:16">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -11580,7 +11648,7 @@
       <c r="O600" s="2"/>
       <c r="P600" s="2"/>
     </row>
-    <row r="601" spans="1:16">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -11598,7 +11666,7 @@
       <c r="O601" s="2"/>
       <c r="P601" s="2"/>
     </row>
-    <row r="602" spans="1:16">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -11616,7 +11684,7 @@
       <c r="O602" s="2"/>
       <c r="P602" s="2"/>
     </row>
-    <row r="603" spans="1:16">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -11634,7 +11702,7 @@
       <c r="O603" s="2"/>
       <c r="P603" s="2"/>
     </row>
-    <row r="604" spans="1:16">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -11652,7 +11720,7 @@
       <c r="O604" s="2"/>
       <c r="P604" s="2"/>
     </row>
-    <row r="605" spans="1:16">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -11670,7 +11738,7 @@
       <c r="O605" s="2"/>
       <c r="P605" s="2"/>
     </row>
-    <row r="606" spans="1:16">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -11688,7 +11756,7 @@
       <c r="O606" s="2"/>
       <c r="P606" s="2"/>
     </row>
-    <row r="607" spans="1:16">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -11706,7 +11774,7 @@
       <c r="O607" s="2"/>
       <c r="P607" s="2"/>
     </row>
-    <row r="608" spans="1:16">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -11724,7 +11792,7 @@
       <c r="O608" s="2"/>
       <c r="P608" s="2"/>
     </row>
-    <row r="609" spans="1:16">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -11742,7 +11810,7 @@
       <c r="O609" s="2"/>
       <c r="P609" s="2"/>
     </row>
-    <row r="610" spans="1:16">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -11760,7 +11828,7 @@
       <c r="O610" s="2"/>
       <c r="P610" s="2"/>
     </row>
-    <row r="611" spans="1:16">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -11778,7 +11846,7 @@
       <c r="O611" s="2"/>
       <c r="P611" s="2"/>
     </row>
-    <row r="612" spans="1:16">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -11796,7 +11864,7 @@
       <c r="O612" s="2"/>
       <c r="P612" s="2"/>
     </row>
-    <row r="613" spans="1:16">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -11814,7 +11882,7 @@
       <c r="O613" s="2"/>
       <c r="P613" s="2"/>
     </row>
-    <row r="614" spans="1:16">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -11832,7 +11900,7 @@
       <c r="O614" s="2"/>
       <c r="P614" s="2"/>
     </row>
-    <row r="615" spans="1:16">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -11850,7 +11918,7 @@
       <c r="O615" s="2"/>
       <c r="P615" s="2"/>
     </row>
-    <row r="616" spans="1:16">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -11868,7 +11936,7 @@
       <c r="O616" s="2"/>
       <c r="P616" s="2"/>
     </row>
-    <row r="617" spans="1:16">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -11886,7 +11954,7 @@
       <c r="O617" s="2"/>
       <c r="P617" s="2"/>
     </row>
-    <row r="618" spans="1:16">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -11904,7 +11972,7 @@
       <c r="O618" s="2"/>
       <c r="P618" s="2"/>
     </row>
-    <row r="619" spans="1:16">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -11922,7 +11990,7 @@
       <c r="O619" s="2"/>
       <c r="P619" s="2"/>
     </row>
-    <row r="620" spans="1:16">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -11940,7 +12008,7 @@
       <c r="O620" s="2"/>
       <c r="P620" s="2"/>
     </row>
-    <row r="621" spans="1:16">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -11958,7 +12026,7 @@
       <c r="O621" s="2"/>
       <c r="P621" s="2"/>
     </row>
-    <row r="622" spans="1:16">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -11976,7 +12044,7 @@
       <c r="O622" s="2"/>
       <c r="P622" s="2"/>
     </row>
-    <row r="623" spans="1:16">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -11994,7 +12062,7 @@
       <c r="O623" s="2"/>
       <c r="P623" s="2"/>
     </row>
-    <row r="624" spans="1:16">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -12012,7 +12080,7 @@
       <c r="O624" s="2"/>
       <c r="P624" s="2"/>
     </row>
-    <row r="625" spans="1:16">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -12030,7 +12098,7 @@
       <c r="O625" s="2"/>
       <c r="P625" s="2"/>
     </row>
-    <row r="626" spans="1:16">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -12048,7 +12116,7 @@
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
     </row>
-    <row r="627" spans="1:16">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -12066,7 +12134,7 @@
       <c r="O627" s="2"/>
       <c r="P627" s="2"/>
     </row>
-    <row r="628" spans="1:16">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -12084,7 +12152,7 @@
       <c r="O628" s="2"/>
       <c r="P628" s="2"/>
     </row>
-    <row r="629" spans="1:16">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -12102,7 +12170,7 @@
       <c r="O629" s="2"/>
       <c r="P629" s="2"/>
     </row>
-    <row r="630" spans="1:16">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -12120,7 +12188,7 @@
       <c r="O630" s="2"/>
       <c r="P630" s="2"/>
     </row>
-    <row r="631" spans="1:16">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -12138,7 +12206,7 @@
       <c r="O631" s="2"/>
       <c r="P631" s="2"/>
     </row>
-    <row r="632" spans="1:16">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -12156,7 +12224,7 @@
       <c r="O632" s="2"/>
       <c r="P632" s="2"/>
     </row>
-    <row r="633" spans="1:16">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -12174,7 +12242,7 @@
       <c r="O633" s="2"/>
       <c r="P633" s="2"/>
     </row>
-    <row r="634" spans="1:16">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -12192,7 +12260,7 @@
       <c r="O634" s="2"/>
       <c r="P634" s="2"/>
     </row>
-    <row r="635" spans="1:16">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -12210,7 +12278,7 @@
       <c r="O635" s="2"/>
       <c r="P635" s="2"/>
     </row>
-    <row r="636" spans="1:16">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -12228,7 +12296,7 @@
       <c r="O636" s="2"/>
       <c r="P636" s="2"/>
     </row>
-    <row r="637" spans="1:16">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -12246,7 +12314,7 @@
       <c r="O637" s="2"/>
       <c r="P637" s="2"/>
     </row>
-    <row r="638" spans="1:16">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -12264,7 +12332,7 @@
       <c r="O638" s="2"/>
       <c r="P638" s="2"/>
     </row>
-    <row r="639" spans="1:16">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -12282,7 +12350,7 @@
       <c r="O639" s="2"/>
       <c r="P639" s="2"/>
     </row>
-    <row r="640" spans="1:16">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -12300,7 +12368,7 @@
       <c r="O640" s="2"/>
       <c r="P640" s="2"/>
     </row>
-    <row r="641" spans="1:16">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -12318,7 +12386,7 @@
       <c r="O641" s="2"/>
       <c r="P641" s="2"/>
     </row>
-    <row r="642" spans="1:16">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -12336,7 +12404,7 @@
       <c r="O642" s="2"/>
       <c r="P642" s="2"/>
     </row>
-    <row r="643" spans="1:16">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -12354,7 +12422,7 @@
       <c r="O643" s="2"/>
       <c r="P643" s="2"/>
     </row>
-    <row r="644" spans="1:16">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -12372,7 +12440,7 @@
       <c r="O644" s="2"/>
       <c r="P644" s="2"/>
     </row>
-    <row r="645" spans="1:16">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -12390,7 +12458,7 @@
       <c r="O645" s="2"/>
       <c r="P645" s="2"/>
     </row>
-    <row r="646" spans="1:16">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -12408,7 +12476,7 @@
       <c r="O646" s="2"/>
       <c r="P646" s="2"/>
     </row>
-    <row r="647" spans="1:16">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -12426,7 +12494,7 @@
       <c r="O647" s="2"/>
       <c r="P647" s="2"/>
     </row>
-    <row r="648" spans="1:16">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -12444,7 +12512,7 @@
       <c r="O648" s="2"/>
       <c r="P648" s="2"/>
     </row>
-    <row r="649" spans="1:16">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -12462,7 +12530,7 @@
       <c r="O649" s="2"/>
       <c r="P649" s="2"/>
     </row>
-    <row r="650" spans="1:16">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -12480,7 +12548,7 @@
       <c r="O650" s="2"/>
       <c r="P650" s="2"/>
     </row>
-    <row r="651" spans="1:16">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -12498,7 +12566,7 @@
       <c r="O651" s="2"/>
       <c r="P651" s="2"/>
     </row>
-    <row r="652" spans="1:16">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -12516,7 +12584,7 @@
       <c r="O652" s="2"/>
       <c r="P652" s="2"/>
     </row>
-    <row r="653" spans="1:16">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -12534,7 +12602,7 @@
       <c r="O653" s="2"/>
       <c r="P653" s="2"/>
     </row>
-    <row r="654" spans="1:16">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -12552,7 +12620,7 @@
       <c r="O654" s="2"/>
       <c r="P654" s="2"/>
     </row>
-    <row r="655" spans="1:16">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -12570,7 +12638,7 @@
       <c r="O655" s="2"/>
       <c r="P655" s="2"/>
     </row>
-    <row r="656" spans="1:16">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -12588,7 +12656,7 @@
       <c r="O656" s="2"/>
       <c r="P656" s="2"/>
     </row>
-    <row r="657" spans="1:16">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -12606,7 +12674,7 @@
       <c r="O657" s="2"/>
       <c r="P657" s="2"/>
     </row>
-    <row r="658" spans="1:16">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -12624,7 +12692,7 @@
       <c r="O658" s="2"/>
       <c r="P658" s="2"/>
     </row>
-    <row r="659" spans="1:16">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -12642,7 +12710,7 @@
       <c r="O659" s="2"/>
       <c r="P659" s="2"/>
     </row>
-    <row r="660" spans="1:16">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -12660,7 +12728,7 @@
       <c r="O660" s="2"/>
       <c r="P660" s="2"/>
     </row>
-    <row r="661" spans="1:16">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -12678,7 +12746,7 @@
       <c r="O661" s="2"/>
       <c r="P661" s="2"/>
     </row>
-    <row r="662" spans="1:16">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -12696,7 +12764,7 @@
       <c r="O662" s="2"/>
       <c r="P662" s="2"/>
     </row>
-    <row r="663" spans="1:16">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -12714,7 +12782,7 @@
       <c r="O663" s="2"/>
       <c r="P663" s="2"/>
     </row>
-    <row r="664" spans="1:16">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -12732,7 +12800,7 @@
       <c r="O664" s="2"/>
       <c r="P664" s="2"/>
     </row>
-    <row r="665" spans="1:16">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -12750,7 +12818,7 @@
       <c r="O665" s="2"/>
       <c r="P665" s="2"/>
     </row>
-    <row r="666" spans="1:16">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -12768,7 +12836,7 @@
       <c r="O666" s="2"/>
       <c r="P666" s="2"/>
     </row>
-    <row r="667" spans="1:16">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -12786,7 +12854,7 @@
       <c r="O667" s="2"/>
       <c r="P667" s="2"/>
     </row>
-    <row r="668" spans="1:16">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -12804,7 +12872,7 @@
       <c r="O668" s="2"/>
       <c r="P668" s="2"/>
     </row>
-    <row r="669" spans="1:16">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -12822,7 +12890,7 @@
       <c r="O669" s="2"/>
       <c r="P669" s="2"/>
     </row>
-    <row r="670" spans="1:16">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -12840,7 +12908,7 @@
       <c r="O670" s="2"/>
       <c r="P670" s="2"/>
     </row>
-    <row r="671" spans="1:16">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -12858,7 +12926,7 @@
       <c r="O671" s="2"/>
       <c r="P671" s="2"/>
     </row>
-    <row r="672" spans="1:16">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -12876,7 +12944,7 @@
       <c r="O672" s="2"/>
       <c r="P672" s="2"/>
     </row>
-    <row r="673" spans="1:16">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -12894,7 +12962,7 @@
       <c r="O673" s="2"/>
       <c r="P673" s="2"/>
     </row>
-    <row r="674" spans="1:16">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -12912,7 +12980,7 @@
       <c r="O674" s="2"/>
       <c r="P674" s="2"/>
     </row>
-    <row r="675" spans="1:16">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -12930,7 +12998,7 @@
       <c r="O675" s="2"/>
       <c r="P675" s="2"/>
     </row>
-    <row r="676" spans="1:16">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -12948,7 +13016,7 @@
       <c r="O676" s="2"/>
       <c r="P676" s="2"/>
     </row>
-    <row r="677" spans="1:16">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -12966,7 +13034,7 @@
       <c r="O677" s="2"/>
       <c r="P677" s="2"/>
     </row>
-    <row r="678" spans="1:16">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -12984,7 +13052,7 @@
       <c r="O678" s="2"/>
       <c r="P678" s="2"/>
     </row>
-    <row r="679" spans="1:16">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -13002,7 +13070,7 @@
       <c r="O679" s="2"/>
       <c r="P679" s="2"/>
     </row>
-    <row r="680" spans="1:16">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -13020,7 +13088,7 @@
       <c r="O680" s="2"/>
       <c r="P680" s="2"/>
     </row>
-    <row r="681" spans="1:16">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -13038,7 +13106,7 @@
       <c r="O681" s="2"/>
       <c r="P681" s="2"/>
     </row>
-    <row r="682" spans="1:16">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -13056,7 +13124,7 @@
       <c r="O682" s="2"/>
       <c r="P682" s="2"/>
     </row>
-    <row r="683" spans="1:16">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -13074,7 +13142,7 @@
       <c r="O683" s="2"/>
       <c r="P683" s="2"/>
     </row>
-    <row r="684" spans="1:16">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -13092,7 +13160,7 @@
       <c r="O684" s="2"/>
       <c r="P684" s="2"/>
     </row>
-    <row r="685" spans="1:16">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -13110,7 +13178,7 @@
       <c r="O685" s="2"/>
       <c r="P685" s="2"/>
     </row>
-    <row r="686" spans="1:16">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -13128,7 +13196,7 @@
       <c r="O686" s="2"/>
       <c r="P686" s="2"/>
     </row>
-    <row r="687" spans="1:16">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -13146,7 +13214,7 @@
       <c r="O687" s="2"/>
       <c r="P687" s="2"/>
     </row>
-    <row r="688" spans="1:16">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -13164,7 +13232,7 @@
       <c r="O688" s="2"/>
       <c r="P688" s="2"/>
     </row>
-    <row r="689" spans="1:16">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -13182,7 +13250,7 @@
       <c r="O689" s="2"/>
       <c r="P689" s="2"/>
     </row>
-    <row r="690" spans="1:16">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -13200,7 +13268,7 @@
       <c r="O690" s="2"/>
       <c r="P690" s="2"/>
     </row>
-    <row r="691" spans="1:16">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -13218,7 +13286,7 @@
       <c r="O691" s="2"/>
       <c r="P691" s="2"/>
     </row>
-    <row r="692" spans="1:16">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -13236,7 +13304,7 @@
       <c r="O692" s="2"/>
       <c r="P692" s="2"/>
     </row>
-    <row r="693" spans="1:16">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -13254,7 +13322,7 @@
       <c r="O693" s="2"/>
       <c r="P693" s="2"/>
     </row>
-    <row r="694" spans="1:16">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -13272,7 +13340,7 @@
       <c r="O694" s="2"/>
       <c r="P694" s="2"/>
     </row>
-    <row r="695" spans="1:16">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -13290,7 +13358,7 @@
       <c r="O695" s="2"/>
       <c r="P695" s="2"/>
     </row>
-    <row r="696" spans="1:16">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -13308,7 +13376,7 @@
       <c r="O696" s="2"/>
       <c r="P696" s="2"/>
     </row>
-    <row r="697" spans="1:16">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -13326,7 +13394,7 @@
       <c r="O697" s="2"/>
       <c r="P697" s="2"/>
     </row>
-    <row r="698" spans="1:16">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -13344,7 +13412,7 @@
       <c r="O698" s="2"/>
       <c r="P698" s="2"/>
     </row>
-    <row r="699" spans="1:16">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -13362,7 +13430,7 @@
       <c r="O699" s="2"/>
       <c r="P699" s="2"/>
     </row>
-    <row r="700" spans="1:16">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -13380,7 +13448,7 @@
       <c r="O700" s="2"/>
       <c r="P700" s="2"/>
     </row>
-    <row r="701" spans="1:16">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -13398,7 +13466,7 @@
       <c r="O701" s="2"/>
       <c r="P701" s="2"/>
     </row>
-    <row r="702" spans="1:16">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -13416,7 +13484,7 @@
       <c r="O702" s="2"/>
       <c r="P702" s="2"/>
     </row>
-    <row r="703" spans="1:16">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -13434,7 +13502,7 @@
       <c r="O703" s="2"/>
       <c r="P703" s="2"/>
     </row>
-    <row r="704" spans="1:16">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -13452,7 +13520,7 @@
       <c r="O704" s="2"/>
       <c r="P704" s="2"/>
     </row>
-    <row r="705" spans="1:16">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -13470,7 +13538,7 @@
       <c r="O705" s="2"/>
       <c r="P705" s="2"/>
     </row>
-    <row r="706" spans="1:16">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -13488,7 +13556,7 @@
       <c r="O706" s="2"/>
       <c r="P706" s="2"/>
     </row>
-    <row r="707" spans="1:16">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -13506,7 +13574,7 @@
       <c r="O707" s="2"/>
       <c r="P707" s="2"/>
     </row>
-    <row r="708" spans="1:16">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -13524,7 +13592,7 @@
       <c r="O708" s="2"/>
       <c r="P708" s="2"/>
     </row>
-    <row r="709" spans="1:16">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -13542,7 +13610,7 @@
       <c r="O709" s="2"/>
       <c r="P709" s="2"/>
     </row>
-    <row r="710" spans="1:16">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -13560,7 +13628,7 @@
       <c r="O710" s="2"/>
       <c r="P710" s="2"/>
     </row>
-    <row r="711" spans="1:16">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -13578,7 +13646,7 @@
       <c r="O711" s="2"/>
       <c r="P711" s="2"/>
     </row>
-    <row r="712" spans="1:16">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -13596,7 +13664,7 @@
       <c r="O712" s="2"/>
       <c r="P712" s="2"/>
     </row>
-    <row r="713" spans="1:16">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -13614,7 +13682,7 @@
       <c r="O713" s="2"/>
       <c r="P713" s="2"/>
     </row>
-    <row r="714" spans="1:16">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -13632,7 +13700,7 @@
       <c r="O714" s="2"/>
       <c r="P714" s="2"/>
     </row>
-    <row r="715" spans="1:16">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -13650,7 +13718,7 @@
       <c r="O715" s="2"/>
       <c r="P715" s="2"/>
     </row>
-    <row r="716" spans="1:16">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -13668,7 +13736,7 @@
       <c r="O716" s="2"/>
       <c r="P716" s="2"/>
     </row>
-    <row r="717" spans="1:16">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -13686,7 +13754,7 @@
       <c r="O717" s="2"/>
       <c r="P717" s="2"/>
     </row>
-    <row r="718" spans="1:16">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -13704,7 +13772,7 @@
       <c r="O718" s="2"/>
       <c r="P718" s="2"/>
     </row>
-    <row r="719" spans="1:16">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -13722,7 +13790,7 @@
       <c r="O719" s="2"/>
       <c r="P719" s="2"/>
     </row>
-    <row r="720" spans="1:16">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -13740,7 +13808,7 @@
       <c r="O720" s="2"/>
       <c r="P720" s="2"/>
     </row>
-    <row r="721" spans="1:16">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -13758,7 +13826,7 @@
       <c r="O721" s="2"/>
       <c r="P721" s="2"/>
     </row>
-    <row r="722" spans="1:16">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -13776,7 +13844,7 @@
       <c r="O722" s="2"/>
       <c r="P722" s="2"/>
     </row>
-    <row r="723" spans="1:16">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -13794,7 +13862,7 @@
       <c r="O723" s="2"/>
       <c r="P723" s="2"/>
     </row>
-    <row r="724" spans="1:16">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -13812,7 +13880,7 @@
       <c r="O724" s="2"/>
       <c r="P724" s="2"/>
     </row>
-    <row r="725" spans="1:16">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -13830,7 +13898,7 @@
       <c r="O725" s="2"/>
       <c r="P725" s="2"/>
     </row>
-    <row r="726" spans="1:16">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -13848,7 +13916,7 @@
       <c r="O726" s="2"/>
       <c r="P726" s="2"/>
     </row>
-    <row r="727" spans="1:16">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -13866,7 +13934,7 @@
       <c r="O727" s="2"/>
       <c r="P727" s="2"/>
     </row>
-    <row r="728" spans="1:16">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -13884,7 +13952,7 @@
       <c r="O728" s="2"/>
       <c r="P728" s="2"/>
     </row>
-    <row r="729" spans="1:16">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -13902,7 +13970,7 @@
       <c r="O729" s="2"/>
       <c r="P729" s="2"/>
     </row>
-    <row r="730" spans="1:16">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -13920,7 +13988,7 @@
       <c r="O730" s="2"/>
       <c r="P730" s="2"/>
     </row>
-    <row r="731" spans="1:16">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -13938,7 +14006,7 @@
       <c r="O731" s="2"/>
       <c r="P731" s="2"/>
     </row>
-    <row r="732" spans="1:16">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -13956,7 +14024,7 @@
       <c r="O732" s="2"/>
       <c r="P732" s="2"/>
     </row>
-    <row r="733" spans="1:16">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -13974,7 +14042,7 @@
       <c r="O733" s="2"/>
       <c r="P733" s="2"/>
     </row>
-    <row r="734" spans="1:16">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -13992,7 +14060,7 @@
       <c r="O734" s="2"/>
       <c r="P734" s="2"/>
     </row>
-    <row r="735" spans="1:16">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -14010,7 +14078,7 @@
       <c r="O735" s="2"/>
       <c r="P735" s="2"/>
     </row>
-    <row r="736" spans="1:16">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -14028,7 +14096,7 @@
       <c r="O736" s="2"/>
       <c r="P736" s="2"/>
     </row>
-    <row r="737" spans="1:16">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -14046,7 +14114,7 @@
       <c r="O737" s="2"/>
       <c r="P737" s="2"/>
     </row>
-    <row r="738" spans="1:16">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -14064,7 +14132,7 @@
       <c r="O738" s="2"/>
       <c r="P738" s="2"/>
     </row>
-    <row r="739" spans="1:16">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -14082,7 +14150,7 @@
       <c r="O739" s="2"/>
       <c r="P739" s="2"/>
     </row>
-    <row r="740" spans="1:16">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -14100,7 +14168,7 @@
       <c r="O740" s="2"/>
       <c r="P740" s="2"/>
     </row>
-    <row r="741" spans="1:16">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -14118,7 +14186,7 @@
       <c r="O741" s="2"/>
       <c r="P741" s="2"/>
     </row>
-    <row r="742" spans="1:16">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -14136,7 +14204,7 @@
       <c r="O742" s="2"/>
       <c r="P742" s="2"/>
     </row>
-    <row r="743" spans="1:16">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -14154,7 +14222,7 @@
       <c r="O743" s="2"/>
       <c r="P743" s="2"/>
     </row>
-    <row r="744" spans="1:16">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -14172,7 +14240,7 @@
       <c r="O744" s="2"/>
       <c r="P744" s="2"/>
     </row>
-    <row r="745" spans="1:16">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -14190,7 +14258,7 @@
       <c r="O745" s="2"/>
       <c r="P745" s="2"/>
     </row>
-    <row r="746" spans="1:16">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -14208,7 +14276,7 @@
       <c r="O746" s="2"/>
       <c r="P746" s="2"/>
     </row>
-    <row r="747" spans="1:16">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -14226,7 +14294,7 @@
       <c r="O747" s="2"/>
       <c r="P747" s="2"/>
     </row>
-    <row r="748" spans="1:16">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -14244,7 +14312,7 @@
       <c r="O748" s="2"/>
       <c r="P748" s="2"/>
     </row>
-    <row r="749" spans="1:16">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -14262,7 +14330,7 @@
       <c r="O749" s="2"/>
       <c r="P749" s="2"/>
     </row>
-    <row r="750" spans="1:16">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -14280,7 +14348,7 @@
       <c r="O750" s="2"/>
       <c r="P750" s="2"/>
     </row>
-    <row r="751" spans="1:16">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -14298,7 +14366,7 @@
       <c r="O751" s="2"/>
       <c r="P751" s="2"/>
     </row>
-    <row r="752" spans="1:16">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -14316,7 +14384,7 @@
       <c r="O752" s="2"/>
       <c r="P752" s="2"/>
     </row>
-    <row r="753" spans="1:16">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -14334,7 +14402,7 @@
       <c r="O753" s="2"/>
       <c r="P753" s="2"/>
     </row>
-    <row r="754" spans="1:16">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -14352,7 +14420,7 @@
       <c r="O754" s="2"/>
       <c r="P754" s="2"/>
     </row>
-    <row r="755" spans="1:16">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -14370,7 +14438,7 @@
       <c r="O755" s="2"/>
       <c r="P755" s="2"/>
     </row>
-    <row r="756" spans="1:16">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -14388,7 +14456,7 @@
       <c r="O756" s="2"/>
       <c r="P756" s="2"/>
     </row>
-    <row r="757" spans="1:16">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -14406,7 +14474,7 @@
       <c r="O757" s="2"/>
       <c r="P757" s="2"/>
     </row>
-    <row r="758" spans="1:16">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -14424,7 +14492,7 @@
       <c r="O758" s="2"/>
       <c r="P758" s="2"/>
     </row>
-    <row r="759" spans="1:16">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -14442,7 +14510,7 @@
       <c r="O759" s="2"/>
       <c r="P759" s="2"/>
     </row>
-    <row r="760" spans="1:16">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -14460,7 +14528,7 @@
       <c r="O760" s="2"/>
       <c r="P760" s="2"/>
     </row>
-    <row r="761" spans="1:16">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -14478,7 +14546,7 @@
       <c r="O761" s="2"/>
       <c r="P761" s="2"/>
     </row>
-    <row r="762" spans="1:16">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -14496,7 +14564,7 @@
       <c r="O762" s="2"/>
       <c r="P762" s="2"/>
     </row>
-    <row r="763" spans="1:16">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -14514,7 +14582,7 @@
       <c r="O763" s="2"/>
       <c r="P763" s="2"/>
     </row>
-    <row r="764" spans="1:16">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -14532,7 +14600,7 @@
       <c r="O764" s="2"/>
       <c r="P764" s="2"/>
     </row>
-    <row r="765" spans="1:16">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -14550,7 +14618,7 @@
       <c r="O765" s="2"/>
       <c r="P765" s="2"/>
     </row>
-    <row r="766" spans="1:16">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -14568,7 +14636,7 @@
       <c r="O766" s="2"/>
       <c r="P766" s="2"/>
     </row>
-    <row r="767" spans="1:16">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -14586,7 +14654,7 @@
       <c r="O767" s="2"/>
       <c r="P767" s="2"/>
     </row>
-    <row r="768" spans="1:16">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -14604,7 +14672,7 @@
       <c r="O768" s="2"/>
       <c r="P768" s="2"/>
     </row>
-    <row r="769" spans="1:16">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -14622,7 +14690,7 @@
       <c r="O769" s="2"/>
       <c r="P769" s="2"/>
     </row>
-    <row r="770" spans="1:16">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -14640,7 +14708,7 @@
       <c r="O770" s="2"/>
       <c r="P770" s="2"/>
     </row>
-    <row r="771" spans="1:16">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -14658,7 +14726,7 @@
       <c r="O771" s="2"/>
       <c r="P771" s="2"/>
     </row>
-    <row r="772" spans="1:16">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -14676,7 +14744,7 @@
       <c r="O772" s="2"/>
       <c r="P772" s="2"/>
     </row>
-    <row r="773" spans="1:16">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -14694,7 +14762,7 @@
       <c r="O773" s="2"/>
       <c r="P773" s="2"/>
     </row>
-    <row r="774" spans="1:16">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -14712,7 +14780,7 @@
       <c r="O774" s="2"/>
       <c r="P774" s="2"/>
     </row>
-    <row r="775" spans="1:16">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -14730,7 +14798,7 @@
       <c r="O775" s="2"/>
       <c r="P775" s="2"/>
     </row>
-    <row r="776" spans="1:16">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -14748,7 +14816,7 @@
       <c r="O776" s="2"/>
       <c r="P776" s="2"/>
     </row>
-    <row r="777" spans="1:16">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -14766,7 +14834,7 @@
       <c r="O777" s="2"/>
       <c r="P777" s="2"/>
     </row>
-    <row r="778" spans="1:16">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -14784,7 +14852,7 @@
       <c r="O778" s="2"/>
       <c r="P778" s="2"/>
     </row>
-    <row r="779" spans="1:16">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -14802,7 +14870,7 @@
       <c r="O779" s="2"/>
       <c r="P779" s="2"/>
     </row>
-    <row r="780" spans="1:16">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -14820,7 +14888,7 @@
       <c r="O780" s="2"/>
       <c r="P780" s="2"/>
     </row>
-    <row r="781" spans="1:16">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -14838,7 +14906,7 @@
       <c r="O781" s="2"/>
       <c r="P781" s="2"/>
     </row>
-    <row r="782" spans="1:16">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -14856,7 +14924,7 @@
       <c r="O782" s="2"/>
       <c r="P782" s="2"/>
     </row>
-    <row r="783" spans="1:16">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -14874,7 +14942,7 @@
       <c r="O783" s="2"/>
       <c r="P783" s="2"/>
     </row>
-    <row r="784" spans="1:16">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -14892,7 +14960,7 @@
       <c r="O784" s="2"/>
       <c r="P784" s="2"/>
     </row>
-    <row r="785" spans="1:16">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -14910,7 +14978,7 @@
       <c r="O785" s="2"/>
       <c r="P785" s="2"/>
     </row>
-    <row r="786" spans="1:16">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -14928,7 +14996,7 @@
       <c r="O786" s="2"/>
       <c r="P786" s="2"/>
     </row>
-    <row r="787" spans="1:16">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -14946,7 +15014,7 @@
       <c r="O787" s="2"/>
       <c r="P787" s="2"/>
     </row>
-    <row r="788" spans="1:16">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -14964,7 +15032,7 @@
       <c r="O788" s="2"/>
       <c r="P788" s="2"/>
     </row>
-    <row r="789" spans="1:16">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -14982,7 +15050,7 @@
       <c r="O789" s="2"/>
       <c r="P789" s="2"/>
     </row>
-    <row r="790" spans="1:16">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -15000,7 +15068,7 @@
       <c r="O790" s="2"/>
       <c r="P790" s="2"/>
     </row>
-    <row r="791" spans="1:16">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -15018,7 +15086,7 @@
       <c r="O791" s="2"/>
       <c r="P791" s="2"/>
     </row>
-    <row r="792" spans="1:16">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -15036,7 +15104,7 @@
       <c r="O792" s="2"/>
       <c r="P792" s="2"/>
     </row>
-    <row r="793" spans="1:16">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -15054,7 +15122,7 @@
       <c r="O793" s="2"/>
       <c r="P793" s="2"/>
     </row>
-    <row r="794" spans="1:16">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -15072,7 +15140,7 @@
       <c r="O794" s="2"/>
       <c r="P794" s="2"/>
     </row>
-    <row r="795" spans="1:16">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -15090,7 +15158,7 @@
       <c r="O795" s="2"/>
       <c r="P795" s="2"/>
     </row>
-    <row r="796" spans="1:16">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -15108,7 +15176,7 @@
       <c r="O796" s="2"/>
       <c r="P796" s="2"/>
     </row>
-    <row r="797" spans="1:16">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -15126,7 +15194,7 @@
       <c r="O797" s="2"/>
       <c r="P797" s="2"/>
     </row>
-    <row r="798" spans="1:16">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -15144,7 +15212,7 @@
       <c r="O798" s="2"/>
       <c r="P798" s="2"/>
     </row>
-    <row r="799" spans="1:16">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -15162,7 +15230,7 @@
       <c r="O799" s="2"/>
       <c r="P799" s="2"/>
     </row>
-    <row r="800" spans="1:16">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -15180,7 +15248,7 @@
       <c r="O800" s="2"/>
       <c r="P800" s="2"/>
     </row>
-    <row r="801" spans="1:16">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -15198,7 +15266,7 @@
       <c r="O801" s="2"/>
       <c r="P801" s="2"/>
     </row>
-    <row r="802" spans="1:16">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -15216,7 +15284,7 @@
       <c r="O802" s="2"/>
       <c r="P802" s="2"/>
     </row>
-    <row r="803" spans="1:16">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -15234,7 +15302,7 @@
       <c r="O803" s="2"/>
       <c r="P803" s="2"/>
     </row>
-    <row r="804" spans="1:16">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -15252,7 +15320,7 @@
       <c r="O804" s="2"/>
       <c r="P804" s="2"/>
     </row>
-    <row r="805" spans="1:16">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -15270,7 +15338,7 @@
       <c r="O805" s="2"/>
       <c r="P805" s="2"/>
     </row>
-    <row r="806" spans="1:16">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -15288,7 +15356,7 @@
       <c r="O806" s="2"/>
       <c r="P806" s="2"/>
     </row>
-    <row r="807" spans="1:16">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -15306,7 +15374,7 @@
       <c r="O807" s="2"/>
       <c r="P807" s="2"/>
     </row>
-    <row r="808" spans="1:16">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -15324,7 +15392,7 @@
       <c r="O808" s="2"/>
       <c r="P808" s="2"/>
     </row>
-    <row r="809" spans="1:16">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -15342,7 +15410,7 @@
       <c r="O809" s="2"/>
       <c r="P809" s="2"/>
     </row>
-    <row r="810" spans="1:16">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -15360,7 +15428,7 @@
       <c r="O810" s="2"/>
       <c r="P810" s="2"/>
     </row>
-    <row r="811" spans="1:16">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -15378,7 +15446,7 @@
       <c r="O811" s="2"/>
       <c r="P811" s="2"/>
     </row>
-    <row r="812" spans="1:16">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -15396,7 +15464,7 @@
       <c r="O812" s="2"/>
       <c r="P812" s="2"/>
     </row>
-    <row r="813" spans="1:16">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -15414,7 +15482,7 @@
       <c r="O813" s="2"/>
       <c r="P813" s="2"/>
     </row>
-    <row r="814" spans="1:16">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -15432,7 +15500,7 @@
       <c r="O814" s="2"/>
       <c r="P814" s="2"/>
     </row>
-    <row r="815" spans="1:16">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -15450,7 +15518,7 @@
       <c r="O815" s="2"/>
       <c r="P815" s="2"/>
     </row>
-    <row r="816" spans="1:16">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -15468,7 +15536,7 @@
       <c r="O816" s="2"/>
       <c r="P816" s="2"/>
     </row>
-    <row r="817" spans="1:16">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -15486,7 +15554,7 @@
       <c r="O817" s="2"/>
       <c r="P817" s="2"/>
     </row>
-    <row r="818" spans="1:16">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -15504,7 +15572,7 @@
       <c r="O818" s="2"/>
       <c r="P818" s="2"/>
     </row>
-    <row r="819" spans="1:16">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -15522,7 +15590,7 @@
       <c r="O819" s="2"/>
       <c r="P819" s="2"/>
     </row>
-    <row r="820" spans="1:16">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -15540,7 +15608,7 @@
       <c r="O820" s="2"/>
       <c r="P820" s="2"/>
     </row>
-    <row r="821" spans="1:16">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -15558,7 +15626,7 @@
       <c r="O821" s="2"/>
       <c r="P821" s="2"/>
     </row>
-    <row r="822" spans="1:16">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -15576,7 +15644,7 @@
       <c r="O822" s="2"/>
       <c r="P822" s="2"/>
     </row>
-    <row r="823" spans="1:16">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -15594,7 +15662,7 @@
       <c r="O823" s="2"/>
       <c r="P823" s="2"/>
     </row>
-    <row r="824" spans="1:16">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -15612,7 +15680,7 @@
       <c r="O824" s="2"/>
       <c r="P824" s="2"/>
     </row>
-    <row r="825" spans="1:16">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -15630,7 +15698,7 @@
       <c r="O825" s="2"/>
       <c r="P825" s="2"/>
     </row>
-    <row r="826" spans="1:16">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -15648,7 +15716,7 @@
       <c r="O826" s="2"/>
       <c r="P826" s="2"/>
     </row>
-    <row r="827" spans="1:16">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -15666,7 +15734,7 @@
       <c r="O827" s="2"/>
       <c r="P827" s="2"/>
     </row>
-    <row r="828" spans="1:16">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -15684,7 +15752,7 @@
       <c r="O828" s="2"/>
       <c r="P828" s="2"/>
     </row>
-    <row r="829" spans="1:16">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -15702,7 +15770,7 @@
       <c r="O829" s="2"/>
       <c r="P829" s="2"/>
     </row>
-    <row r="830" spans="1:16">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -15720,7 +15788,7 @@
       <c r="O830" s="2"/>
       <c r="P830" s="2"/>
     </row>
-    <row r="831" spans="1:16">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -15738,7 +15806,7 @@
       <c r="O831" s="2"/>
       <c r="P831" s="2"/>
     </row>
-    <row r="832" spans="1:16">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -15756,7 +15824,7 @@
       <c r="O832" s="2"/>
       <c r="P832" s="2"/>
     </row>
-    <row r="833" spans="1:16">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -15774,7 +15842,7 @@
       <c r="O833" s="2"/>
       <c r="P833" s="2"/>
     </row>
-    <row r="834" spans="1:16">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -15792,7 +15860,7 @@
       <c r="O834" s="2"/>
       <c r="P834" s="2"/>
     </row>
-    <row r="835" spans="1:16">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -15810,7 +15878,7 @@
       <c r="O835" s="2"/>
       <c r="P835" s="2"/>
     </row>
-    <row r="836" spans="1:16">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -15828,7 +15896,7 @@
       <c r="O836" s="2"/>
       <c r="P836" s="2"/>
     </row>
-    <row r="837" spans="1:16">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -15846,7 +15914,7 @@
       <c r="O837" s="2"/>
       <c r="P837" s="2"/>
     </row>
-    <row r="838" spans="1:16">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -15864,7 +15932,7 @@
       <c r="O838" s="2"/>
       <c r="P838" s="2"/>
     </row>
-    <row r="839" spans="1:16">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -15882,7 +15950,7 @@
       <c r="O839" s="2"/>
       <c r="P839" s="2"/>
     </row>
-    <row r="840" spans="1:16">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -15900,7 +15968,7 @@
       <c r="O840" s="2"/>
       <c r="P840" s="2"/>
     </row>
-    <row r="841" spans="1:16">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -15918,7 +15986,7 @@
       <c r="O841" s="2"/>
       <c r="P841" s="2"/>
     </row>
-    <row r="842" spans="1:16">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -15936,7 +16004,7 @@
       <c r="O842" s="2"/>
       <c r="P842" s="2"/>
     </row>
-    <row r="843" spans="1:16">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -15954,7 +16022,7 @@
       <c r="O843" s="2"/>
       <c r="P843" s="2"/>
     </row>
-    <row r="844" spans="1:16">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -15972,7 +16040,7 @@
       <c r="O844" s="2"/>
       <c r="P844" s="2"/>
     </row>
-    <row r="845" spans="1:16">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -15990,7 +16058,7 @@
       <c r="O845" s="2"/>
       <c r="P845" s="2"/>
     </row>
-    <row r="846" spans="1:16">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -16008,7 +16076,7 @@
       <c r="O846" s="2"/>
       <c r="P846" s="2"/>
     </row>
-    <row r="847" spans="1:16">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -16026,7 +16094,7 @@
       <c r="O847" s="2"/>
       <c r="P847" s="2"/>
     </row>
-    <row r="848" spans="1:16">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -16044,7 +16112,7 @@
       <c r="O848" s="2"/>
       <c r="P848" s="2"/>
     </row>
-    <row r="849" spans="1:16">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -16062,7 +16130,7 @@
       <c r="O849" s="2"/>
       <c r="P849" s="2"/>
     </row>
-    <row r="850" spans="1:16">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -16080,7 +16148,7 @@
       <c r="O850" s="2"/>
       <c r="P850" s="2"/>
     </row>
-    <row r="851" spans="1:16">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -16098,7 +16166,7 @@
       <c r="O851" s="2"/>
       <c r="P851" s="2"/>
     </row>
-    <row r="852" spans="1:16">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -16116,7 +16184,7 @@
       <c r="O852" s="2"/>
       <c r="P852" s="2"/>
     </row>
-    <row r="853" spans="1:16">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -16134,7 +16202,7 @@
       <c r="O853" s="2"/>
       <c r="P853" s="2"/>
     </row>
-    <row r="854" spans="1:16">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -16152,7 +16220,7 @@
       <c r="O854" s="2"/>
       <c r="P854" s="2"/>
     </row>
-    <row r="855" spans="1:16">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -16170,7 +16238,7 @@
       <c r="O855" s="2"/>
       <c r="P855" s="2"/>
     </row>
-    <row r="856" spans="1:16">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -16188,7 +16256,7 @@
       <c r="O856" s="2"/>
       <c r="P856" s="2"/>
     </row>
-    <row r="857" spans="1:16">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -16206,7 +16274,7 @@
       <c r="O857" s="2"/>
       <c r="P857" s="2"/>
     </row>
-    <row r="858" spans="1:16">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -16224,7 +16292,7 @@
       <c r="O858" s="2"/>
       <c r="P858" s="2"/>
     </row>
-    <row r="859" spans="1:16">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -16242,7 +16310,7 @@
       <c r="O859" s="2"/>
       <c r="P859" s="2"/>
     </row>
-    <row r="860" spans="1:16">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -16260,7 +16328,7 @@
       <c r="O860" s="2"/>
       <c r="P860" s="2"/>
     </row>
-    <row r="861" spans="1:16">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -16278,7 +16346,7 @@
       <c r="O861" s="2"/>
       <c r="P861" s="2"/>
     </row>
-    <row r="862" spans="1:16">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -16296,7 +16364,7 @@
       <c r="O862" s="2"/>
       <c r="P862" s="2"/>
     </row>
-    <row r="863" spans="1:16">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -16314,7 +16382,7 @@
       <c r="O863" s="2"/>
       <c r="P863" s="2"/>
     </row>
-    <row r="864" spans="1:16">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -16332,7 +16400,7 @@
       <c r="O864" s="2"/>
       <c r="P864" s="2"/>
     </row>
-    <row r="865" spans="1:16">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -16350,7 +16418,7 @@
       <c r="O865" s="2"/>
       <c r="P865" s="2"/>
     </row>
-    <row r="866" spans="1:16">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -16368,7 +16436,7 @@
       <c r="O866" s="2"/>
       <c r="P866" s="2"/>
     </row>
-    <row r="867" spans="1:16">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -16386,7 +16454,7 @@
       <c r="O867" s="2"/>
       <c r="P867" s="2"/>
     </row>
-    <row r="868" spans="1:16">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -16404,7 +16472,7 @@
       <c r="O868" s="2"/>
       <c r="P868" s="2"/>
     </row>
-    <row r="869" spans="1:16">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -16422,7 +16490,7 @@
       <c r="O869" s="2"/>
       <c r="P869" s="2"/>
     </row>
-    <row r="870" spans="1:16">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -16440,7 +16508,7 @@
       <c r="O870" s="2"/>
       <c r="P870" s="2"/>
     </row>
-    <row r="871" spans="1:16">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -16458,7 +16526,7 @@
       <c r="O871" s="2"/>
       <c r="P871" s="2"/>
     </row>
-    <row r="872" spans="1:16">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -16476,7 +16544,7 @@
       <c r="O872" s="2"/>
       <c r="P872" s="2"/>
     </row>
-    <row r="873" spans="1:16">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -16494,7 +16562,7 @@
       <c r="O873" s="2"/>
       <c r="P873" s="2"/>
     </row>
-    <row r="874" spans="1:16">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -16512,7 +16580,7 @@
       <c r="O874" s="2"/>
       <c r="P874" s="2"/>
     </row>
-    <row r="875" spans="1:16">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -16530,7 +16598,7 @@
       <c r="O875" s="2"/>
       <c r="P875" s="2"/>
     </row>
-    <row r="876" spans="1:16">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -16548,7 +16616,7 @@
       <c r="O876" s="2"/>
       <c r="P876" s="2"/>
     </row>
-    <row r="877" spans="1:16">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -16566,7 +16634,7 @@
       <c r="O877" s="2"/>
       <c r="P877" s="2"/>
     </row>
-    <row r="878" spans="1:16">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -16584,7 +16652,7 @@
       <c r="O878" s="2"/>
       <c r="P878" s="2"/>
     </row>
-    <row r="879" spans="1:16">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -16602,7 +16670,7 @@
       <c r="O879" s="2"/>
       <c r="P879" s="2"/>
     </row>
-    <row r="880" spans="1:16">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -16620,7 +16688,7 @@
       <c r="O880" s="2"/>
       <c r="P880" s="2"/>
     </row>
-    <row r="881" spans="1:16">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -16638,7 +16706,7 @@
       <c r="O881" s="2"/>
       <c r="P881" s="2"/>
     </row>
-    <row r="882" spans="1:16">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -16656,7 +16724,7 @@
       <c r="O882" s="2"/>
       <c r="P882" s="2"/>
     </row>
-    <row r="883" spans="1:16">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -16674,7 +16742,7 @@
       <c r="O883" s="2"/>
       <c r="P883" s="2"/>
     </row>
-    <row r="884" spans="1:16">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -16692,7 +16760,7 @@
       <c r="O884" s="2"/>
       <c r="P884" s="2"/>
     </row>
-    <row r="885" spans="1:16">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -16710,7 +16778,7 @@
       <c r="O885" s="2"/>
       <c r="P885" s="2"/>
     </row>
-    <row r="886" spans="1:16">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -16728,7 +16796,7 @@
       <c r="O886" s="2"/>
       <c r="P886" s="2"/>
     </row>
-    <row r="887" spans="1:16">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -16746,7 +16814,7 @@
       <c r="O887" s="2"/>
       <c r="P887" s="2"/>
     </row>
-    <row r="888" spans="1:16">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -16764,7 +16832,7 @@
       <c r="O888" s="2"/>
       <c r="P888" s="2"/>
     </row>
-    <row r="889" spans="1:16">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -16782,7 +16850,7 @@
       <c r="O889" s="2"/>
       <c r="P889" s="2"/>
     </row>
-    <row r="890" spans="1:16">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -16800,7 +16868,7 @@
       <c r="O890" s="2"/>
       <c r="P890" s="2"/>
     </row>
-    <row r="891" spans="1:16">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -16818,7 +16886,7 @@
       <c r="O891" s="2"/>
       <c r="P891" s="2"/>
     </row>
-    <row r="892" spans="1:16">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -16836,7 +16904,7 @@
       <c r="O892" s="2"/>
       <c r="P892" s="2"/>
     </row>
-    <row r="893" spans="1:16">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -16854,7 +16922,7 @@
       <c r="O893" s="2"/>
       <c r="P893" s="2"/>
     </row>
-    <row r="894" spans="1:16">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -16872,7 +16940,7 @@
       <c r="O894" s="2"/>
       <c r="P894" s="2"/>
     </row>
-    <row r="895" spans="1:16">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -16890,7 +16958,7 @@
       <c r="O895" s="2"/>
       <c r="P895" s="2"/>
     </row>
-    <row r="896" spans="1:16">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -16908,7 +16976,7 @@
       <c r="O896" s="2"/>
       <c r="P896" s="2"/>
     </row>
-    <row r="897" spans="1:16">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -16926,7 +16994,7 @@
       <c r="O897" s="2"/>
       <c r="P897" s="2"/>
     </row>
-    <row r="898" spans="1:16">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -16944,7 +17012,7 @@
       <c r="O898" s="2"/>
       <c r="P898" s="2"/>
     </row>
-    <row r="899" spans="1:16">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -16962,7 +17030,7 @@
       <c r="O899" s="2"/>
       <c r="P899" s="2"/>
     </row>
-    <row r="900" spans="1:16">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -16980,7 +17048,7 @@
       <c r="O900" s="2"/>
       <c r="P900" s="2"/>
     </row>
-    <row r="901" spans="1:16">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -16998,7 +17066,7 @@
       <c r="O901" s="2"/>
       <c r="P901" s="2"/>
     </row>
-    <row r="902" spans="1:16">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -17016,7 +17084,7 @@
       <c r="O902" s="2"/>
       <c r="P902" s="2"/>
     </row>
-    <row r="903" spans="1:16">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -17034,7 +17102,7 @@
       <c r="O903" s="2"/>
       <c r="P903" s="2"/>
     </row>
-    <row r="904" spans="1:16">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -17052,7 +17120,7 @@
       <c r="O904" s="2"/>
       <c r="P904" s="2"/>
     </row>
-    <row r="905" spans="1:16">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -17070,7 +17138,7 @@
       <c r="O905" s="2"/>
       <c r="P905" s="2"/>
     </row>
-    <row r="906" spans="1:16">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -17088,7 +17156,7 @@
       <c r="O906" s="2"/>
       <c r="P906" s="2"/>
     </row>
-    <row r="907" spans="1:16">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -17106,7 +17174,7 @@
       <c r="O907" s="2"/>
       <c r="P907" s="2"/>
     </row>
-    <row r="908" spans="1:16">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -17124,7 +17192,7 @@
       <c r="O908" s="2"/>
       <c r="P908" s="2"/>
     </row>
-    <row r="909" spans="1:16">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -17142,7 +17210,7 @@
       <c r="O909" s="2"/>
       <c r="P909" s="2"/>
     </row>
-    <row r="910" spans="1:16">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -17160,7 +17228,7 @@
       <c r="O910" s="2"/>
       <c r="P910" s="2"/>
     </row>
-    <row r="911" spans="1:16">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -17178,7 +17246,7 @@
       <c r="O911" s="2"/>
       <c r="P911" s="2"/>
     </row>
-    <row r="912" spans="1:16">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -17196,7 +17264,7 @@
       <c r="O912" s="2"/>
       <c r="P912" s="2"/>
     </row>
-    <row r="913" spans="1:16">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -17214,7 +17282,7 @@
       <c r="O913" s="2"/>
       <c r="P913" s="2"/>
     </row>
-    <row r="914" spans="1:16">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -17232,7 +17300,7 @@
       <c r="O914" s="2"/>
       <c r="P914" s="2"/>
     </row>
-    <row r="915" spans="1:16">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -17250,7 +17318,7 @@
       <c r="O915" s="2"/>
       <c r="P915" s="2"/>
     </row>
-    <row r="916" spans="1:16">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -17268,7 +17336,7 @@
       <c r="O916" s="2"/>
       <c r="P916" s="2"/>
     </row>
-    <row r="917" spans="1:16">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -17286,7 +17354,7 @@
       <c r="O917" s="2"/>
       <c r="P917" s="2"/>
     </row>
-    <row r="918" spans="1:16">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -17304,7 +17372,7 @@
       <c r="O918" s="2"/>
       <c r="P918" s="2"/>
     </row>
-    <row r="919" spans="1:16">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -17322,7 +17390,7 @@
       <c r="O919" s="2"/>
       <c r="P919" s="2"/>
     </row>
-    <row r="920" spans="1:16">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -17340,7 +17408,7 @@
       <c r="O920" s="2"/>
       <c r="P920" s="2"/>
     </row>
-    <row r="921" spans="1:16">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -17358,7 +17426,7 @@
       <c r="O921" s="2"/>
       <c r="P921" s="2"/>
     </row>
-    <row r="922" spans="1:16">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -17376,7 +17444,7 @@
       <c r="O922" s="2"/>
       <c r="P922" s="2"/>
     </row>
-    <row r="923" spans="1:16">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -17394,7 +17462,7 @@
       <c r="O923" s="2"/>
       <c r="P923" s="2"/>
     </row>
-    <row r="924" spans="1:16">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -17412,7 +17480,7 @@
       <c r="O924" s="2"/>
       <c r="P924" s="2"/>
     </row>
-    <row r="925" spans="1:16">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -17430,7 +17498,7 @@
       <c r="O925" s="2"/>
       <c r="P925" s="2"/>
     </row>
-    <row r="926" spans="1:16">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -17448,7 +17516,7 @@
       <c r="O926" s="2"/>
       <c r="P926" s="2"/>
     </row>
-    <row r="927" spans="1:16">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -17466,7 +17534,7 @@
       <c r="O927" s="2"/>
       <c r="P927" s="2"/>
     </row>
-    <row r="928" spans="1:16">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -17484,7 +17552,7 @@
       <c r="O928" s="2"/>
       <c r="P928" s="2"/>
     </row>
-    <row r="929" spans="1:16">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -17502,7 +17570,7 @@
       <c r="O929" s="2"/>
       <c r="P929" s="2"/>
     </row>
-    <row r="930" spans="1:16">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -17520,7 +17588,7 @@
       <c r="O930" s="2"/>
       <c r="P930" s="2"/>
     </row>
-    <row r="931" spans="1:16">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -17538,7 +17606,7 @@
       <c r="O931" s="2"/>
       <c r="P931" s="2"/>
     </row>
-    <row r="932" spans="1:16">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -17556,7 +17624,7 @@
       <c r="O932" s="2"/>
       <c r="P932" s="2"/>
     </row>
-    <row r="933" spans="1:16">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -17574,7 +17642,7 @@
       <c r="O933" s="2"/>
       <c r="P933" s="2"/>
     </row>
-    <row r="934" spans="1:16">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -17592,7 +17660,7 @@
       <c r="O934" s="2"/>
       <c r="P934" s="2"/>
     </row>
-    <row r="935" spans="1:16">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -17610,7 +17678,7 @@
       <c r="O935" s="2"/>
       <c r="P935" s="2"/>
     </row>
-    <row r="936" spans="1:16">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -17628,7 +17696,7 @@
       <c r="O936" s="2"/>
       <c r="P936" s="2"/>
     </row>
-    <row r="937" spans="1:16">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -17646,7 +17714,7 @@
       <c r="O937" s="2"/>
       <c r="P937" s="2"/>
     </row>
-    <row r="938" spans="1:16">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -17664,7 +17732,7 @@
       <c r="O938" s="2"/>
       <c r="P938" s="2"/>
     </row>
-    <row r="939" spans="1:16">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -17682,7 +17750,7 @@
       <c r="O939" s="2"/>
       <c r="P939" s="2"/>
     </row>
-    <row r="940" spans="1:16">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -17700,7 +17768,7 @@
       <c r="O940" s="2"/>
       <c r="P940" s="2"/>
     </row>
-    <row r="941" spans="1:16">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -17718,7 +17786,7 @@
       <c r="O941" s="2"/>
       <c r="P941" s="2"/>
     </row>
-    <row r="942" spans="1:16">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -17736,7 +17804,7 @@
       <c r="O942" s="2"/>
       <c r="P942" s="2"/>
     </row>
-    <row r="943" spans="1:16">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -17754,7 +17822,7 @@
       <c r="O943" s="2"/>
       <c r="P943" s="2"/>
     </row>
-    <row r="944" spans="1:16">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -17772,7 +17840,7 @@
       <c r="O944" s="2"/>
       <c r="P944" s="2"/>
     </row>
-    <row r="945" spans="1:16">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -17790,7 +17858,7 @@
       <c r="O945" s="2"/>
       <c r="P945" s="2"/>
     </row>
-    <row r="946" spans="1:16">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -17808,7 +17876,7 @@
       <c r="O946" s="2"/>
       <c r="P946" s="2"/>
     </row>
-    <row r="947" spans="1:16">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -17826,7 +17894,7 @@
       <c r="O947" s="2"/>
       <c r="P947" s="2"/>
     </row>
-    <row r="948" spans="1:16">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -17844,7 +17912,7 @@
       <c r="O948" s="2"/>
       <c r="P948" s="2"/>
     </row>
-    <row r="949" spans="1:16">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -17862,7 +17930,7 @@
       <c r="O949" s="2"/>
       <c r="P949" s="2"/>
     </row>
-    <row r="950" spans="1:16">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -17880,7 +17948,7 @@
       <c r="O950" s="2"/>
       <c r="P950" s="2"/>
     </row>
-    <row r="951" spans="1:16">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -17898,7 +17966,7 @@
       <c r="O951" s="2"/>
       <c r="P951" s="2"/>
     </row>
-    <row r="952" spans="1:16">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -17916,7 +17984,7 @@
       <c r="O952" s="2"/>
       <c r="P952" s="2"/>
     </row>
-    <row r="953" spans="1:16">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -17934,7 +18002,7 @@
       <c r="O953" s="2"/>
       <c r="P953" s="2"/>
     </row>
-    <row r="954" spans="1:16">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -17952,7 +18020,7 @@
       <c r="O954" s="2"/>
       <c r="P954" s="2"/>
     </row>
-    <row r="955" spans="1:16">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -17970,7 +18038,7 @@
       <c r="O955" s="2"/>
       <c r="P955" s="2"/>
     </row>
-    <row r="956" spans="1:16">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -17988,7 +18056,7 @@
       <c r="O956" s="2"/>
       <c r="P956" s="2"/>
     </row>
-    <row r="957" spans="1:16">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -18006,7 +18074,7 @@
       <c r="O957" s="2"/>
       <c r="P957" s="2"/>
     </row>
-    <row r="958" spans="1:16">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -18024,7 +18092,7 @@
       <c r="O958" s="2"/>
       <c r="P958" s="2"/>
     </row>
-    <row r="959" spans="1:16">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -18042,7 +18110,7 @@
       <c r="O959" s="2"/>
       <c r="P959" s="2"/>
     </row>
-    <row r="960" spans="1:16">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -18060,7 +18128,7 @@
       <c r="O960" s="2"/>
       <c r="P960" s="2"/>
     </row>
-    <row r="961" spans="1:16">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -18078,7 +18146,7 @@
       <c r="O961" s="2"/>
       <c r="P961" s="2"/>
     </row>
-    <row r="962" spans="1:16">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -18096,7 +18164,7 @@
       <c r="O962" s="2"/>
       <c r="P962" s="2"/>
     </row>
-    <row r="963" spans="1:16">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -18114,7 +18182,7 @@
       <c r="O963" s="2"/>
       <c r="P963" s="2"/>
     </row>
-    <row r="964" spans="1:16">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -18132,7 +18200,7 @@
       <c r="O964" s="2"/>
       <c r="P964" s="2"/>
     </row>
-    <row r="965" spans="1:16">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -18150,7 +18218,7 @@
       <c r="O965" s="2"/>
       <c r="P965" s="2"/>
     </row>
-    <row r="966" spans="1:16">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -18168,7 +18236,7 @@
       <c r="O966" s="2"/>
       <c r="P966" s="2"/>
     </row>
-    <row r="967" spans="1:16">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -18186,7 +18254,7 @@
       <c r="O967" s="2"/>
       <c r="P967" s="2"/>
     </row>
-    <row r="968" spans="1:16">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -18204,7 +18272,7 @@
       <c r="O968" s="2"/>
       <c r="P968" s="2"/>
     </row>
-    <row r="969" spans="1:16">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -18222,7 +18290,7 @@
       <c r="O969" s="2"/>
       <c r="P969" s="2"/>
     </row>
-    <row r="970" spans="1:16">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -18240,7 +18308,7 @@
       <c r="O970" s="2"/>
       <c r="P970" s="2"/>
     </row>
-    <row r="971" spans="1:16">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -18258,7 +18326,7 @@
       <c r="O971" s="2"/>
       <c r="P971" s="2"/>
     </row>
-    <row r="972" spans="1:16">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -18276,7 +18344,7 @@
       <c r="O972" s="2"/>
       <c r="P972" s="2"/>
     </row>
-    <row r="973" spans="1:16">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -18294,7 +18362,7 @@
       <c r="O973" s="2"/>
       <c r="P973" s="2"/>
     </row>
-    <row r="974" spans="1:16">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -18312,7 +18380,7 @@
       <c r="O974" s="2"/>
       <c r="P974" s="2"/>
     </row>
-    <row r="975" spans="1:16">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -18330,7 +18398,7 @@
       <c r="O975" s="2"/>
       <c r="P975" s="2"/>
     </row>
-    <row r="976" spans="1:16">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -18348,7 +18416,7 @@
       <c r="O976" s="2"/>
       <c r="P976" s="2"/>
     </row>
-    <row r="977" spans="1:16">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -18366,7 +18434,7 @@
       <c r="O977" s="2"/>
       <c r="P977" s="2"/>
     </row>
-    <row r="978" spans="1:16">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -18384,7 +18452,7 @@
       <c r="O978" s="2"/>
       <c r="P978" s="2"/>
     </row>
-    <row r="979" spans="1:16">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -18402,7 +18470,7 @@
       <c r="O979" s="2"/>
       <c r="P979" s="2"/>
     </row>
-    <row r="980" spans="1:16">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -18420,7 +18488,7 @@
       <c r="O980" s="2"/>
       <c r="P980" s="2"/>
     </row>
-    <row r="981" spans="1:16">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -18438,7 +18506,7 @@
       <c r="O981" s="2"/>
       <c r="P981" s="2"/>
     </row>
-    <row r="982" spans="1:16">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -18456,7 +18524,7 @@
       <c r="O982" s="2"/>
       <c r="P982" s="2"/>
     </row>
-    <row r="983" spans="1:16">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -18474,7 +18542,7 @@
       <c r="O983" s="2"/>
       <c r="P983" s="2"/>
     </row>
-    <row r="984" spans="1:16">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -18492,7 +18560,7 @@
       <c r="O984" s="2"/>
       <c r="P984" s="2"/>
     </row>
-    <row r="985" spans="1:16">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -18510,7 +18578,7 @@
       <c r="O985" s="2"/>
       <c r="P985" s="2"/>
     </row>
-    <row r="986" spans="1:16">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -18528,7 +18596,7 @@
       <c r="O986" s="2"/>
       <c r="P986" s="2"/>
     </row>
-    <row r="987" spans="1:16">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -18546,7 +18614,7 @@
       <c r="O987" s="2"/>
       <c r="P987" s="2"/>
     </row>
-    <row r="988" spans="1:16">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -18564,7 +18632,7 @@
       <c r="O988" s="2"/>
       <c r="P988" s="2"/>
     </row>
-    <row r="989" spans="1:16">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -18582,7 +18650,7 @@
       <c r="O989" s="2"/>
       <c r="P989" s="2"/>
     </row>
-    <row r="990" spans="1:16">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -18600,7 +18668,7 @@
       <c r="O990" s="2"/>
       <c r="P990" s="2"/>
     </row>
-    <row r="991" spans="1:16">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -18618,7 +18686,7 @@
       <c r="O991" s="2"/>
       <c r="P991" s="2"/>
     </row>
-    <row r="992" spans="1:16">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -18636,7 +18704,7 @@
       <c r="O992" s="2"/>
       <c r="P992" s="2"/>
     </row>
-    <row r="993" spans="1:16">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -18654,7 +18722,7 @@
       <c r="O993" s="2"/>
       <c r="P993" s="2"/>
     </row>
-    <row r="994" spans="1:16">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -18672,7 +18740,7 @@
       <c r="O994" s="2"/>
       <c r="P994" s="2"/>
     </row>
-    <row r="995" spans="1:16">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -18690,7 +18758,7 @@
       <c r="O995" s="2"/>
       <c r="P995" s="2"/>
     </row>
-    <row r="996" spans="1:16">
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -18708,7 +18776,7 @@
       <c r="O996" s="2"/>
       <c r="P996" s="2"/>
     </row>
-    <row r="997" spans="1:16">
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -18726,7 +18794,7 @@
       <c r="O997" s="2"/>
       <c r="P997" s="2"/>
     </row>
-    <row r="998" spans="1:16">
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -18744,7 +18812,7 @@
       <c r="O998" s="2"/>
       <c r="P998" s="2"/>
     </row>
-    <row r="999" spans="1:16">
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -18762,7 +18830,7 @@
       <c r="O999" s="2"/>
       <c r="P999" s="2"/>
     </row>
-    <row r="1000" spans="1:16">
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -18781,7 +18849,12 @@
       <c r="P1000" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/TestData/Web_POS/Order/auto_switching_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/auto_switching_order_test_data.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Order\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateDelta="0.0001"/>
+  <calcPr fullPrecision="1" calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42" count="190">
   <si>
     <t>TC_Id</t>
   </si>
@@ -127,51 +123,89 @@
   <si>
     <t>TC_161</t>
   </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>Index9QA</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <charset val="0"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -180,57 +214,51 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
+  <borders count="2">
     <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ConditionalFormatStyle" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -475,19 +503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H16"/>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" sqref="G2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="29.05" customWidth="1"/>
-    <col min="3" max="3" width="17.32" customWidth="1"/>
+    <col min="2" max="2" width="29.09765625" customWidth="1"/>
+    <col min="3" max="3" width="17.3203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:16" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +555,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -563,7 +593,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:16" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -601,7 +631,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="1:16" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -639,7 +669,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" spans="1:16" ht="14.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -677,7 +707,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:16" ht="14.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -715,7 +745,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:16" ht="14.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -753,7 +783,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:16" ht="14.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -791,7 +821,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" spans="1:16" ht="14.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -829,7 +859,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" spans="1:16" ht="14.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -867,7 +897,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" spans="1:16" ht="14.25">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -905,7 +935,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" spans="1:16" ht="14.25">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -943,7 +973,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" spans="1:16" ht="14.25">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -981,7 +1011,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" spans="1:16" ht="14.25">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1019,7 +1049,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" spans="1:16" ht="14.25">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -1057,7 +1087,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="1:16" ht="14.25">
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1095,17 +1125,37 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+    <row r="17" spans="1:16" ht="14.25">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1113,17 +1163,37 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+    <row r="18" spans="1:16" ht="14.25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1131,17 +1201,37 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+    <row r="19" spans="1:16" ht="14.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1149,7 +1239,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20" spans="1:16" ht="14.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1167,7 +1257,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" spans="1:16" ht="14.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1185,7 +1275,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" spans="1:16" ht="14.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1203,7 +1293,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" spans="1:16" ht="14.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1221,7 +1311,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" spans="1:16" ht="14.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1239,7 +1329,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" spans="1:16" ht="14.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1257,7 +1347,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26" spans="1:16" ht="14.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1275,7 +1365,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" spans="1:16" ht="14.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1293,7 +1383,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" ht="14.25">
+    <row r="28" spans="1:16" ht="14.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1311,7 +1401,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" ht="14.25">
+    <row r="29" spans="1:16" ht="14.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1329,7 +1419,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" ht="14.25">
+    <row r="30" spans="1:16" ht="14.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1347,7 +1437,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" ht="14.25">
+    <row r="31" spans="1:16" ht="14.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1365,7 +1455,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" ht="14.25">
+    <row r="32" spans="1:16" ht="14.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1383,7 +1473,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" ht="14.25">
+    <row r="33" spans="1:16" ht="14.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1401,7 +1491,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" ht="14.25">
+    <row r="34" spans="1:16" ht="14.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1419,7 +1509,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" ht="14.25">
+    <row r="35" spans="1:16" ht="14.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1437,7 +1527,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" ht="14.25">
+    <row r="36" spans="1:16" ht="14.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1455,7 +1545,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" ht="14.25">
+    <row r="37" spans="1:16" ht="14.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1473,7 +1563,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" ht="14.25">
+    <row r="38" spans="1:16" ht="14.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1491,7 +1581,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" ht="14.25">
+    <row r="39" spans="1:16" ht="14.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1509,7 +1599,7 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" ht="14.25">
+    <row r="40" spans="1:16" ht="14.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1527,7 +1617,7 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" ht="14.25">
+    <row r="41" spans="1:16" ht="14.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1545,7 +1635,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" ht="14.25">
+    <row r="42" spans="1:16" ht="14.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1563,7 +1653,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" ht="14.25">
+    <row r="43" spans="1:16" ht="14.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1581,7 +1671,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" ht="14.25">
+    <row r="44" spans="1:16" ht="14.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1599,7 +1689,7 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" ht="14.25">
+    <row r="45" spans="1:16" ht="14.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1617,7 +1707,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" ht="14.25">
+    <row r="46" spans="1:16" ht="14.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1635,7 +1725,7 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
-    <row r="47" ht="14.25">
+    <row r="47" spans="1:16" ht="14.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1653,7 +1743,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
-    <row r="48" ht="14.25">
+    <row r="48" spans="1:16" ht="14.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1671,7 +1761,7 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
     </row>
-    <row r="49" ht="14.25">
+    <row r="49" spans="1:16" ht="14.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1689,7 +1779,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" ht="14.25">
+    <row r="50" spans="1:16" ht="14.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1707,7 +1797,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
     </row>
-    <row r="51" ht="14.25">
+    <row r="51" spans="1:16" ht="14.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1725,7 +1815,7 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
-    <row r="52" ht="14.25">
+    <row r="52" spans="1:16" ht="14.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1743,7 +1833,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" ht="14.25">
+    <row r="53" spans="1:16" ht="14.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1761,7 +1851,7 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" ht="14.25">
+    <row r="54" spans="1:16" ht="14.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1779,7 +1869,7 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
-    <row r="55" ht="14.25">
+    <row r="55" spans="1:16" ht="14.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1797,7 +1887,7 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
-    <row r="56" ht="14.25">
+    <row r="56" spans="1:16" ht="14.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1815,7 +1905,7 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" ht="14.25">
+    <row r="57" spans="1:16" ht="14.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1833,7 +1923,7 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" ht="14.25">
+    <row r="58" spans="1:16" ht="14.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1851,7 +1941,7 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" ht="14.25">
+    <row r="59" spans="1:16" ht="14.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1869,7 +1959,7 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" ht="14.25">
+    <row r="60" spans="1:16" ht="14.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1887,7 +1977,7 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" ht="14.25">
+    <row r="61" spans="1:16" ht="14.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1905,7 +1995,7 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
     </row>
-    <row r="62" ht="14.25">
+    <row r="62" spans="1:16" ht="14.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1923,7 +2013,7 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" ht="14.25">
+    <row r="63" spans="1:16" ht="14.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1941,7 +2031,7 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" ht="14.25">
+    <row r="64" spans="1:16" ht="14.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1959,7 +2049,7 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
-    <row r="65" ht="14.25">
+    <row r="65" spans="1:16" ht="14.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1977,7 +2067,7 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
-    <row r="66" ht="14.25">
+    <row r="66" spans="1:16" ht="14.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1995,7 +2085,7 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
     </row>
-    <row r="67" ht="14.25">
+    <row r="67" spans="1:16" ht="14.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2013,7 +2103,7 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
-    <row r="68" ht="14.25">
+    <row r="68" spans="1:16" ht="14.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2031,7 +2121,7 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" ht="14.25">
+    <row r="69" spans="1:16" ht="14.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2049,7 +2139,7 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
-    <row r="70" ht="14.25">
+    <row r="70" spans="1:16" ht="14.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2067,7 +2157,7 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
     </row>
-    <row r="71" ht="14.25">
+    <row r="71" spans="1:16" ht="14.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2085,7 +2175,7 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
-    <row r="72" ht="14.25">
+    <row r="72" spans="1:16" ht="14.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2103,7 +2193,7 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
-    <row r="73" ht="14.25">
+    <row r="73" spans="1:16" ht="14.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2121,7 +2211,7 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
-    <row r="74" ht="14.25">
+    <row r="74" spans="1:16" ht="14.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2139,7 +2229,7 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" ht="14.25">
+    <row r="75" spans="1:16" ht="14.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2157,7 +2247,7 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
-    <row r="76" ht="14.25">
+    <row r="76" spans="1:16" ht="14.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2175,7 +2265,7 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
-    <row r="77" ht="14.25">
+    <row r="77" spans="1:16" ht="14.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2193,7 +2283,7 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
     </row>
-    <row r="78" ht="14.25">
+    <row r="78" spans="1:16" ht="14.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2211,7 +2301,7 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
-    <row r="79" ht="14.25">
+    <row r="79" spans="1:16" ht="14.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2229,7 +2319,7 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
-    <row r="80" ht="14.25">
+    <row r="80" spans="1:16" ht="14.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2247,7 +2337,7 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
     </row>
-    <row r="81" ht="14.25">
+    <row r="81" spans="1:16" ht="14.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2265,7 +2355,7 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
-    <row r="82" ht="14.25">
+    <row r="82" spans="1:16" ht="14.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2283,7 +2373,7 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
-    <row r="83" ht="14.25">
+    <row r="83" spans="1:16" ht="14.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2301,7 +2391,7 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
-    <row r="84" ht="14.25">
+    <row r="84" spans="1:16" ht="14.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2319,7 +2409,7 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
     </row>
-    <row r="85" ht="14.25">
+    <row r="85" spans="1:16" ht="14.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2337,7 +2427,7 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
     </row>
-    <row r="86" ht="14.25">
+    <row r="86" spans="1:16" ht="14.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2355,7 +2445,7 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
     </row>
-    <row r="87" ht="14.25">
+    <row r="87" spans="1:16" ht="14.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2373,7 +2463,7 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
     </row>
-    <row r="88" ht="14.25">
+    <row r="88" spans="1:16" ht="14.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2391,7 +2481,7 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
     </row>
-    <row r="89" ht="14.25">
+    <row r="89" spans="1:16" ht="14.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2409,7 +2499,7 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
     </row>
-    <row r="90" ht="14.25">
+    <row r="90" spans="1:16" ht="14.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2427,7 +2517,7 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
     </row>
-    <row r="91" ht="14.25">
+    <row r="91" spans="1:16" ht="14.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2445,7 +2535,7 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
     </row>
-    <row r="92" ht="14.25">
+    <row r="92" spans="1:16" ht="14.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2463,7 +2553,7 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
     </row>
-    <row r="93" ht="14.25">
+    <row r="93" spans="1:16" ht="14.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2481,7 +2571,7 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
     </row>
-    <row r="94" ht="14.25">
+    <row r="94" spans="1:16" ht="14.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2499,7 +2589,7 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
     </row>
-    <row r="95" ht="14.25">
+    <row r="95" spans="1:16" ht="14.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2517,7 +2607,7 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
     </row>
-    <row r="96" ht="14.25">
+    <row r="96" spans="1:16" ht="14.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2535,7 +2625,7 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
     </row>
-    <row r="97" ht="14.25">
+    <row r="97" spans="1:16" ht="14.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2553,7 +2643,7 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
     </row>
-    <row r="98" ht="14.25">
+    <row r="98" spans="1:16" ht="14.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2571,7 +2661,7 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
     </row>
-    <row r="99" ht="14.25">
+    <row r="99" spans="1:16" ht="14.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2589,7 +2679,7 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
     </row>
-    <row r="100" ht="14.25">
+    <row r="100" spans="1:16" ht="14.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2607,7 +2697,7 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
     </row>
-    <row r="101" ht="14.25">
+    <row r="101" spans="1:16" ht="14.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2625,7 +2715,7 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
     </row>
-    <row r="102" ht="14.25">
+    <row r="102" spans="1:16" ht="14.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2643,7 +2733,7 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
     </row>
-    <row r="103" ht="14.25">
+    <row r="103" spans="1:16" ht="14.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2661,7 +2751,7 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
     </row>
-    <row r="104" ht="14.25">
+    <row r="104" spans="1:16" ht="14.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2679,7 +2769,7 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
     </row>
-    <row r="105" ht="14.25">
+    <row r="105" spans="1:16" ht="14.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2697,7 +2787,7 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
     </row>
-    <row r="106" ht="14.25">
+    <row r="106" spans="1:16" ht="14.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2715,7 +2805,7 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
     </row>
-    <row r="107" ht="14.25">
+    <row r="107" spans="1:16" ht="14.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2733,7 +2823,7 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
     </row>
-    <row r="108" ht="14.25">
+    <row r="108" spans="1:16" ht="14.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2751,7 +2841,7 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
     </row>
-    <row r="109" ht="14.25">
+    <row r="109" spans="1:16" ht="14.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2769,7 +2859,7 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
     </row>
-    <row r="110" ht="14.25">
+    <row r="110" spans="1:16" ht="14.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2787,7 +2877,7 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
     </row>
-    <row r="111" ht="14.25">
+    <row r="111" spans="1:16" ht="14.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2805,7 +2895,7 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
     </row>
-    <row r="112" ht="14.25">
+    <row r="112" spans="1:16" ht="14.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2823,7 +2913,7 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
     </row>
-    <row r="113" ht="14.25">
+    <row r="113" spans="1:16" ht="14.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2841,7 +2931,7 @@
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
     </row>
-    <row r="114" ht="14.25">
+    <row r="114" spans="1:16" ht="14.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2859,7 +2949,7 @@
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
     </row>
-    <row r="115" ht="14.25">
+    <row r="115" spans="1:16" ht="14.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2877,7 +2967,7 @@
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
     </row>
-    <row r="116" ht="14.25">
+    <row r="116" spans="1:16" ht="14.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2895,7 +2985,7 @@
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
     </row>
-    <row r="117" ht="14.25">
+    <row r="117" spans="1:16" ht="14.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2913,7 +3003,7 @@
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
     </row>
-    <row r="118" ht="14.25">
+    <row r="118" spans="1:16" ht="14.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2931,7 +3021,7 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
     </row>
-    <row r="119" ht="14.25">
+    <row r="119" spans="1:16" ht="14.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2949,7 +3039,7 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
     </row>
-    <row r="120" ht="14.25">
+    <row r="120" spans="1:16" ht="14.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2967,7 +3057,7 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
     </row>
-    <row r="121" ht="14.25">
+    <row r="121" spans="1:16" ht="14.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2985,7 +3075,7 @@
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
     </row>
-    <row r="122" ht="14.25">
+    <row r="122" spans="1:16" ht="14.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3003,7 +3093,7 @@
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
     </row>
-    <row r="123" ht="14.25">
+    <row r="123" spans="1:16" ht="14.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3021,7 +3111,7 @@
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
     </row>
-    <row r="124" ht="14.25">
+    <row r="124" spans="1:16" ht="14.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3039,7 +3129,7 @@
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
     </row>
-    <row r="125" ht="14.25">
+    <row r="125" spans="1:16" ht="14.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3057,7 +3147,7 @@
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
     </row>
-    <row r="126" ht="14.25">
+    <row r="126" spans="1:16" ht="14.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3075,7 +3165,7 @@
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
     </row>
-    <row r="127" ht="14.25">
+    <row r="127" spans="1:16" ht="14.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3093,7 +3183,7 @@
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
     </row>
-    <row r="128" ht="14.25">
+    <row r="128" spans="1:16" ht="14.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3111,7 +3201,7 @@
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
     </row>
-    <row r="129" ht="15.75">
+    <row r="129" spans="1:16" ht="15.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3129,7 +3219,7 @@
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
     </row>
-    <row r="130" ht="15.75">
+    <row r="130" spans="1:16" ht="15.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3147,7 +3237,7 @@
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
     </row>
-    <row r="131" ht="15.75">
+    <row r="131" spans="1:16" ht="15.75">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3165,7 +3255,7 @@
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
     </row>
-    <row r="132" ht="15.75">
+    <row r="132" spans="1:16" ht="15.75">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3183,7 +3273,7 @@
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
     </row>
-    <row r="133" ht="15.75">
+    <row r="133" spans="1:16" ht="15.75">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3201,7 +3291,7 @@
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
     </row>
-    <row r="134" ht="15.75">
+    <row r="134" spans="1:16" ht="15.75">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3219,7 +3309,7 @@
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
     </row>
-    <row r="135" ht="15.75">
+    <row r="135" spans="1:16" ht="15.75">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3237,7 +3327,7 @@
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
     </row>
-    <row r="136" ht="15.75">
+    <row r="136" spans="1:16" ht="15.75">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3255,7 +3345,7 @@
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
     </row>
-    <row r="137" ht="15.75">
+    <row r="137" spans="1:16" ht="15.75">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3273,7 +3363,7 @@
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
     </row>
-    <row r="138" ht="15.75">
+    <row r="138" spans="1:16" ht="15.75">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3291,7 +3381,7 @@
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
     </row>
-    <row r="139" ht="15.75">
+    <row r="139" spans="1:16" ht="15.75">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3309,7 +3399,7 @@
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
     </row>
-    <row r="140" ht="15.75">
+    <row r="140" spans="1:16" ht="15.75">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3327,7 +3417,7 @@
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
     </row>
-    <row r="141" ht="15.75">
+    <row r="141" spans="1:16" ht="15.75">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3345,7 +3435,7 @@
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
     </row>
-    <row r="142" ht="15.75">
+    <row r="142" spans="1:16" ht="15.75">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3363,7 +3453,7 @@
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
     </row>
-    <row r="143" ht="15.75">
+    <row r="143" spans="1:16" ht="15.75">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3381,7 +3471,7 @@
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
     </row>
-    <row r="144" ht="15.75">
+    <row r="144" spans="1:16" ht="15.75">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3399,7 +3489,7 @@
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
     </row>
-    <row r="145" ht="15.75">
+    <row r="145" spans="1:16" ht="15.75">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3417,7 +3507,7 @@
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
     </row>
-    <row r="146" ht="15.75">
+    <row r="146" spans="1:16" ht="15.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3435,7 +3525,7 @@
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
     </row>
-    <row r="147" ht="15.75">
+    <row r="147" spans="1:16" ht="15.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3453,7 +3543,7 @@
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
     </row>
-    <row r="148" ht="15.75">
+    <row r="148" spans="1:16" ht="15.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3471,7 +3561,7 @@
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
     </row>
-    <row r="149" ht="15.75">
+    <row r="149" spans="1:16" ht="15.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3489,7 +3579,7 @@
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
     </row>
-    <row r="150" ht="15.75">
+    <row r="150" spans="1:16" ht="15.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3507,7 +3597,7 @@
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
     </row>
-    <row r="151" ht="15.75">
+    <row r="151" spans="1:16" ht="15.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3525,7 +3615,7 @@
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
     </row>
-    <row r="152" ht="15.75">
+    <row r="152" spans="1:16" ht="15.75">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3543,7 +3633,7 @@
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
     </row>
-    <row r="153" ht="15.75">
+    <row r="153" spans="1:16" ht="15.75">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3561,7 +3651,7 @@
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
     </row>
-    <row r="154" ht="15.75">
+    <row r="154" spans="1:16" ht="15.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3579,7 +3669,7 @@
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
     </row>
-    <row r="155" ht="15.75">
+    <row r="155" spans="1:16" ht="15.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3597,7 +3687,7 @@
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
     </row>
-    <row r="156" ht="15.75">
+    <row r="156" spans="1:16" ht="15.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3615,7 +3705,7 @@
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
     </row>
-    <row r="157" ht="15.75">
+    <row r="157" spans="1:16" ht="15.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3633,7 +3723,7 @@
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
     </row>
-    <row r="158" ht="15.75">
+    <row r="158" spans="1:16" ht="15.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3651,7 +3741,7 @@
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
     </row>
-    <row r="159" ht="15.75">
+    <row r="159" spans="1:16" ht="15.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3669,7 +3759,7 @@
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
     </row>
-    <row r="160" ht="15.75">
+    <row r="160" spans="1:16" ht="15.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3687,7 +3777,7 @@
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
     </row>
-    <row r="161" ht="15.75">
+    <row r="161" spans="1:16" ht="15.75">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3705,7 +3795,7 @@
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
     </row>
-    <row r="162" ht="15.75">
+    <row r="162" spans="1:16" ht="15.75">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3723,7 +3813,7 @@
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
     </row>
-    <row r="163" ht="15.75">
+    <row r="163" spans="1:16" ht="15.75">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3741,7 +3831,7 @@
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
     </row>
-    <row r="164" ht="15.75">
+    <row r="164" spans="1:16" ht="15.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3759,7 +3849,7 @@
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
     </row>
-    <row r="165" ht="15.75">
+    <row r="165" spans="1:16" ht="15.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3777,7 +3867,7 @@
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
     </row>
-    <row r="166" ht="15.75">
+    <row r="166" spans="1:16" ht="15.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3795,7 +3885,7 @@
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
     </row>
-    <row r="167" ht="15.75">
+    <row r="167" spans="1:16" ht="15.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3813,7 +3903,7 @@
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
     </row>
-    <row r="168" ht="15.75">
+    <row r="168" spans="1:16" ht="15.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3831,7 +3921,7 @@
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
     </row>
-    <row r="169" ht="15.75">
+    <row r="169" spans="1:16" ht="15.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -3849,7 +3939,7 @@
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
     </row>
-    <row r="170" ht="15.75">
+    <row r="170" spans="1:16" ht="15.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -3867,7 +3957,7 @@
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
     </row>
-    <row r="171" ht="15.75">
+    <row r="171" spans="1:16" ht="15.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -3885,7 +3975,7 @@
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
     </row>
-    <row r="172" ht="15.75">
+    <row r="172" spans="1:16" ht="15.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3903,7 +3993,7 @@
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
     </row>
-    <row r="173" ht="15.75">
+    <row r="173" spans="1:16" ht="15.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3921,7 +4011,7 @@
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
     </row>
-    <row r="174" ht="15.75">
+    <row r="174" spans="1:16" ht="15.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3939,7 +4029,7 @@
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
     </row>
-    <row r="175" ht="15.75">
+    <row r="175" spans="1:16" ht="15.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3957,7 +4047,7 @@
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
     </row>
-    <row r="176" ht="15.75">
+    <row r="176" spans="1:16" ht="15.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3975,7 +4065,7 @@
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
     </row>
-    <row r="177" ht="15.75">
+    <row r="177" spans="1:16" ht="15.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3993,7 +4083,7 @@
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
     </row>
-    <row r="178" ht="15.75">
+    <row r="178" spans="1:16" ht="15.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4011,7 +4101,7 @@
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
     </row>
-    <row r="179" ht="15.75">
+    <row r="179" spans="1:16" ht="15.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4029,7 +4119,7 @@
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
     </row>
-    <row r="180" ht="15.75">
+    <row r="180" spans="1:16" ht="15.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4047,7 +4137,7 @@
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
     </row>
-    <row r="181" ht="15.75">
+    <row r="181" spans="1:16" ht="15.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4065,7 +4155,7 @@
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
     </row>
-    <row r="182" ht="15.75">
+    <row r="182" spans="1:16" ht="15.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4083,7 +4173,7 @@
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
     </row>
-    <row r="183" ht="15.75">
+    <row r="183" spans="1:16" ht="15.75">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4101,7 +4191,7 @@
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
     </row>
-    <row r="184" ht="15.75">
+    <row r="184" spans="1:16" ht="15.75">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4119,7 +4209,7 @@
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
     </row>
-    <row r="185" ht="15.75">
+    <row r="185" spans="1:16" ht="15.75">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4137,7 +4227,7 @@
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
     </row>
-    <row r="186" ht="15.75">
+    <row r="186" spans="1:16" ht="15.75">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4155,7 +4245,7 @@
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
     </row>
-    <row r="187" ht="15.75">
+    <row r="187" spans="1:16" ht="15.75">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4173,7 +4263,7 @@
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
     </row>
-    <row r="188" ht="15.75">
+    <row r="188" spans="1:16" ht="15.75">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4191,7 +4281,7 @@
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
     </row>
-    <row r="189" ht="15.75">
+    <row r="189" spans="1:16" ht="15.75">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4209,7 +4299,7 @@
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
     </row>
-    <row r="190" ht="15.75">
+    <row r="190" spans="1:16" ht="15.75">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4227,7 +4317,7 @@
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
     </row>
-    <row r="191" ht="15.75">
+    <row r="191" spans="1:16" ht="15.75">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4245,7 +4335,7 @@
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
     </row>
-    <row r="192" ht="15.75">
+    <row r="192" spans="1:16" ht="15.75">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4263,7 +4353,7 @@
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
     </row>
-    <row r="193" ht="15.75">
+    <row r="193" spans="1:16" ht="15.75">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4281,7 +4371,7 @@
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
     </row>
-    <row r="194" ht="15.75">
+    <row r="194" spans="1:16" ht="15.75">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4299,7 +4389,7 @@
       <c r="O194" s="3"/>
       <c r="P194" s="3"/>
     </row>
-    <row r="195" ht="15.75">
+    <row r="195" spans="1:16" ht="15.75">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4317,7 +4407,7 @@
       <c r="O195" s="3"/>
       <c r="P195" s="3"/>
     </row>
-    <row r="196" ht="15.75">
+    <row r="196" spans="1:16" ht="15.75">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4335,7 +4425,7 @@
       <c r="O196" s="3"/>
       <c r="P196" s="3"/>
     </row>
-    <row r="197" ht="15.75">
+    <row r="197" spans="1:16" ht="15.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4353,7 +4443,7 @@
       <c r="O197" s="3"/>
       <c r="P197" s="3"/>
     </row>
-    <row r="198" ht="15.75">
+    <row r="198" spans="1:16" ht="15.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4371,7 +4461,7 @@
       <c r="O198" s="3"/>
       <c r="P198" s="3"/>
     </row>
-    <row r="199" ht="15.75">
+    <row r="199" spans="1:16" ht="15.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4389,7 +4479,7 @@
       <c r="O199" s="3"/>
       <c r="P199" s="3"/>
     </row>
-    <row r="200" ht="15.75">
+    <row r="200" spans="1:16" ht="15.75">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4407,7 +4497,7 @@
       <c r="O200" s="3"/>
       <c r="P200" s="3"/>
     </row>
-    <row r="201" ht="15.75">
+    <row r="201" spans="1:16" ht="15.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4425,7 +4515,7 @@
       <c r="O201" s="3"/>
       <c r="P201" s="3"/>
     </row>
-    <row r="202" ht="15.75">
+    <row r="202" spans="1:16" ht="15.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4443,7 +4533,7 @@
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
     </row>
-    <row r="203" ht="15.75">
+    <row r="203" spans="1:16" ht="15.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4461,7 +4551,7 @@
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
     </row>
-    <row r="204" ht="15.75">
+    <row r="204" spans="1:16" ht="15.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -4479,7 +4569,7 @@
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
     </row>
-    <row r="205" ht="15.75">
+    <row r="205" spans="1:16" ht="15.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -4497,7 +4587,7 @@
       <c r="O205" s="3"/>
       <c r="P205" s="3"/>
     </row>
-    <row r="206" ht="15.75">
+    <row r="206" spans="1:16" ht="15.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -4515,7 +4605,7 @@
       <c r="O206" s="3"/>
       <c r="P206" s="3"/>
     </row>
-    <row r="207" ht="15.75">
+    <row r="207" spans="1:16" ht="15.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -4533,7 +4623,7 @@
       <c r="O207" s="3"/>
       <c r="P207" s="3"/>
     </row>
-    <row r="208" ht="15.75">
+    <row r="208" spans="1:16" ht="15.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -4551,7 +4641,7 @@
       <c r="O208" s="3"/>
       <c r="P208" s="3"/>
     </row>
-    <row r="209" ht="15.75">
+    <row r="209" spans="1:16" ht="15.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -4569,7 +4659,7 @@
       <c r="O209" s="3"/>
       <c r="P209" s="3"/>
     </row>
-    <row r="210" ht="15.75">
+    <row r="210" spans="1:16" ht="15.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -4587,7 +4677,7 @@
       <c r="O210" s="3"/>
       <c r="P210" s="3"/>
     </row>
-    <row r="211" ht="15.75">
+    <row r="211" spans="1:16" ht="15.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -4605,7 +4695,7 @@
       <c r="O211" s="3"/>
       <c r="P211" s="3"/>
     </row>
-    <row r="212" ht="15.75">
+    <row r="212" spans="1:16" ht="15.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -4623,7 +4713,7 @@
       <c r="O212" s="3"/>
       <c r="P212" s="3"/>
     </row>
-    <row r="213" ht="15.75">
+    <row r="213" spans="1:16" ht="15.75">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -4641,7 +4731,7 @@
       <c r="O213" s="3"/>
       <c r="P213" s="3"/>
     </row>
-    <row r="214" ht="15.75">
+    <row r="214" spans="1:16" ht="15.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -4659,7 +4749,7 @@
       <c r="O214" s="3"/>
       <c r="P214" s="3"/>
     </row>
-    <row r="215" ht="15.75">
+    <row r="215" spans="1:16" ht="15.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -4677,7 +4767,7 @@
       <c r="O215" s="3"/>
       <c r="P215" s="3"/>
     </row>
-    <row r="216" ht="15.75">
+    <row r="216" spans="1:16" ht="15.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -4695,7 +4785,7 @@
       <c r="O216" s="3"/>
       <c r="P216" s="3"/>
     </row>
-    <row r="217" ht="15.75">
+    <row r="217" spans="1:16" ht="15.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -4713,7 +4803,7 @@
       <c r="O217" s="3"/>
       <c r="P217" s="3"/>
     </row>
-    <row r="218" ht="15.75">
+    <row r="218" spans="1:16" ht="15.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -4731,7 +4821,7 @@
       <c r="O218" s="3"/>
       <c r="P218" s="3"/>
     </row>
-    <row r="219" ht="15.75">
+    <row r="219" spans="1:16" ht="15.75">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -4749,7 +4839,7 @@
       <c r="O219" s="3"/>
       <c r="P219" s="3"/>
     </row>
-    <row r="220" ht="15.75">
+    <row r="220" spans="1:16" ht="15.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -4767,7 +4857,7 @@
       <c r="O220" s="3"/>
       <c r="P220" s="3"/>
     </row>
-    <row r="221" ht="15.75">
+    <row r="221" spans="1:16" ht="15.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -4785,7 +4875,7 @@
       <c r="O221" s="3"/>
       <c r="P221" s="3"/>
     </row>
-    <row r="222" ht="15.75">
+    <row r="222" spans="1:16" ht="15.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -4803,7 +4893,7 @@
       <c r="O222" s="3"/>
       <c r="P222" s="3"/>
     </row>
-    <row r="223" ht="15.75">
+    <row r="223" spans="1:16" ht="15.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -4821,7 +4911,7 @@
       <c r="O223" s="3"/>
       <c r="P223" s="3"/>
     </row>
-    <row r="224" ht="15.75">
+    <row r="224" spans="1:16" ht="15.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -4839,7 +4929,7 @@
       <c r="O224" s="3"/>
       <c r="P224" s="3"/>
     </row>
-    <row r="225" ht="15.75">
+    <row r="225" spans="1:16" ht="15.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -4857,7 +4947,7 @@
       <c r="O225" s="3"/>
       <c r="P225" s="3"/>
     </row>
-    <row r="226" ht="15.75">
+    <row r="226" spans="1:16" ht="15.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -4875,7 +4965,7 @@
       <c r="O226" s="3"/>
       <c r="P226" s="3"/>
     </row>
-    <row r="227" ht="15.75">
+    <row r="227" spans="1:16" ht="15.75">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -4893,7 +4983,7 @@
       <c r="O227" s="3"/>
       <c r="P227" s="3"/>
     </row>
-    <row r="228" ht="15.75">
+    <row r="228" spans="1:16" ht="15.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -4911,7 +5001,7 @@
       <c r="O228" s="3"/>
       <c r="P228" s="3"/>
     </row>
-    <row r="229" ht="15.75">
+    <row r="229" spans="1:16" ht="15.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -4929,7 +5019,7 @@
       <c r="O229" s="3"/>
       <c r="P229" s="3"/>
     </row>
-    <row r="230" ht="15.75">
+    <row r="230" spans="1:16" ht="15.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -4947,7 +5037,7 @@
       <c r="O230" s="3"/>
       <c r="P230" s="3"/>
     </row>
-    <row r="231" ht="15.75">
+    <row r="231" spans="1:16" ht="15.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -4965,7 +5055,7 @@
       <c r="O231" s="3"/>
       <c r="P231" s="3"/>
     </row>
-    <row r="232" ht="15.75">
+    <row r="232" spans="1:16" ht="15.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -4983,7 +5073,7 @@
       <c r="O232" s="3"/>
       <c r="P232" s="3"/>
     </row>
-    <row r="233" ht="15.75">
+    <row r="233" spans="1:16" ht="15.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -5001,7 +5091,7 @@
       <c r="O233" s="3"/>
       <c r="P233" s="3"/>
     </row>
-    <row r="234" ht="15.75">
+    <row r="234" spans="1:16" ht="15.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -5019,7 +5109,7 @@
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
     </row>
-    <row r="235" ht="15.75">
+    <row r="235" spans="1:16" ht="15.75">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -5037,7 +5127,7 @@
       <c r="O235" s="3"/>
       <c r="P235" s="3"/>
     </row>
-    <row r="236" ht="15.75">
+    <row r="236" spans="1:16" ht="15.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -5055,7 +5145,7 @@
       <c r="O236" s="3"/>
       <c r="P236" s="3"/>
     </row>
-    <row r="237" ht="15.75">
+    <row r="237" spans="1:16" ht="15.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -5073,7 +5163,7 @@
       <c r="O237" s="3"/>
       <c r="P237" s="3"/>
     </row>
-    <row r="238" ht="15.75">
+    <row r="238" spans="1:16" ht="15.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -5091,7 +5181,7 @@
       <c r="O238" s="3"/>
       <c r="P238" s="3"/>
     </row>
-    <row r="239" ht="15.75">
+    <row r="239" spans="1:16" ht="15.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -5109,7 +5199,7 @@
       <c r="O239" s="3"/>
       <c r="P239" s="3"/>
     </row>
-    <row r="240" ht="15.75">
+    <row r="240" spans="1:16" ht="15.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -5127,7 +5217,7 @@
       <c r="O240" s="3"/>
       <c r="P240" s="3"/>
     </row>
-    <row r="241" ht="15.75">
+    <row r="241" spans="1:16" ht="15.75">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -5145,7 +5235,7 @@
       <c r="O241" s="3"/>
       <c r="P241" s="3"/>
     </row>
-    <row r="242" ht="15.75">
+    <row r="242" spans="1:16" ht="15.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -5163,7 +5253,7 @@
       <c r="O242" s="3"/>
       <c r="P242" s="3"/>
     </row>
-    <row r="243" ht="15.75">
+    <row r="243" spans="1:16" ht="15.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -5181,7 +5271,7 @@
       <c r="O243" s="3"/>
       <c r="P243" s="3"/>
     </row>
-    <row r="244" ht="15.75">
+    <row r="244" spans="1:16" ht="15.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -5199,7 +5289,7 @@
       <c r="O244" s="3"/>
       <c r="P244" s="3"/>
     </row>
-    <row r="245" ht="15.75">
+    <row r="245" spans="1:16" ht="15.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -5217,7 +5307,7 @@
       <c r="O245" s="3"/>
       <c r="P245" s="3"/>
     </row>
-    <row r="246" ht="15.75">
+    <row r="246" spans="1:16" ht="15.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -5235,7 +5325,7 @@
       <c r="O246" s="3"/>
       <c r="P246" s="3"/>
     </row>
-    <row r="247" ht="15.75">
+    <row r="247" spans="1:16" ht="15.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -5253,7 +5343,7 @@
       <c r="O247" s="3"/>
       <c r="P247" s="3"/>
     </row>
-    <row r="248" ht="15.75">
+    <row r="248" spans="1:16" ht="15.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -5271,7 +5361,7 @@
       <c r="O248" s="3"/>
       <c r="P248" s="3"/>
     </row>
-    <row r="249" ht="15.75">
+    <row r="249" spans="1:16" ht="15.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -5289,7 +5379,7 @@
       <c r="O249" s="3"/>
       <c r="P249" s="3"/>
     </row>
-    <row r="250" ht="15.75">
+    <row r="250" spans="1:16" ht="15.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -5307,7 +5397,7 @@
       <c r="O250" s="3"/>
       <c r="P250" s="3"/>
     </row>
-    <row r="251" ht="15.75">
+    <row r="251" spans="1:16" ht="15.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -5325,7 +5415,7 @@
       <c r="O251" s="3"/>
       <c r="P251" s="3"/>
     </row>
-    <row r="252" ht="15.75">
+    <row r="252" spans="1:16" ht="15.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -5343,7 +5433,7 @@
       <c r="O252" s="3"/>
       <c r="P252" s="3"/>
     </row>
-    <row r="253" ht="15.75">
+    <row r="253" spans="1:16" ht="15.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -5361,7 +5451,7 @@
       <c r="O253" s="3"/>
       <c r="P253" s="3"/>
     </row>
-    <row r="254" ht="15.75">
+    <row r="254" spans="1:16" ht="15.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -5379,7 +5469,7 @@
       <c r="O254" s="3"/>
       <c r="P254" s="3"/>
     </row>
-    <row r="255" ht="15.75">
+    <row r="255" spans="1:16" ht="15.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -5397,7 +5487,7 @@
       <c r="O255" s="3"/>
       <c r="P255" s="3"/>
     </row>
-    <row r="256" ht="15.75">
+    <row r="256" spans="1:16" ht="15.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -5415,7 +5505,7 @@
       <c r="O256" s="3"/>
       <c r="P256" s="3"/>
     </row>
-    <row r="257" ht="15.75">
+    <row r="257" spans="1:16" ht="15.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -5433,7 +5523,7 @@
       <c r="O257" s="3"/>
       <c r="P257" s="3"/>
     </row>
-    <row r="258" ht="15.75">
+    <row r="258" spans="1:16" ht="15.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -5451,7 +5541,7 @@
       <c r="O258" s="3"/>
       <c r="P258" s="3"/>
     </row>
-    <row r="259" ht="15.75">
+    <row r="259" spans="1:16" ht="15.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -5469,7 +5559,7 @@
       <c r="O259" s="3"/>
       <c r="P259" s="3"/>
     </row>
-    <row r="260" ht="15.75">
+    <row r="260" spans="1:16" ht="15.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -5487,7 +5577,7 @@
       <c r="O260" s="3"/>
       <c r="P260" s="3"/>
     </row>
-    <row r="261" ht="15.75">
+    <row r="261" spans="1:16" ht="15.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -5505,7 +5595,7 @@
       <c r="O261" s="3"/>
       <c r="P261" s="3"/>
     </row>
-    <row r="262" ht="15.75">
+    <row r="262" spans="1:16" ht="15.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -5523,7 +5613,7 @@
       <c r="O262" s="3"/>
       <c r="P262" s="3"/>
     </row>
-    <row r="263" ht="15.75">
+    <row r="263" spans="1:16" ht="15.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -5541,7 +5631,7 @@
       <c r="O263" s="3"/>
       <c r="P263" s="3"/>
     </row>
-    <row r="264" ht="15.75">
+    <row r="264" spans="1:16" ht="15.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -5559,7 +5649,7 @@
       <c r="O264" s="3"/>
       <c r="P264" s="3"/>
     </row>
-    <row r="265" ht="15.75">
+    <row r="265" spans="1:16" ht="15.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -5577,7 +5667,7 @@
       <c r="O265" s="3"/>
       <c r="P265" s="3"/>
     </row>
-    <row r="266" ht="15.75">
+    <row r="266" spans="1:16" ht="15.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -5595,7 +5685,7 @@
       <c r="O266" s="3"/>
       <c r="P266" s="3"/>
     </row>
-    <row r="267" ht="15.75">
+    <row r="267" spans="1:16" ht="15.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -5613,7 +5703,7 @@
       <c r="O267" s="3"/>
       <c r="P267" s="3"/>
     </row>
-    <row r="268" ht="15.75">
+    <row r="268" spans="1:16" ht="15.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -5631,7 +5721,7 @@
       <c r="O268" s="3"/>
       <c r="P268" s="3"/>
     </row>
-    <row r="269" ht="15.75">
+    <row r="269" spans="1:16" ht="15.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -5649,7 +5739,7 @@
       <c r="O269" s="3"/>
       <c r="P269" s="3"/>
     </row>
-    <row r="270" ht="15.75">
+    <row r="270" spans="1:16" ht="15.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -5667,7 +5757,7 @@
       <c r="O270" s="3"/>
       <c r="P270" s="3"/>
     </row>
-    <row r="271" ht="15.75">
+    <row r="271" spans="1:16" ht="15.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -5685,7 +5775,7 @@
       <c r="O271" s="3"/>
       <c r="P271" s="3"/>
     </row>
-    <row r="272" ht="15.75">
+    <row r="272" spans="1:16" ht="15.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -5703,7 +5793,7 @@
       <c r="O272" s="3"/>
       <c r="P272" s="3"/>
     </row>
-    <row r="273" ht="15.75">
+    <row r="273" spans="1:16" ht="15.75">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -5721,7 +5811,7 @@
       <c r="O273" s="3"/>
       <c r="P273" s="3"/>
     </row>
-    <row r="274" ht="15.75">
+    <row r="274" spans="1:16" ht="15.75">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -5739,7 +5829,7 @@
       <c r="O274" s="3"/>
       <c r="P274" s="3"/>
     </row>
-    <row r="275" ht="15.75">
+    <row r="275" spans="1:16" ht="15.75">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -5757,7 +5847,7 @@
       <c r="O275" s="3"/>
       <c r="P275" s="3"/>
     </row>
-    <row r="276" ht="15.75">
+    <row r="276" spans="1:16" ht="15.75">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -5775,7 +5865,7 @@
       <c r="O276" s="3"/>
       <c r="P276" s="3"/>
     </row>
-    <row r="277" ht="15.75">
+    <row r="277" spans="1:16" ht="15.75">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -5793,7 +5883,7 @@
       <c r="O277" s="3"/>
       <c r="P277" s="3"/>
     </row>
-    <row r="278" ht="15.75">
+    <row r="278" spans="1:16" ht="15.75">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -5811,7 +5901,7 @@
       <c r="O278" s="3"/>
       <c r="P278" s="3"/>
     </row>
-    <row r="279" ht="15.75">
+    <row r="279" spans="1:16" ht="15.75">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -5829,7 +5919,7 @@
       <c r="O279" s="3"/>
       <c r="P279" s="3"/>
     </row>
-    <row r="280" ht="15.75">
+    <row r="280" spans="1:16" ht="15.75">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -5847,7 +5937,7 @@
       <c r="O280" s="3"/>
       <c r="P280" s="3"/>
     </row>
-    <row r="281" ht="15.75">
+    <row r="281" spans="1:16" ht="15.75">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -5865,7 +5955,7 @@
       <c r="O281" s="3"/>
       <c r="P281" s="3"/>
     </row>
-    <row r="282" ht="15.75">
+    <row r="282" spans="1:16" ht="15.75">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -5883,7 +5973,7 @@
       <c r="O282" s="3"/>
       <c r="P282" s="3"/>
     </row>
-    <row r="283" ht="15.75">
+    <row r="283" spans="1:16" ht="15.75">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -5901,7 +5991,7 @@
       <c r="O283" s="3"/>
       <c r="P283" s="3"/>
     </row>
-    <row r="284" ht="15.75">
+    <row r="284" spans="1:16" ht="15.75">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -5919,7 +6009,7 @@
       <c r="O284" s="3"/>
       <c r="P284" s="3"/>
     </row>
-    <row r="285" ht="15.75">
+    <row r="285" spans="1:16" ht="15.75">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -5937,7 +6027,7 @@
       <c r="O285" s="3"/>
       <c r="P285" s="3"/>
     </row>
-    <row r="286" ht="15.75">
+    <row r="286" spans="1:16" ht="15.75">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -5955,7 +6045,7 @@
       <c r="O286" s="3"/>
       <c r="P286" s="3"/>
     </row>
-    <row r="287" ht="15.75">
+    <row r="287" spans="1:16" ht="15.75">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -5973,7 +6063,7 @@
       <c r="O287" s="3"/>
       <c r="P287" s="3"/>
     </row>
-    <row r="288" ht="15.75">
+    <row r="288" spans="1:16" ht="15.75">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -5991,7 +6081,7 @@
       <c r="O288" s="3"/>
       <c r="P288" s="3"/>
     </row>
-    <row r="289" ht="15.75">
+    <row r="289" spans="1:16" ht="15.75">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -6009,7 +6099,7 @@
       <c r="O289" s="3"/>
       <c r="P289" s="3"/>
     </row>
-    <row r="290" ht="15.75">
+    <row r="290" spans="1:16" ht="15.75">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -6027,7 +6117,7 @@
       <c r="O290" s="3"/>
       <c r="P290" s="3"/>
     </row>
-    <row r="291" ht="15.75">
+    <row r="291" spans="1:16" ht="15.75">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -6045,7 +6135,7 @@
       <c r="O291" s="3"/>
       <c r="P291" s="3"/>
     </row>
-    <row r="292" ht="15.75">
+    <row r="292" spans="1:16" ht="15.75">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -6063,7 +6153,7 @@
       <c r="O292" s="3"/>
       <c r="P292" s="3"/>
     </row>
-    <row r="293" ht="15.75">
+    <row r="293" spans="1:16" ht="15.75">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -6081,7 +6171,7 @@
       <c r="O293" s="3"/>
       <c r="P293" s="3"/>
     </row>
-    <row r="294" ht="15.75">
+    <row r="294" spans="1:16" ht="15.75">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -6099,7 +6189,7 @@
       <c r="O294" s="3"/>
       <c r="P294" s="3"/>
     </row>
-    <row r="295" ht="15.75">
+    <row r="295" spans="1:16" ht="15.75">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -6117,7 +6207,7 @@
       <c r="O295" s="3"/>
       <c r="P295" s="3"/>
     </row>
-    <row r="296" ht="15.75">
+    <row r="296" spans="1:16" ht="15.75">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -6135,7 +6225,7 @@
       <c r="O296" s="3"/>
       <c r="P296" s="3"/>
     </row>
-    <row r="297" ht="15.75">
+    <row r="297" spans="1:16" ht="15.75">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -6153,7 +6243,7 @@
       <c r="O297" s="3"/>
       <c r="P297" s="3"/>
     </row>
-    <row r="298" ht="15.75">
+    <row r="298" spans="1:16" ht="15.75">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -6171,7 +6261,7 @@
       <c r="O298" s="3"/>
       <c r="P298" s="3"/>
     </row>
-    <row r="299" ht="15.75">
+    <row r="299" spans="1:16" ht="15.75">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -6189,7 +6279,7 @@
       <c r="O299" s="3"/>
       <c r="P299" s="3"/>
     </row>
-    <row r="300" ht="15.75">
+    <row r="300" spans="1:16" ht="15.75">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -6207,7 +6297,7 @@
       <c r="O300" s="3"/>
       <c r="P300" s="3"/>
     </row>
-    <row r="301" ht="15.75">
+    <row r="301" spans="1:16" ht="15.75">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -6225,7 +6315,7 @@
       <c r="O301" s="3"/>
       <c r="P301" s="3"/>
     </row>
-    <row r="302" ht="15.75">
+    <row r="302" spans="1:16" ht="15.75">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -6243,7 +6333,7 @@
       <c r="O302" s="3"/>
       <c r="P302" s="3"/>
     </row>
-    <row r="303" ht="15.75">
+    <row r="303" spans="1:16" ht="15.75">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -6261,7 +6351,7 @@
       <c r="O303" s="3"/>
       <c r="P303" s="3"/>
     </row>
-    <row r="304" ht="15.75">
+    <row r="304" spans="1:16" ht="15.75">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -6279,7 +6369,7 @@
       <c r="O304" s="3"/>
       <c r="P304" s="3"/>
     </row>
-    <row r="305" ht="15.75">
+    <row r="305" spans="1:16" ht="15.75">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -6297,7 +6387,7 @@
       <c r="O305" s="3"/>
       <c r="P305" s="3"/>
     </row>
-    <row r="306" ht="15.75">
+    <row r="306" spans="1:16" ht="15.75">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -6315,7 +6405,7 @@
       <c r="O306" s="3"/>
       <c r="P306" s="3"/>
     </row>
-    <row r="307" ht="15.75">
+    <row r="307" spans="1:16" ht="15.75">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -6333,7 +6423,7 @@
       <c r="O307" s="3"/>
       <c r="P307" s="3"/>
     </row>
-    <row r="308" ht="15.75">
+    <row r="308" spans="1:16" ht="15.75">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -6351,7 +6441,7 @@
       <c r="O308" s="3"/>
       <c r="P308" s="3"/>
     </row>
-    <row r="309" ht="15.75">
+    <row r="309" spans="1:16" ht="15.75">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -6369,7 +6459,7 @@
       <c r="O309" s="3"/>
       <c r="P309" s="3"/>
     </row>
-    <row r="310" ht="15.75">
+    <row r="310" spans="1:16" ht="15.75">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -6387,7 +6477,7 @@
       <c r="O310" s="3"/>
       <c r="P310" s="3"/>
     </row>
-    <row r="311" ht="15.75">
+    <row r="311" spans="1:16" ht="15.75">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -6405,7 +6495,7 @@
       <c r="O311" s="3"/>
       <c r="P311" s="3"/>
     </row>
-    <row r="312" ht="15.75">
+    <row r="312" spans="1:16" ht="15.75">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -6423,7 +6513,7 @@
       <c r="O312" s="3"/>
       <c r="P312" s="3"/>
     </row>
-    <row r="313" ht="15.75">
+    <row r="313" spans="1:16" ht="15.75">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -6441,7 +6531,7 @@
       <c r="O313" s="3"/>
       <c r="P313" s="3"/>
     </row>
-    <row r="314" ht="15.75">
+    <row r="314" spans="1:16" ht="15.75">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -6459,7 +6549,7 @@
       <c r="O314" s="3"/>
       <c r="P314" s="3"/>
     </row>
-    <row r="315" ht="15.75">
+    <row r="315" spans="1:16" ht="15.75">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -6477,7 +6567,7 @@
       <c r="O315" s="3"/>
       <c r="P315" s="3"/>
     </row>
-    <row r="316" ht="15.75">
+    <row r="316" spans="1:16" ht="15.75">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -6495,7 +6585,7 @@
       <c r="O316" s="3"/>
       <c r="P316" s="3"/>
     </row>
-    <row r="317" ht="15.75">
+    <row r="317" spans="1:16" ht="15.75">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -6513,7 +6603,7 @@
       <c r="O317" s="3"/>
       <c r="P317" s="3"/>
     </row>
-    <row r="318" ht="15.75">
+    <row r="318" spans="1:16" ht="15.75">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -6531,7 +6621,7 @@
       <c r="O318" s="3"/>
       <c r="P318" s="3"/>
     </row>
-    <row r="319" ht="15.75">
+    <row r="319" spans="1:16" ht="15.75">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -6549,7 +6639,7 @@
       <c r="O319" s="3"/>
       <c r="P319" s="3"/>
     </row>
-    <row r="320" ht="15.75">
+    <row r="320" spans="1:16" ht="15.75">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -6567,7 +6657,7 @@
       <c r="O320" s="3"/>
       <c r="P320" s="3"/>
     </row>
-    <row r="321" ht="15.75">
+    <row r="321" spans="1:16" ht="15.75">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -6585,7 +6675,7 @@
       <c r="O321" s="3"/>
       <c r="P321" s="3"/>
     </row>
-    <row r="322" ht="15.75">
+    <row r="322" spans="1:16" ht="15.75">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -6603,7 +6693,7 @@
       <c r="O322" s="3"/>
       <c r="P322" s="3"/>
     </row>
-    <row r="323" ht="15.75">
+    <row r="323" spans="1:16" ht="15.75">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -6621,7 +6711,7 @@
       <c r="O323" s="3"/>
       <c r="P323" s="3"/>
     </row>
-    <row r="324" ht="15.75">
+    <row r="324" spans="1:16" ht="15.75">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -6639,7 +6729,7 @@
       <c r="O324" s="3"/>
       <c r="P324" s="3"/>
     </row>
-    <row r="325" ht="15.75">
+    <row r="325" spans="1:16" ht="15.75">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -6657,7 +6747,7 @@
       <c r="O325" s="3"/>
       <c r="P325" s="3"/>
     </row>
-    <row r="326" ht="15.75">
+    <row r="326" spans="1:16" ht="15.75">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -6675,7 +6765,7 @@
       <c r="O326" s="3"/>
       <c r="P326" s="3"/>
     </row>
-    <row r="327" ht="15.75">
+    <row r="327" spans="1:16" ht="15.75">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -6693,7 +6783,7 @@
       <c r="O327" s="3"/>
       <c r="P327" s="3"/>
     </row>
-    <row r="328" ht="15.75">
+    <row r="328" spans="1:16" ht="15.75">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -6711,7 +6801,7 @@
       <c r="O328" s="3"/>
       <c r="P328" s="3"/>
     </row>
-    <row r="329" ht="15.75">
+    <row r="329" spans="1:16" ht="15.75">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -6729,7 +6819,7 @@
       <c r="O329" s="3"/>
       <c r="P329" s="3"/>
     </row>
-    <row r="330" ht="15.75">
+    <row r="330" spans="1:16" ht="15.75">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -6747,7 +6837,7 @@
       <c r="O330" s="3"/>
       <c r="P330" s="3"/>
     </row>
-    <row r="331" ht="15.75">
+    <row r="331" spans="1:16" ht="15.75">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -6765,7 +6855,7 @@
       <c r="O331" s="3"/>
       <c r="P331" s="3"/>
     </row>
-    <row r="332" ht="15.75">
+    <row r="332" spans="1:16" ht="15.75">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -6783,7 +6873,7 @@
       <c r="O332" s="3"/>
       <c r="P332" s="3"/>
     </row>
-    <row r="333" ht="15.75">
+    <row r="333" spans="1:16" ht="15.75">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -6801,7 +6891,7 @@
       <c r="O333" s="3"/>
       <c r="P333" s="3"/>
     </row>
-    <row r="334" ht="15.75">
+    <row r="334" spans="1:16" ht="15.75">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -6819,7 +6909,7 @@
       <c r="O334" s="3"/>
       <c r="P334" s="3"/>
     </row>
-    <row r="335" ht="15.75">
+    <row r="335" spans="1:16" ht="15.75">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -6837,7 +6927,7 @@
       <c r="O335" s="3"/>
       <c r="P335" s="3"/>
     </row>
-    <row r="336" ht="15.75">
+    <row r="336" spans="1:16" ht="15.75">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -6855,7 +6945,7 @@
       <c r="O336" s="3"/>
       <c r="P336" s="3"/>
     </row>
-    <row r="337" ht="15.75">
+    <row r="337" spans="1:16" ht="15.75">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -6873,7 +6963,7 @@
       <c r="O337" s="3"/>
       <c r="P337" s="3"/>
     </row>
-    <row r="338" ht="15.75">
+    <row r="338" spans="1:16" ht="15.75">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -6891,7 +6981,7 @@
       <c r="O338" s="3"/>
       <c r="P338" s="3"/>
     </row>
-    <row r="339" ht="15.75">
+    <row r="339" spans="1:16" ht="15.75">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -6909,7 +6999,7 @@
       <c r="O339" s="3"/>
       <c r="P339" s="3"/>
     </row>
-    <row r="340" ht="15.75">
+    <row r="340" spans="1:16" ht="15.75">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -6927,7 +7017,7 @@
       <c r="O340" s="3"/>
       <c r="P340" s="3"/>
     </row>
-    <row r="341" ht="15.75">
+    <row r="341" spans="1:16" ht="15.75">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -6945,7 +7035,7 @@
       <c r="O341" s="3"/>
       <c r="P341" s="3"/>
     </row>
-    <row r="342" ht="15.75">
+    <row r="342" spans="1:16" ht="15.75">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -6963,7 +7053,7 @@
       <c r="O342" s="3"/>
       <c r="P342" s="3"/>
     </row>
-    <row r="343" ht="15.75">
+    <row r="343" spans="1:16" ht="15.75">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -6981,7 +7071,7 @@
       <c r="O343" s="3"/>
       <c r="P343" s="3"/>
     </row>
-    <row r="344" ht="15.75">
+    <row r="344" spans="1:16" ht="15.75">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -6999,7 +7089,7 @@
       <c r="O344" s="3"/>
       <c r="P344" s="3"/>
     </row>
-    <row r="345" ht="15.75">
+    <row r="345" spans="1:16" ht="15.75">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -7017,7 +7107,7 @@
       <c r="O345" s="3"/>
       <c r="P345" s="3"/>
     </row>
-    <row r="346" ht="15.75">
+    <row r="346" spans="1:16" ht="15.75">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -7035,7 +7125,7 @@
       <c r="O346" s="3"/>
       <c r="P346" s="3"/>
     </row>
-    <row r="347" ht="15.75">
+    <row r="347" spans="1:16" ht="15.75">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -7053,7 +7143,7 @@
       <c r="O347" s="3"/>
       <c r="P347" s="3"/>
     </row>
-    <row r="348" ht="15.75">
+    <row r="348" spans="1:16" ht="15.75">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -7071,7 +7161,7 @@
       <c r="O348" s="3"/>
       <c r="P348" s="3"/>
     </row>
-    <row r="349" ht="15.75">
+    <row r="349" spans="1:16" ht="15.75">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -7089,7 +7179,7 @@
       <c r="O349" s="3"/>
       <c r="P349" s="3"/>
     </row>
-    <row r="350" ht="15.75">
+    <row r="350" spans="1:16" ht="15.75">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -7107,7 +7197,7 @@
       <c r="O350" s="3"/>
       <c r="P350" s="3"/>
     </row>
-    <row r="351" ht="15.75">
+    <row r="351" spans="1:16" ht="15.75">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -7125,7 +7215,7 @@
       <c r="O351" s="3"/>
       <c r="P351" s="3"/>
     </row>
-    <row r="352" ht="15.75">
+    <row r="352" spans="1:16" ht="15.75">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -7143,7 +7233,7 @@
       <c r="O352" s="3"/>
       <c r="P352" s="3"/>
     </row>
-    <row r="353" ht="15.75">
+    <row r="353" spans="1:16" ht="15.75">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -7161,7 +7251,7 @@
       <c r="O353" s="3"/>
       <c r="P353" s="3"/>
     </row>
-    <row r="354" ht="15.75">
+    <row r="354" spans="1:16" ht="15.75">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -7179,7 +7269,7 @@
       <c r="O354" s="3"/>
       <c r="P354" s="3"/>
     </row>
-    <row r="355" ht="15.75">
+    <row r="355" spans="1:16" ht="15.75">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -7197,7 +7287,7 @@
       <c r="O355" s="3"/>
       <c r="P355" s="3"/>
     </row>
-    <row r="356" ht="15.75">
+    <row r="356" spans="1:16" ht="15.75">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -7215,7 +7305,7 @@
       <c r="O356" s="3"/>
       <c r="P356" s="3"/>
     </row>
-    <row r="357" ht="15.75">
+    <row r="357" spans="1:16" ht="15.75">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -7233,7 +7323,7 @@
       <c r="O357" s="3"/>
       <c r="P357" s="3"/>
     </row>
-    <row r="358" ht="15.75">
+    <row r="358" spans="1:16" ht="15.75">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -7251,7 +7341,7 @@
       <c r="O358" s="3"/>
       <c r="P358" s="3"/>
     </row>
-    <row r="359" ht="15.75">
+    <row r="359" spans="1:16" ht="15.75">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -7269,7 +7359,7 @@
       <c r="O359" s="3"/>
       <c r="P359" s="3"/>
     </row>
-    <row r="360" ht="15.75">
+    <row r="360" spans="1:16" ht="15.75">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -7287,7 +7377,7 @@
       <c r="O360" s="3"/>
       <c r="P360" s="3"/>
     </row>
-    <row r="361" ht="15.75">
+    <row r="361" spans="1:16" ht="15.75">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -7305,7 +7395,7 @@
       <c r="O361" s="3"/>
       <c r="P361" s="3"/>
     </row>
-    <row r="362" ht="15.75">
+    <row r="362" spans="1:16" ht="15.75">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -7323,7 +7413,7 @@
       <c r="O362" s="3"/>
       <c r="P362" s="3"/>
     </row>
-    <row r="363" ht="15.75">
+    <row r="363" spans="1:16" ht="15.75">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -7341,7 +7431,7 @@
       <c r="O363" s="3"/>
       <c r="P363" s="3"/>
     </row>
-    <row r="364" ht="15.75">
+    <row r="364" spans="1:16" ht="15.75">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -7359,7 +7449,7 @@
       <c r="O364" s="3"/>
       <c r="P364" s="3"/>
     </row>
-    <row r="365" ht="15.75">
+    <row r="365" spans="1:16" ht="15.75">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -7377,7 +7467,7 @@
       <c r="O365" s="3"/>
       <c r="P365" s="3"/>
     </row>
-    <row r="366" ht="15.75">
+    <row r="366" spans="1:16" ht="15.75">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -7395,7 +7485,7 @@
       <c r="O366" s="3"/>
       <c r="P366" s="3"/>
     </row>
-    <row r="367" ht="15.75">
+    <row r="367" spans="1:16" ht="15.75">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -7413,7 +7503,7 @@
       <c r="O367" s="3"/>
       <c r="P367" s="3"/>
     </row>
-    <row r="368" ht="15.75">
+    <row r="368" spans="1:16" ht="15.75">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -7431,7 +7521,7 @@
       <c r="O368" s="3"/>
       <c r="P368" s="3"/>
     </row>
-    <row r="369" ht="15.75">
+    <row r="369" spans="1:16" ht="15.75">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -7449,7 +7539,7 @@
       <c r="O369" s="3"/>
       <c r="P369" s="3"/>
     </row>
-    <row r="370" ht="15.75">
+    <row r="370" spans="1:16" ht="15.75">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -7467,7 +7557,7 @@
       <c r="O370" s="3"/>
       <c r="P370" s="3"/>
     </row>
-    <row r="371" ht="15.75">
+    <row r="371" spans="1:16" ht="15.75">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -7485,7 +7575,7 @@
       <c r="O371" s="3"/>
       <c r="P371" s="3"/>
     </row>
-    <row r="372" ht="15.75">
+    <row r="372" spans="1:16" ht="15.75">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -7503,7 +7593,7 @@
       <c r="O372" s="3"/>
       <c r="P372" s="3"/>
     </row>
-    <row r="373" ht="15.75">
+    <row r="373" spans="1:16" ht="15.75">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -7521,7 +7611,7 @@
       <c r="O373" s="3"/>
       <c r="P373" s="3"/>
     </row>
-    <row r="374" ht="15.75">
+    <row r="374" spans="1:16" ht="15.75">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -7539,7 +7629,7 @@
       <c r="O374" s="3"/>
       <c r="P374" s="3"/>
     </row>
-    <row r="375" ht="15.75">
+    <row r="375" spans="1:16" ht="15.75">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -7557,7 +7647,7 @@
       <c r="O375" s="3"/>
       <c r="P375" s="3"/>
     </row>
-    <row r="376" ht="15.75">
+    <row r="376" spans="1:16" ht="15.75">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -7575,7 +7665,7 @@
       <c r="O376" s="3"/>
       <c r="P376" s="3"/>
     </row>
-    <row r="377" ht="15.75">
+    <row r="377" spans="1:16" ht="15.75">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -7593,7 +7683,7 @@
       <c r="O377" s="3"/>
       <c r="P377" s="3"/>
     </row>
-    <row r="378" ht="15.75">
+    <row r="378" spans="1:16" ht="15.75">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -7611,7 +7701,7 @@
       <c r="O378" s="3"/>
       <c r="P378" s="3"/>
     </row>
-    <row r="379" ht="15.75">
+    <row r="379" spans="1:16" ht="15.75">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -7629,7 +7719,7 @@
       <c r="O379" s="3"/>
       <c r="P379" s="3"/>
     </row>
-    <row r="380" ht="15.75">
+    <row r="380" spans="1:16" ht="15.75">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -7647,7 +7737,7 @@
       <c r="O380" s="3"/>
       <c r="P380" s="3"/>
     </row>
-    <row r="381" ht="15.75">
+    <row r="381" spans="1:16" ht="15.75">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -7665,7 +7755,7 @@
       <c r="O381" s="3"/>
       <c r="P381" s="3"/>
     </row>
-    <row r="382" ht="15.75">
+    <row r="382" spans="1:16" ht="15.75">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -7683,7 +7773,7 @@
       <c r="O382" s="3"/>
       <c r="P382" s="3"/>
     </row>
-    <row r="383" ht="15.75">
+    <row r="383" spans="1:16" ht="15.75">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -7701,7 +7791,7 @@
       <c r="O383" s="3"/>
       <c r="P383" s="3"/>
     </row>
-    <row r="384" ht="15.75">
+    <row r="384" spans="1:16" ht="15.75">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -7719,7 +7809,7 @@
       <c r="O384" s="3"/>
       <c r="P384" s="3"/>
     </row>
-    <row r="385" ht="15.75">
+    <row r="385" spans="1:16" ht="15.75">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -7737,7 +7827,7 @@
       <c r="O385" s="3"/>
       <c r="P385" s="3"/>
     </row>
-    <row r="386" ht="15.75">
+    <row r="386" spans="1:16" ht="15.75">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -7755,7 +7845,7 @@
       <c r="O386" s="3"/>
       <c r="P386" s="3"/>
     </row>
-    <row r="387" ht="15.75">
+    <row r="387" spans="1:16" ht="15.75">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -7773,7 +7863,7 @@
       <c r="O387" s="3"/>
       <c r="P387" s="3"/>
     </row>
-    <row r="388" ht="15.75">
+    <row r="388" spans="1:16" ht="15.75">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -7791,7 +7881,7 @@
       <c r="O388" s="3"/>
       <c r="P388" s="3"/>
     </row>
-    <row r="389" ht="15.75">
+    <row r="389" spans="1:16" ht="15.75">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -7809,7 +7899,7 @@
       <c r="O389" s="3"/>
       <c r="P389" s="3"/>
     </row>
-    <row r="390" ht="15.75">
+    <row r="390" spans="1:16" ht="15.75">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -7827,7 +7917,7 @@
       <c r="O390" s="3"/>
       <c r="P390" s="3"/>
     </row>
-    <row r="391" ht="15.75">
+    <row r="391" spans="1:16" ht="15.75">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -7845,7 +7935,7 @@
       <c r="O391" s="3"/>
       <c r="P391" s="3"/>
     </row>
-    <row r="392" ht="15.75">
+    <row r="392" spans="1:16" ht="15.75">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -7863,7 +7953,7 @@
       <c r="O392" s="3"/>
       <c r="P392" s="3"/>
     </row>
-    <row r="393" ht="15.75">
+    <row r="393" spans="1:16" ht="15.75">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -7881,7 +7971,7 @@
       <c r="O393" s="3"/>
       <c r="P393" s="3"/>
     </row>
-    <row r="394" ht="15.75">
+    <row r="394" spans="1:16" ht="15.75">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -7899,7 +7989,7 @@
       <c r="O394" s="3"/>
       <c r="P394" s="3"/>
     </row>
-    <row r="395" ht="15.75">
+    <row r="395" spans="1:16" ht="15.75">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -7917,7 +8007,7 @@
       <c r="O395" s="3"/>
       <c r="P395" s="3"/>
     </row>
-    <row r="396" ht="15.75">
+    <row r="396" spans="1:16" ht="15.75">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -7935,7 +8025,7 @@
       <c r="O396" s="3"/>
       <c r="P396" s="3"/>
     </row>
-    <row r="397" ht="15.75">
+    <row r="397" spans="1:16" ht="15.75">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -7953,7 +8043,7 @@
       <c r="O397" s="3"/>
       <c r="P397" s="3"/>
     </row>
-    <row r="398" ht="15.75">
+    <row r="398" spans="1:16" ht="15.75">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -7971,7 +8061,7 @@
       <c r="O398" s="3"/>
       <c r="P398" s="3"/>
     </row>
-    <row r="399" ht="15.75">
+    <row r="399" spans="1:16" ht="15.75">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -7989,7 +8079,7 @@
       <c r="O399" s="3"/>
       <c r="P399" s="3"/>
     </row>
-    <row r="400" ht="15.75">
+    <row r="400" spans="1:16" ht="15.75">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -8007,7 +8097,7 @@
       <c r="O400" s="3"/>
       <c r="P400" s="3"/>
     </row>
-    <row r="401" ht="15.75">
+    <row r="401" spans="1:16" ht="15.75">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -8025,7 +8115,7 @@
       <c r="O401" s="3"/>
       <c r="P401" s="3"/>
     </row>
-    <row r="402" ht="15.75">
+    <row r="402" spans="1:16" ht="15.75">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -8043,7 +8133,7 @@
       <c r="O402" s="3"/>
       <c r="P402" s="3"/>
     </row>
-    <row r="403" ht="15.75">
+    <row r="403" spans="1:16" ht="15.75">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -8061,7 +8151,7 @@
       <c r="O403" s="3"/>
       <c r="P403" s="3"/>
     </row>
-    <row r="404" ht="15.75">
+    <row r="404" spans="1:16" ht="15.75">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -8079,7 +8169,7 @@
       <c r="O404" s="3"/>
       <c r="P404" s="3"/>
     </row>
-    <row r="405" ht="15.75">
+    <row r="405" spans="1:16" ht="15.75">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -8097,7 +8187,7 @@
       <c r="O405" s="3"/>
       <c r="P405" s="3"/>
     </row>
-    <row r="406" ht="15.75">
+    <row r="406" spans="1:16" ht="15.75">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -8115,7 +8205,7 @@
       <c r="O406" s="3"/>
       <c r="P406" s="3"/>
     </row>
-    <row r="407" ht="15.75">
+    <row r="407" spans="1:16" ht="15.75">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -8133,7 +8223,7 @@
       <c r="O407" s="3"/>
       <c r="P407" s="3"/>
     </row>
-    <row r="408" ht="15.75">
+    <row r="408" spans="1:16" ht="15.75">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -8151,7 +8241,7 @@
       <c r="O408" s="3"/>
       <c r="P408" s="3"/>
     </row>
-    <row r="409" ht="15.75">
+    <row r="409" spans="1:16" ht="15.75">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -8169,7 +8259,7 @@
       <c r="O409" s="3"/>
       <c r="P409" s="3"/>
     </row>
-    <row r="410" ht="15.75">
+    <row r="410" spans="1:16" ht="15.75">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -8187,7 +8277,7 @@
       <c r="O410" s="3"/>
       <c r="P410" s="3"/>
     </row>
-    <row r="411" ht="15.75">
+    <row r="411" spans="1:16" ht="15.75">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -8205,7 +8295,7 @@
       <c r="O411" s="3"/>
       <c r="P411" s="3"/>
     </row>
-    <row r="412" ht="15.75">
+    <row r="412" spans="1:16" ht="15.75">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -8223,7 +8313,7 @@
       <c r="O412" s="3"/>
       <c r="P412" s="3"/>
     </row>
-    <row r="413" ht="15.75">
+    <row r="413" spans="1:16" ht="15.75">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -8241,7 +8331,7 @@
       <c r="O413" s="3"/>
       <c r="P413" s="3"/>
     </row>
-    <row r="414" ht="15.75">
+    <row r="414" spans="1:16" ht="15.75">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -8259,7 +8349,7 @@
       <c r="O414" s="3"/>
       <c r="P414" s="3"/>
     </row>
-    <row r="415" ht="15.75">
+    <row r="415" spans="1:16" ht="15.75">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -8277,7 +8367,7 @@
       <c r="O415" s="3"/>
       <c r="P415" s="3"/>
     </row>
-    <row r="416" ht="15.75">
+    <row r="416" spans="1:16" ht="15.75">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -8295,7 +8385,7 @@
       <c r="O416" s="3"/>
       <c r="P416" s="3"/>
     </row>
-    <row r="417" ht="15.75">
+    <row r="417" spans="1:16" ht="15.75">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -8313,7 +8403,7 @@
       <c r="O417" s="3"/>
       <c r="P417" s="3"/>
     </row>
-    <row r="418" ht="15.75">
+    <row r="418" spans="1:16" ht="15.75">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -8331,7 +8421,7 @@
       <c r="O418" s="3"/>
       <c r="P418" s="3"/>
     </row>
-    <row r="419" ht="15.75">
+    <row r="419" spans="1:16" ht="15.75">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -8349,7 +8439,7 @@
       <c r="O419" s="3"/>
       <c r="P419" s="3"/>
     </row>
-    <row r="420" ht="15.75">
+    <row r="420" spans="1:16" ht="15.75">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -8367,7 +8457,7 @@
       <c r="O420" s="3"/>
       <c r="P420" s="3"/>
     </row>
-    <row r="421" ht="15.75">
+    <row r="421" spans="1:16" ht="15.75">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -8385,7 +8475,7 @@
       <c r="O421" s="3"/>
       <c r="P421" s="3"/>
     </row>
-    <row r="422" ht="15.75">
+    <row r="422" spans="1:16" ht="15.75">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -8403,7 +8493,7 @@
       <c r="O422" s="3"/>
       <c r="P422" s="3"/>
     </row>
-    <row r="423" ht="15.75">
+    <row r="423" spans="1:16" ht="15.75">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -8421,7 +8511,7 @@
       <c r="O423" s="3"/>
       <c r="P423" s="3"/>
     </row>
-    <row r="424" ht="15.75">
+    <row r="424" spans="1:16" ht="15.75">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -8439,7 +8529,7 @@
       <c r="O424" s="3"/>
       <c r="P424" s="3"/>
     </row>
-    <row r="425" ht="15.75">
+    <row r="425" spans="1:16" ht="15.75">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -8457,7 +8547,7 @@
       <c r="O425" s="3"/>
       <c r="P425" s="3"/>
     </row>
-    <row r="426" ht="15.75">
+    <row r="426" spans="1:16" ht="15.75">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -8475,7 +8565,7 @@
       <c r="O426" s="3"/>
       <c r="P426" s="3"/>
     </row>
-    <row r="427" ht="15.75">
+    <row r="427" spans="1:16" ht="15.75">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -8493,7 +8583,7 @@
       <c r="O427" s="3"/>
       <c r="P427" s="3"/>
     </row>
-    <row r="428" ht="15.75">
+    <row r="428" spans="1:16" ht="15.75">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -8511,7 +8601,7 @@
       <c r="O428" s="3"/>
       <c r="P428" s="3"/>
     </row>
-    <row r="429" ht="15.75">
+    <row r="429" spans="1:16" ht="15.75">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -8529,7 +8619,7 @@
       <c r="O429" s="3"/>
       <c r="P429" s="3"/>
     </row>
-    <row r="430" ht="15.75">
+    <row r="430" spans="1:16" ht="15.75">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -8547,7 +8637,7 @@
       <c r="O430" s="3"/>
       <c r="P430" s="3"/>
     </row>
-    <row r="431" ht="15.75">
+    <row r="431" spans="1:16" ht="15.75">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -8565,7 +8655,7 @@
       <c r="O431" s="3"/>
       <c r="P431" s="3"/>
     </row>
-    <row r="432" ht="15.75">
+    <row r="432" spans="1:16" ht="15.75">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -8583,7 +8673,7 @@
       <c r="O432" s="3"/>
       <c r="P432" s="3"/>
     </row>
-    <row r="433" ht="15.75">
+    <row r="433" spans="1:16" ht="15.75">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -8601,7 +8691,7 @@
       <c r="O433" s="3"/>
       <c r="P433" s="3"/>
     </row>
-    <row r="434" ht="15.75">
+    <row r="434" spans="1:16" ht="15.75">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -8619,7 +8709,7 @@
       <c r="O434" s="3"/>
       <c r="P434" s="3"/>
     </row>
-    <row r="435" ht="15.75">
+    <row r="435" spans="1:16" ht="15.75">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -8637,7 +8727,7 @@
       <c r="O435" s="3"/>
       <c r="P435" s="3"/>
     </row>
-    <row r="436" ht="15.75">
+    <row r="436" spans="1:16" ht="15.75">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -8655,7 +8745,7 @@
       <c r="O436" s="3"/>
       <c r="P436" s="3"/>
     </row>
-    <row r="437" ht="15.75">
+    <row r="437" spans="1:16" ht="15.75">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -8673,7 +8763,7 @@
       <c r="O437" s="3"/>
       <c r="P437" s="3"/>
     </row>
-    <row r="438" ht="15.75">
+    <row r="438" spans="1:16" ht="15.75">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -8691,7 +8781,7 @@
       <c r="O438" s="3"/>
       <c r="P438" s="3"/>
     </row>
-    <row r="439" ht="15.75">
+    <row r="439" spans="1:16" ht="15.75">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -8709,7 +8799,7 @@
       <c r="O439" s="3"/>
       <c r="P439" s="3"/>
     </row>
-    <row r="440" ht="15.75">
+    <row r="440" spans="1:16" ht="15.75">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -8727,7 +8817,7 @@
       <c r="O440" s="3"/>
       <c r="P440" s="3"/>
     </row>
-    <row r="441" ht="15.75">
+    <row r="441" spans="1:16" ht="15.75">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -8745,7 +8835,7 @@
       <c r="O441" s="3"/>
       <c r="P441" s="3"/>
     </row>
-    <row r="442" ht="15.75">
+    <row r="442" spans="1:16" ht="15.75">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -8763,7 +8853,7 @@
       <c r="O442" s="3"/>
       <c r="P442" s="3"/>
     </row>
-    <row r="443" ht="15.75">
+    <row r="443" spans="1:16" ht="15.75">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -8781,7 +8871,7 @@
       <c r="O443" s="3"/>
       <c r="P443" s="3"/>
     </row>
-    <row r="444" ht="15.75">
+    <row r="444" spans="1:16" ht="15.75">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -8799,7 +8889,7 @@
       <c r="O444" s="3"/>
       <c r="P444" s="3"/>
     </row>
-    <row r="445" ht="15.75">
+    <row r="445" spans="1:16" ht="15.75">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -8817,7 +8907,7 @@
       <c r="O445" s="3"/>
       <c r="P445" s="3"/>
     </row>
-    <row r="446" ht="15.75">
+    <row r="446" spans="1:16" ht="15.75">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -8835,7 +8925,7 @@
       <c r="O446" s="3"/>
       <c r="P446" s="3"/>
     </row>
-    <row r="447" ht="15.75">
+    <row r="447" spans="1:16" ht="15.75">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -8853,7 +8943,7 @@
       <c r="O447" s="3"/>
       <c r="P447" s="3"/>
     </row>
-    <row r="448" ht="15.75">
+    <row r="448" spans="1:16" ht="15.75">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -8871,7 +8961,7 @@
       <c r="O448" s="3"/>
       <c r="P448" s="3"/>
     </row>
-    <row r="449" ht="15.75">
+    <row r="449" spans="1:16" ht="15.75">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -8889,7 +8979,7 @@
       <c r="O449" s="3"/>
       <c r="P449" s="3"/>
     </row>
-    <row r="450" ht="15.75">
+    <row r="450" spans="1:16" ht="15.75">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -8907,7 +8997,7 @@
       <c r="O450" s="3"/>
       <c r="P450" s="3"/>
     </row>
-    <row r="451" ht="15.75">
+    <row r="451" spans="1:16" ht="15.75">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -8925,7 +9015,7 @@
       <c r="O451" s="3"/>
       <c r="P451" s="3"/>
     </row>
-    <row r="452" ht="15.75">
+    <row r="452" spans="1:16" ht="15.75">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -8943,7 +9033,7 @@
       <c r="O452" s="3"/>
       <c r="P452" s="3"/>
     </row>
-    <row r="453" ht="15.75">
+    <row r="453" spans="1:16" ht="15.75">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -8961,7 +9051,7 @@
       <c r="O453" s="3"/>
       <c r="P453" s="3"/>
     </row>
-    <row r="454" ht="15.75">
+    <row r="454" spans="1:16" ht="15.75">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -8979,7 +9069,7 @@
       <c r="O454" s="3"/>
       <c r="P454" s="3"/>
     </row>
-    <row r="455" ht="15.75">
+    <row r="455" spans="1:16" ht="15.75">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -8997,7 +9087,7 @@
       <c r="O455" s="3"/>
       <c r="P455" s="3"/>
     </row>
-    <row r="456" ht="15.75">
+    <row r="456" spans="1:16" ht="15.75">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -9015,7 +9105,7 @@
       <c r="O456" s="3"/>
       <c r="P456" s="3"/>
     </row>
-    <row r="457" ht="15.75">
+    <row r="457" spans="1:16" ht="15.75">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -9033,7 +9123,7 @@
       <c r="O457" s="3"/>
       <c r="P457" s="3"/>
     </row>
-    <row r="458" ht="15.75">
+    <row r="458" spans="1:16" ht="15.75">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -9051,7 +9141,7 @@
       <c r="O458" s="3"/>
       <c r="P458" s="3"/>
     </row>
-    <row r="459" ht="15.75">
+    <row r="459" spans="1:16" ht="15.75">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -9069,7 +9159,7 @@
       <c r="O459" s="3"/>
       <c r="P459" s="3"/>
     </row>
-    <row r="460" ht="15.75">
+    <row r="460" spans="1:16" ht="15.75">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -9087,7 +9177,7 @@
       <c r="O460" s="3"/>
       <c r="P460" s="3"/>
     </row>
-    <row r="461" ht="15.75">
+    <row r="461" spans="1:16" ht="15.75">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -9105,7 +9195,7 @@
       <c r="O461" s="3"/>
       <c r="P461" s="3"/>
     </row>
-    <row r="462" ht="15.75">
+    <row r="462" spans="1:16" ht="15.75">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -9123,7 +9213,7 @@
       <c r="O462" s="3"/>
       <c r="P462" s="3"/>
     </row>
-    <row r="463" ht="15.75">
+    <row r="463" spans="1:16" ht="15.75">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -9141,7 +9231,7 @@
       <c r="O463" s="3"/>
       <c r="P463" s="3"/>
     </row>
-    <row r="464" ht="15.75">
+    <row r="464" spans="1:16" ht="15.75">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -9159,7 +9249,7 @@
       <c r="O464" s="3"/>
       <c r="P464" s="3"/>
     </row>
-    <row r="465" ht="15.75">
+    <row r="465" spans="1:16" ht="15.75">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -9177,7 +9267,7 @@
       <c r="O465" s="3"/>
       <c r="P465" s="3"/>
     </row>
-    <row r="466" ht="15.75">
+    <row r="466" spans="1:16" ht="15.75">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -9195,7 +9285,7 @@
       <c r="O466" s="3"/>
       <c r="P466" s="3"/>
     </row>
-    <row r="467" ht="15.75">
+    <row r="467" spans="1:16" ht="15.75">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -9213,7 +9303,7 @@
       <c r="O467" s="3"/>
       <c r="P467" s="3"/>
     </row>
-    <row r="468" ht="15.75">
+    <row r="468" spans="1:16" ht="15.75">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -9231,7 +9321,7 @@
       <c r="O468" s="3"/>
       <c r="P468" s="3"/>
     </row>
-    <row r="469" ht="15.75">
+    <row r="469" spans="1:16" ht="15.75">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -9249,7 +9339,7 @@
       <c r="O469" s="3"/>
       <c r="P469" s="3"/>
     </row>
-    <row r="470" ht="15.75">
+    <row r="470" spans="1:16" ht="15.75">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -9267,7 +9357,7 @@
       <c r="O470" s="3"/>
       <c r="P470" s="3"/>
     </row>
-    <row r="471" ht="15.75">
+    <row r="471" spans="1:16" ht="15.75">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -9285,7 +9375,7 @@
       <c r="O471" s="3"/>
       <c r="P471" s="3"/>
     </row>
-    <row r="472" ht="15.75">
+    <row r="472" spans="1:16" ht="15.75">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -9303,7 +9393,7 @@
       <c r="O472" s="3"/>
       <c r="P472" s="3"/>
     </row>
-    <row r="473" ht="15.75">
+    <row r="473" spans="1:16" ht="15.75">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -9321,7 +9411,7 @@
       <c r="O473" s="3"/>
       <c r="P473" s="3"/>
     </row>
-    <row r="474" ht="15.75">
+    <row r="474" spans="1:16" ht="15.75">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -9339,7 +9429,7 @@
       <c r="O474" s="3"/>
       <c r="P474" s="3"/>
     </row>
-    <row r="475" ht="15.75">
+    <row r="475" spans="1:16" ht="15.75">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -9357,7 +9447,7 @@
       <c r="O475" s="3"/>
       <c r="P475" s="3"/>
     </row>
-    <row r="476" ht="15.75">
+    <row r="476" spans="1:16" ht="15.75">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -9375,7 +9465,7 @@
       <c r="O476" s="3"/>
       <c r="P476" s="3"/>
     </row>
-    <row r="477" ht="15.75">
+    <row r="477" spans="1:16" ht="15.75">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -9393,7 +9483,7 @@
       <c r="O477" s="3"/>
       <c r="P477" s="3"/>
     </row>
-    <row r="478" ht="15.75">
+    <row r="478" spans="1:16" ht="15.75">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -9411,7 +9501,7 @@
       <c r="O478" s="3"/>
       <c r="P478" s="3"/>
     </row>
-    <row r="479" ht="15.75">
+    <row r="479" spans="1:16" ht="15.75">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -9429,7 +9519,7 @@
       <c r="O479" s="3"/>
       <c r="P479" s="3"/>
     </row>
-    <row r="480" ht="15.75">
+    <row r="480" spans="1:16" ht="15.75">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -9447,7 +9537,7 @@
       <c r="O480" s="3"/>
       <c r="P480" s="3"/>
     </row>
-    <row r="481" ht="15.75">
+    <row r="481" spans="1:16" ht="15.75">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -9465,7 +9555,7 @@
       <c r="O481" s="3"/>
       <c r="P481" s="3"/>
     </row>
-    <row r="482" ht="15.75">
+    <row r="482" spans="1:16" ht="15.75">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -9483,7 +9573,7 @@
       <c r="O482" s="3"/>
       <c r="P482" s="3"/>
     </row>
-    <row r="483" ht="15.75">
+    <row r="483" spans="1:16" ht="15.75">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -9501,7 +9591,7 @@
       <c r="O483" s="3"/>
       <c r="P483" s="3"/>
     </row>
-    <row r="484" ht="15.75">
+    <row r="484" spans="1:16" ht="15.75">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -9519,7 +9609,7 @@
       <c r="O484" s="3"/>
       <c r="P484" s="3"/>
     </row>
-    <row r="485" ht="15.75">
+    <row r="485" spans="1:16" ht="15.75">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -9537,7 +9627,7 @@
       <c r="O485" s="3"/>
       <c r="P485" s="3"/>
     </row>
-    <row r="486" ht="15.75">
+    <row r="486" spans="1:16" ht="15.75">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -9555,7 +9645,7 @@
       <c r="O486" s="3"/>
       <c r="P486" s="3"/>
     </row>
-    <row r="487" ht="15.75">
+    <row r="487" spans="1:16" ht="15.75">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -9573,7 +9663,7 @@
       <c r="O487" s="3"/>
       <c r="P487" s="3"/>
     </row>
-    <row r="488" ht="15.75">
+    <row r="488" spans="1:16" ht="15.75">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -9591,7 +9681,7 @@
       <c r="O488" s="3"/>
       <c r="P488" s="3"/>
     </row>
-    <row r="489" ht="15.75">
+    <row r="489" spans="1:16" ht="15.75">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -9609,7 +9699,7 @@
       <c r="O489" s="3"/>
       <c r="P489" s="3"/>
     </row>
-    <row r="490" ht="15.75">
+    <row r="490" spans="1:16" ht="15.75">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -9627,7 +9717,7 @@
       <c r="O490" s="3"/>
       <c r="P490" s="3"/>
     </row>
-    <row r="491" ht="15.75">
+    <row r="491" spans="1:16" ht="15.75">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -9645,7 +9735,7 @@
       <c r="O491" s="3"/>
       <c r="P491" s="3"/>
     </row>
-    <row r="492" ht="15.75">
+    <row r="492" spans="1:16" ht="15.75">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -9663,7 +9753,7 @@
       <c r="O492" s="3"/>
       <c r="P492" s="3"/>
     </row>
-    <row r="493" ht="15.75">
+    <row r="493" spans="1:16" ht="15.75">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -9681,7 +9771,7 @@
       <c r="O493" s="3"/>
       <c r="P493" s="3"/>
     </row>
-    <row r="494" ht="15.75">
+    <row r="494" spans="1:16" ht="15.75">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -9699,7 +9789,7 @@
       <c r="O494" s="3"/>
       <c r="P494" s="3"/>
     </row>
-    <row r="495" ht="15.75">
+    <row r="495" spans="1:16" ht="15.75">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -9717,7 +9807,7 @@
       <c r="O495" s="3"/>
       <c r="P495" s="3"/>
     </row>
-    <row r="496" ht="15.75">
+    <row r="496" spans="1:16" ht="15.75">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -9735,7 +9825,7 @@
       <c r="O496" s="3"/>
       <c r="P496" s="3"/>
     </row>
-    <row r="497" ht="15.75">
+    <row r="497" spans="1:16" ht="15.75">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -9753,7 +9843,7 @@
       <c r="O497" s="3"/>
       <c r="P497" s="3"/>
     </row>
-    <row r="498" ht="15.75">
+    <row r="498" spans="1:16" ht="15.75">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -9771,7 +9861,7 @@
       <c r="O498" s="3"/>
       <c r="P498" s="3"/>
     </row>
-    <row r="499" ht="15.75">
+    <row r="499" spans="1:16" ht="15.75">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -9789,7 +9879,7 @@
       <c r="O499" s="3"/>
       <c r="P499" s="3"/>
     </row>
-    <row r="500" ht="15.75">
+    <row r="500" spans="1:16" ht="15.75">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -9807,7 +9897,7 @@
       <c r="O500" s="3"/>
       <c r="P500" s="3"/>
     </row>
-    <row r="501" ht="15.75">
+    <row r="501" spans="1:16" ht="15.75">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -9825,7 +9915,7 @@
       <c r="O501" s="3"/>
       <c r="P501" s="3"/>
     </row>
-    <row r="502" ht="15.75">
+    <row r="502" spans="1:16" ht="15.75">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -9843,7 +9933,7 @@
       <c r="O502" s="3"/>
       <c r="P502" s="3"/>
     </row>
-    <row r="503" ht="15.75">
+    <row r="503" spans="1:16" ht="15.75">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -9861,7 +9951,7 @@
       <c r="O503" s="3"/>
       <c r="P503" s="3"/>
     </row>
-    <row r="504" ht="15.75">
+    <row r="504" spans="1:16" ht="15.75">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -9879,7 +9969,7 @@
       <c r="O504" s="3"/>
       <c r="P504" s="3"/>
     </row>
-    <row r="505" ht="15.75">
+    <row r="505" spans="1:16" ht="15.75">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -9897,7 +9987,7 @@
       <c r="O505" s="3"/>
       <c r="P505" s="3"/>
     </row>
-    <row r="506" ht="15.75">
+    <row r="506" spans="1:16" ht="15.75">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -9915,7 +10005,7 @@
       <c r="O506" s="3"/>
       <c r="P506" s="3"/>
     </row>
-    <row r="507" ht="15.75">
+    <row r="507" spans="1:16" ht="15.75">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -9933,7 +10023,7 @@
       <c r="O507" s="3"/>
       <c r="P507" s="3"/>
     </row>
-    <row r="508" ht="15.75">
+    <row r="508" spans="1:16" ht="15.75">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -9951,7 +10041,7 @@
       <c r="O508" s="3"/>
       <c r="P508" s="3"/>
     </row>
-    <row r="509" ht="15.75">
+    <row r="509" spans="1:16" ht="15.75">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -9969,7 +10059,7 @@
       <c r="O509" s="3"/>
       <c r="P509" s="3"/>
     </row>
-    <row r="510" ht="15.75">
+    <row r="510" spans="1:16" ht="15.75">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -9987,7 +10077,7 @@
       <c r="O510" s="3"/>
       <c r="P510" s="3"/>
     </row>
-    <row r="511" ht="15.75">
+    <row r="511" spans="1:16" ht="15.75">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -10005,7 +10095,7 @@
       <c r="O511" s="3"/>
       <c r="P511" s="3"/>
     </row>
-    <row r="512" ht="15.75">
+    <row r="512" spans="1:16" ht="15.75">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -10023,7 +10113,7 @@
       <c r="O512" s="3"/>
       <c r="P512" s="3"/>
     </row>
-    <row r="513" ht="15.75">
+    <row r="513" spans="1:16" ht="15.75">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -10041,7 +10131,7 @@
       <c r="O513" s="3"/>
       <c r="P513" s="3"/>
     </row>
-    <row r="514" ht="15.75">
+    <row r="514" spans="1:16" ht="15.75">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -10059,7 +10149,7 @@
       <c r="O514" s="3"/>
       <c r="P514" s="3"/>
     </row>
-    <row r="515" ht="15.75">
+    <row r="515" spans="1:16" ht="15.75">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -10077,7 +10167,7 @@
       <c r="O515" s="3"/>
       <c r="P515" s="3"/>
     </row>
-    <row r="516" ht="15.75">
+    <row r="516" spans="1:16" ht="15.75">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -10095,7 +10185,7 @@
       <c r="O516" s="3"/>
       <c r="P516" s="3"/>
     </row>
-    <row r="517" ht="15.75">
+    <row r="517" spans="1:16" ht="15.75">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -10113,7 +10203,7 @@
       <c r="O517" s="3"/>
       <c r="P517" s="3"/>
     </row>
-    <row r="518" ht="15.75">
+    <row r="518" spans="1:16" ht="15.75">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -10131,7 +10221,7 @@
       <c r="O518" s="3"/>
       <c r="P518" s="3"/>
     </row>
-    <row r="519" ht="15.75">
+    <row r="519" spans="1:16" ht="15.75">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -10149,7 +10239,7 @@
       <c r="O519" s="3"/>
       <c r="P519" s="3"/>
     </row>
-    <row r="520" ht="15.75">
+    <row r="520" spans="1:16" ht="15.75">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -10167,7 +10257,7 @@
       <c r="O520" s="3"/>
       <c r="P520" s="3"/>
     </row>
-    <row r="521" ht="15.75">
+    <row r="521" spans="1:16" ht="15.75">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -10185,7 +10275,7 @@
       <c r="O521" s="3"/>
       <c r="P521" s="3"/>
     </row>
-    <row r="522" ht="15.75">
+    <row r="522" spans="1:16" ht="15.75">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -10203,7 +10293,7 @@
       <c r="O522" s="3"/>
       <c r="P522" s="3"/>
     </row>
-    <row r="523" ht="15.75">
+    <row r="523" spans="1:16" ht="15.75">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -10221,7 +10311,7 @@
       <c r="O523" s="3"/>
       <c r="P523" s="3"/>
     </row>
-    <row r="524" ht="15.75">
+    <row r="524" spans="1:16" ht="15.75">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -10239,7 +10329,7 @@
       <c r="O524" s="3"/>
       <c r="P524" s="3"/>
     </row>
-    <row r="525" ht="15.75">
+    <row r="525" spans="1:16" ht="15.75">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -10257,7 +10347,7 @@
       <c r="O525" s="3"/>
       <c r="P525" s="3"/>
     </row>
-    <row r="526" ht="15.75">
+    <row r="526" spans="1:16" ht="15.75">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -10275,7 +10365,7 @@
       <c r="O526" s="3"/>
       <c r="P526" s="3"/>
     </row>
-    <row r="527" ht="15.75">
+    <row r="527" spans="1:16" ht="15.75">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -10293,7 +10383,7 @@
       <c r="O527" s="3"/>
       <c r="P527" s="3"/>
     </row>
-    <row r="528" ht="15.75">
+    <row r="528" spans="1:16" ht="15.75">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -10311,7 +10401,7 @@
       <c r="O528" s="3"/>
       <c r="P528" s="3"/>
     </row>
-    <row r="529" ht="15.75">
+    <row r="529" spans="1:16" ht="15.75">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -10329,7 +10419,7 @@
       <c r="O529" s="3"/>
       <c r="P529" s="3"/>
     </row>
-    <row r="530" ht="15.75">
+    <row r="530" spans="1:16" ht="15.75">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -10347,7 +10437,7 @@
       <c r="O530" s="3"/>
       <c r="P530" s="3"/>
     </row>
-    <row r="531" ht="15.75">
+    <row r="531" spans="1:16" ht="15.75">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -10365,7 +10455,7 @@
       <c r="O531" s="3"/>
       <c r="P531" s="3"/>
     </row>
-    <row r="532" ht="15.75">
+    <row r="532" spans="1:16" ht="15.75">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -10383,7 +10473,7 @@
       <c r="O532" s="3"/>
       <c r="P532" s="3"/>
     </row>
-    <row r="533" ht="15.75">
+    <row r="533" spans="1:16" ht="15.75">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -10401,7 +10491,7 @@
       <c r="O533" s="3"/>
       <c r="P533" s="3"/>
     </row>
-    <row r="534" ht="15.75">
+    <row r="534" spans="1:16" ht="15.75">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -10419,7 +10509,7 @@
       <c r="O534" s="3"/>
       <c r="P534" s="3"/>
     </row>
-    <row r="535" ht="15.75">
+    <row r="535" spans="1:16" ht="15.75">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -10437,7 +10527,7 @@
       <c r="O535" s="3"/>
       <c r="P535" s="3"/>
     </row>
-    <row r="536" ht="15.75">
+    <row r="536" spans="1:16" ht="15.75">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -10455,7 +10545,7 @@
       <c r="O536" s="3"/>
       <c r="P536" s="3"/>
     </row>
-    <row r="537" ht="15.75">
+    <row r="537" spans="1:16" ht="15.75">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -10473,7 +10563,7 @@
       <c r="O537" s="3"/>
       <c r="P537" s="3"/>
     </row>
-    <row r="538" ht="15.75">
+    <row r="538" spans="1:16" ht="15.75">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -10491,7 +10581,7 @@
       <c r="O538" s="3"/>
       <c r="P538" s="3"/>
     </row>
-    <row r="539" ht="15.75">
+    <row r="539" spans="1:16" ht="15.75">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -10509,7 +10599,7 @@
       <c r="O539" s="3"/>
       <c r="P539" s="3"/>
     </row>
-    <row r="540" ht="15.75">
+    <row r="540" spans="1:16" ht="15.75">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -10527,7 +10617,7 @@
       <c r="O540" s="3"/>
       <c r="P540" s="3"/>
     </row>
-    <row r="541" ht="15.75">
+    <row r="541" spans="1:16" ht="15.75">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -10545,7 +10635,7 @@
       <c r="O541" s="3"/>
       <c r="P541" s="3"/>
     </row>
-    <row r="542" ht="15.75">
+    <row r="542" spans="1:16" ht="15.75">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -10563,7 +10653,7 @@
       <c r="O542" s="3"/>
       <c r="P542" s="3"/>
     </row>
-    <row r="543" ht="15.75">
+    <row r="543" spans="1:16" ht="15.75">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -10581,7 +10671,7 @@
       <c r="O543" s="3"/>
       <c r="P543" s="3"/>
     </row>
-    <row r="544" ht="15.75">
+    <row r="544" spans="1:16" ht="15.75">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -10599,7 +10689,7 @@
       <c r="O544" s="3"/>
       <c r="P544" s="3"/>
     </row>
-    <row r="545" ht="15.75">
+    <row r="545" spans="1:16" ht="15.75">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -10617,7 +10707,7 @@
       <c r="O545" s="3"/>
       <c r="P545" s="3"/>
     </row>
-    <row r="546" ht="15.75">
+    <row r="546" spans="1:16" ht="15.75">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -10635,7 +10725,7 @@
       <c r="O546" s="3"/>
       <c r="P546" s="3"/>
     </row>
-    <row r="547" ht="15.75">
+    <row r="547" spans="1:16" ht="15.75">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -10653,7 +10743,7 @@
       <c r="O547" s="3"/>
       <c r="P547" s="3"/>
     </row>
-    <row r="548" ht="15.75">
+    <row r="548" spans="1:16" ht="15.75">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -10671,7 +10761,7 @@
       <c r="O548" s="3"/>
       <c r="P548" s="3"/>
     </row>
-    <row r="549" ht="15.75">
+    <row r="549" spans="1:16" ht="15.75">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -10689,7 +10779,7 @@
       <c r="O549" s="3"/>
       <c r="P549" s="3"/>
     </row>
-    <row r="550" ht="15.75">
+    <row r="550" spans="1:16" ht="15.75">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -10707,7 +10797,7 @@
       <c r="O550" s="3"/>
       <c r="P550" s="3"/>
     </row>
-    <row r="551" ht="15.75">
+    <row r="551" spans="1:16" ht="15.75">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -10725,7 +10815,7 @@
       <c r="O551" s="3"/>
       <c r="P551" s="3"/>
     </row>
-    <row r="552" ht="15.75">
+    <row r="552" spans="1:16" ht="15.75">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -10743,7 +10833,7 @@
       <c r="O552" s="3"/>
       <c r="P552" s="3"/>
     </row>
-    <row r="553" ht="15.75">
+    <row r="553" spans="1:16" ht="15.75">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -10761,7 +10851,7 @@
       <c r="O553" s="3"/>
       <c r="P553" s="3"/>
     </row>
-    <row r="554" ht="15.75">
+    <row r="554" spans="1:16" ht="15.75">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -10779,7 +10869,7 @@
       <c r="O554" s="3"/>
       <c r="P554" s="3"/>
     </row>
-    <row r="555" ht="15.75">
+    <row r="555" spans="1:16" ht="15.75">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -10797,7 +10887,7 @@
       <c r="O555" s="3"/>
       <c r="P555" s="3"/>
     </row>
-    <row r="556" ht="15.75">
+    <row r="556" spans="1:16" ht="15.75">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -10815,7 +10905,7 @@
       <c r="O556" s="3"/>
       <c r="P556" s="3"/>
     </row>
-    <row r="557" ht="15.75">
+    <row r="557" spans="1:16" ht="15.75">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -10833,7 +10923,7 @@
       <c r="O557" s="3"/>
       <c r="P557" s="3"/>
     </row>
-    <row r="558" ht="15.75">
+    <row r="558" spans="1:16" ht="15.75">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -10851,7 +10941,7 @@
       <c r="O558" s="3"/>
       <c r="P558" s="3"/>
     </row>
-    <row r="559" ht="15.75">
+    <row r="559" spans="1:16" ht="15.75">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -10869,7 +10959,7 @@
       <c r="O559" s="3"/>
       <c r="P559" s="3"/>
     </row>
-    <row r="560" ht="15.75">
+    <row r="560" spans="1:16" ht="15.75">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -10887,7 +10977,7 @@
       <c r="O560" s="3"/>
       <c r="P560" s="3"/>
     </row>
-    <row r="561" ht="15.75">
+    <row r="561" spans="1:16" ht="15.75">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -10905,7 +10995,7 @@
       <c r="O561" s="3"/>
       <c r="P561" s="3"/>
     </row>
-    <row r="562" ht="15.75">
+    <row r="562" spans="1:16" ht="15.75">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -10923,7 +11013,7 @@
       <c r="O562" s="3"/>
       <c r="P562" s="3"/>
     </row>
-    <row r="563" ht="15.75">
+    <row r="563" spans="1:16" ht="15.75">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -10941,7 +11031,7 @@
       <c r="O563" s="3"/>
       <c r="P563" s="3"/>
     </row>
-    <row r="564" ht="15.75">
+    <row r="564" spans="1:16" ht="15.75">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -10959,7 +11049,7 @@
       <c r="O564" s="3"/>
       <c r="P564" s="3"/>
     </row>
-    <row r="565" ht="15.75">
+    <row r="565" spans="1:16" ht="15.75">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -10977,7 +11067,7 @@
       <c r="O565" s="3"/>
       <c r="P565" s="3"/>
     </row>
-    <row r="566" ht="15.75">
+    <row r="566" spans="1:16" ht="15.75">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -10995,7 +11085,7 @@
       <c r="O566" s="3"/>
       <c r="P566" s="3"/>
     </row>
-    <row r="567" ht="15.75">
+    <row r="567" spans="1:16" ht="15.75">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -11013,7 +11103,7 @@
       <c r="O567" s="3"/>
       <c r="P567" s="3"/>
     </row>
-    <row r="568" ht="15.75">
+    <row r="568" spans="1:16" ht="15.75">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -11031,7 +11121,7 @@
       <c r="O568" s="3"/>
       <c r="P568" s="3"/>
     </row>
-    <row r="569" ht="15.75">
+    <row r="569" spans="1:16" ht="15.75">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -11049,7 +11139,7 @@
       <c r="O569" s="3"/>
       <c r="P569" s="3"/>
     </row>
-    <row r="570" ht="15.75">
+    <row r="570" spans="1:16" ht="15.75">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -11067,7 +11157,7 @@
       <c r="O570" s="3"/>
       <c r="P570" s="3"/>
     </row>
-    <row r="571" ht="15.75">
+    <row r="571" spans="1:16" ht="15.75">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -11085,7 +11175,7 @@
       <c r="O571" s="3"/>
       <c r="P571" s="3"/>
     </row>
-    <row r="572" ht="15.75">
+    <row r="572" spans="1:16" ht="15.75">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -11103,7 +11193,7 @@
       <c r="O572" s="3"/>
       <c r="P572" s="3"/>
     </row>
-    <row r="573" ht="15.75">
+    <row r="573" spans="1:16" ht="15.75">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -11121,7 +11211,7 @@
       <c r="O573" s="3"/>
       <c r="P573" s="3"/>
     </row>
-    <row r="574" ht="15.75">
+    <row r="574" spans="1:16" ht="15.75">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -11139,7 +11229,7 @@
       <c r="O574" s="3"/>
       <c r="P574" s="3"/>
     </row>
-    <row r="575" ht="15.75">
+    <row r="575" spans="1:16" ht="15.75">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -11157,7 +11247,7 @@
       <c r="O575" s="3"/>
       <c r="P575" s="3"/>
     </row>
-    <row r="576" ht="15.75">
+    <row r="576" spans="1:16" ht="15.75">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -11175,7 +11265,7 @@
       <c r="O576" s="3"/>
       <c r="P576" s="3"/>
     </row>
-    <row r="577" ht="15.75">
+    <row r="577" spans="1:16" ht="15.75">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -11193,7 +11283,7 @@
       <c r="O577" s="3"/>
       <c r="P577" s="3"/>
     </row>
-    <row r="578" ht="15.75">
+    <row r="578" spans="1:16" ht="15.75">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -11211,7 +11301,7 @@
       <c r="O578" s="3"/>
       <c r="P578" s="3"/>
     </row>
-    <row r="579" ht="15.75">
+    <row r="579" spans="1:16" ht="15.75">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -11229,7 +11319,7 @@
       <c r="O579" s="3"/>
       <c r="P579" s="3"/>
     </row>
-    <row r="580" ht="15.75">
+    <row r="580" spans="1:16" ht="15.75">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -11247,7 +11337,7 @@
       <c r="O580" s="3"/>
       <c r="P580" s="3"/>
     </row>
-    <row r="581" ht="15.75">
+    <row r="581" spans="1:16" ht="15.75">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -11265,7 +11355,7 @@
       <c r="O581" s="3"/>
       <c r="P581" s="3"/>
     </row>
-    <row r="582" ht="15.75">
+    <row r="582" spans="1:16" ht="15.75">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -11283,7 +11373,7 @@
       <c r="O582" s="3"/>
       <c r="P582" s="3"/>
     </row>
-    <row r="583" ht="15.75">
+    <row r="583" spans="1:16" ht="15.75">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -11301,7 +11391,7 @@
       <c r="O583" s="3"/>
       <c r="P583" s="3"/>
     </row>
-    <row r="584" ht="15.75">
+    <row r="584" spans="1:16" ht="15.75">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -11319,7 +11409,7 @@
       <c r="O584" s="3"/>
       <c r="P584" s="3"/>
     </row>
-    <row r="585" ht="15.75">
+    <row r="585" spans="1:16" ht="15.75">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -11337,7 +11427,7 @@
       <c r="O585" s="3"/>
       <c r="P585" s="3"/>
     </row>
-    <row r="586" ht="15.75">
+    <row r="586" spans="1:16" ht="15.75">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -11355,7 +11445,7 @@
       <c r="O586" s="3"/>
       <c r="P586" s="3"/>
     </row>
-    <row r="587" ht="15.75">
+    <row r="587" spans="1:16" ht="15.75">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -11373,7 +11463,7 @@
       <c r="O587" s="3"/>
       <c r="P587" s="3"/>
     </row>
-    <row r="588" ht="15.75">
+    <row r="588" spans="1:16" ht="15.75">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -11391,7 +11481,7 @@
       <c r="O588" s="3"/>
       <c r="P588" s="3"/>
     </row>
-    <row r="589" ht="15.75">
+    <row r="589" spans="1:16" ht="15.75">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -11409,7 +11499,7 @@
       <c r="O589" s="3"/>
       <c r="P589" s="3"/>
     </row>
-    <row r="590" ht="15.75">
+    <row r="590" spans="1:16" ht="15.75">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -11427,7 +11517,7 @@
       <c r="O590" s="3"/>
       <c r="P590" s="3"/>
     </row>
-    <row r="591" ht="15.75">
+    <row r="591" spans="1:16" ht="15.75">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -11445,7 +11535,7 @@
       <c r="O591" s="3"/>
       <c r="P591" s="3"/>
     </row>
-    <row r="592" ht="15.75">
+    <row r="592" spans="1:16" ht="15.75">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -11463,7 +11553,7 @@
       <c r="O592" s="3"/>
       <c r="P592" s="3"/>
     </row>
-    <row r="593" ht="15.75">
+    <row r="593" spans="1:16" ht="15.75">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -11481,7 +11571,7 @@
       <c r="O593" s="3"/>
       <c r="P593" s="3"/>
     </row>
-    <row r="594" ht="15.75">
+    <row r="594" spans="1:16" ht="15.75">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -11499,7 +11589,7 @@
       <c r="O594" s="3"/>
       <c r="P594" s="3"/>
     </row>
-    <row r="595" ht="15.75">
+    <row r="595" spans="1:16" ht="15.75">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -11517,7 +11607,7 @@
       <c r="O595" s="3"/>
       <c r="P595" s="3"/>
     </row>
-    <row r="596" ht="15.75">
+    <row r="596" spans="1:16" ht="15.75">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -11535,7 +11625,7 @@
       <c r="O596" s="3"/>
       <c r="P596" s="3"/>
     </row>
-    <row r="597" ht="15.75">
+    <row r="597" spans="1:16" ht="15.75">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -11553,7 +11643,7 @@
       <c r="O597" s="3"/>
       <c r="P597" s="3"/>
     </row>
-    <row r="598" ht="15.75">
+    <row r="598" spans="1:16" ht="15.75">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -11571,7 +11661,7 @@
       <c r="O598" s="3"/>
       <c r="P598" s="3"/>
     </row>
-    <row r="599" ht="15.75">
+    <row r="599" spans="1:16" ht="15.75">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -11589,7 +11679,7 @@
       <c r="O599" s="3"/>
       <c r="P599" s="3"/>
     </row>
-    <row r="600" ht="15.75">
+    <row r="600" spans="1:16" ht="15.75">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -11607,7 +11697,7 @@
       <c r="O600" s="3"/>
       <c r="P600" s="3"/>
     </row>
-    <row r="601" ht="15.75">
+    <row r="601" spans="1:16" ht="15.75">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -11625,7 +11715,7 @@
       <c r="O601" s="3"/>
       <c r="P601" s="3"/>
     </row>
-    <row r="602" ht="15.75">
+    <row r="602" spans="1:16" ht="15.75">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -11643,7 +11733,7 @@
       <c r="O602" s="3"/>
       <c r="P602" s="3"/>
     </row>
-    <row r="603" ht="15.75">
+    <row r="603" spans="1:16" ht="15.75">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -11661,7 +11751,7 @@
       <c r="O603" s="3"/>
       <c r="P603" s="3"/>
     </row>
-    <row r="604" ht="15.75">
+    <row r="604" spans="1:16" ht="15.75">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -11679,7 +11769,7 @@
       <c r="O604" s="3"/>
       <c r="P604" s="3"/>
     </row>
-    <row r="605" ht="15.75">
+    <row r="605" spans="1:16" ht="15.75">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -11697,7 +11787,7 @@
       <c r="O605" s="3"/>
       <c r="P605" s="3"/>
     </row>
-    <row r="606" ht="15.75">
+    <row r="606" spans="1:16" ht="15.75">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -11715,7 +11805,7 @@
       <c r="O606" s="3"/>
       <c r="P606" s="3"/>
     </row>
-    <row r="607" ht="15.75">
+    <row r="607" spans="1:16" ht="15.75">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -11733,7 +11823,7 @@
       <c r="O607" s="3"/>
       <c r="P607" s="3"/>
     </row>
-    <row r="608" ht="15.75">
+    <row r="608" spans="1:16" ht="15.75">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -11751,7 +11841,7 @@
       <c r="O608" s="3"/>
       <c r="P608" s="3"/>
     </row>
-    <row r="609" ht="15.75">
+    <row r="609" spans="1:16" ht="15.75">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -11769,7 +11859,7 @@
       <c r="O609" s="3"/>
       <c r="P609" s="3"/>
     </row>
-    <row r="610" ht="15.75">
+    <row r="610" spans="1:16" ht="15.75">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -11787,7 +11877,7 @@
       <c r="O610" s="3"/>
       <c r="P610" s="3"/>
     </row>
-    <row r="611" ht="15.75">
+    <row r="611" spans="1:16" ht="15.75">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -11805,7 +11895,7 @@
       <c r="O611" s="3"/>
       <c r="P611" s="3"/>
     </row>
-    <row r="612" ht="15.75">
+    <row r="612" spans="1:16" ht="15.75">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -11823,7 +11913,7 @@
       <c r="O612" s="3"/>
       <c r="P612" s="3"/>
     </row>
-    <row r="613" ht="15.75">
+    <row r="613" spans="1:16" ht="15.75">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -11841,7 +11931,7 @@
       <c r="O613" s="3"/>
       <c r="P613" s="3"/>
     </row>
-    <row r="614" ht="15.75">
+    <row r="614" spans="1:16" ht="15.75">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -11859,7 +11949,7 @@
       <c r="O614" s="3"/>
       <c r="P614" s="3"/>
     </row>
-    <row r="615" ht="15.75">
+    <row r="615" spans="1:16" ht="15.75">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -11877,7 +11967,7 @@
       <c r="O615" s="3"/>
       <c r="P615" s="3"/>
     </row>
-    <row r="616" ht="15.75">
+    <row r="616" spans="1:16" ht="15.75">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -11895,7 +11985,7 @@
       <c r="O616" s="3"/>
       <c r="P616" s="3"/>
     </row>
-    <row r="617" ht="15.75">
+    <row r="617" spans="1:16" ht="15.75">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -11913,7 +12003,7 @@
       <c r="O617" s="3"/>
       <c r="P617" s="3"/>
     </row>
-    <row r="618" ht="15.75">
+    <row r="618" spans="1:16" ht="15.75">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -11931,7 +12021,7 @@
       <c r="O618" s="3"/>
       <c r="P618" s="3"/>
     </row>
-    <row r="619" ht="15.75">
+    <row r="619" spans="1:16" ht="15.75">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -11949,7 +12039,7 @@
       <c r="O619" s="3"/>
       <c r="P619" s="3"/>
     </row>
-    <row r="620" ht="15.75">
+    <row r="620" spans="1:16" ht="15.75">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -11967,7 +12057,7 @@
       <c r="O620" s="3"/>
       <c r="P620" s="3"/>
     </row>
-    <row r="621" ht="15.75">
+    <row r="621" spans="1:16" ht="15.75">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -11985,7 +12075,7 @@
       <c r="O621" s="3"/>
       <c r="P621" s="3"/>
     </row>
-    <row r="622" ht="15.75">
+    <row r="622" spans="1:16" ht="15.75">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -12003,7 +12093,7 @@
       <c r="O622" s="3"/>
       <c r="P622" s="3"/>
     </row>
-    <row r="623" ht="15.75">
+    <row r="623" spans="1:16" ht="15.75">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -12021,7 +12111,7 @@
       <c r="O623" s="3"/>
       <c r="P623" s="3"/>
     </row>
-    <row r="624" ht="15.75">
+    <row r="624" spans="1:16" ht="15.75">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -12039,7 +12129,7 @@
       <c r="O624" s="3"/>
       <c r="P624" s="3"/>
     </row>
-    <row r="625" ht="15.75">
+    <row r="625" spans="1:16" ht="15.75">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -12057,7 +12147,7 @@
       <c r="O625" s="3"/>
       <c r="P625" s="3"/>
     </row>
-    <row r="626" ht="15.75">
+    <row r="626" spans="1:16" ht="15.75">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -12075,7 +12165,7 @@
       <c r="O626" s="3"/>
       <c r="P626" s="3"/>
     </row>
-    <row r="627" ht="15.75">
+    <row r="627" spans="1:16" ht="15.75">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -12093,7 +12183,7 @@
       <c r="O627" s="3"/>
       <c r="P627" s="3"/>
     </row>
-    <row r="628" ht="15.75">
+    <row r="628" spans="1:16" ht="15.75">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -12111,7 +12201,7 @@
       <c r="O628" s="3"/>
       <c r="P628" s="3"/>
     </row>
-    <row r="629" ht="15.75">
+    <row r="629" spans="1:16" ht="15.75">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -12129,7 +12219,7 @@
       <c r="O629" s="3"/>
       <c r="P629" s="3"/>
     </row>
-    <row r="630" ht="15.75">
+    <row r="630" spans="1:16" ht="15.75">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -12147,7 +12237,7 @@
       <c r="O630" s="3"/>
       <c r="P630" s="3"/>
     </row>
-    <row r="631" ht="15.75">
+    <row r="631" spans="1:16" ht="15.75">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -12165,7 +12255,7 @@
       <c r="O631" s="3"/>
       <c r="P631" s="3"/>
     </row>
-    <row r="632" ht="15.75">
+    <row r="632" spans="1:16" ht="15.75">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -12183,7 +12273,7 @@
       <c r="O632" s="3"/>
       <c r="P632" s="3"/>
     </row>
-    <row r="633" ht="15.75">
+    <row r="633" spans="1:16" ht="15.75">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -12201,7 +12291,7 @@
       <c r="O633" s="3"/>
       <c r="P633" s="3"/>
     </row>
-    <row r="634" ht="15.75">
+    <row r="634" spans="1:16" ht="15.75">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -12219,7 +12309,7 @@
       <c r="O634" s="3"/>
       <c r="P634" s="3"/>
     </row>
-    <row r="635" ht="15.75">
+    <row r="635" spans="1:16" ht="15.75">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -12237,7 +12327,7 @@
       <c r="O635" s="3"/>
       <c r="P635" s="3"/>
     </row>
-    <row r="636" ht="15.75">
+    <row r="636" spans="1:16" ht="15.75">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -12255,7 +12345,7 @@
       <c r="O636" s="3"/>
       <c r="P636" s="3"/>
     </row>
-    <row r="637" ht="15.75">
+    <row r="637" spans="1:16" ht="15.75">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -12273,7 +12363,7 @@
       <c r="O637" s="3"/>
       <c r="P637" s="3"/>
     </row>
-    <row r="638" ht="15.75">
+    <row r="638" spans="1:16" ht="15.75">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -12291,7 +12381,7 @@
       <c r="O638" s="3"/>
       <c r="P638" s="3"/>
     </row>
-    <row r="639" ht="15.75">
+    <row r="639" spans="1:16" ht="15.75">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -12309,7 +12399,7 @@
       <c r="O639" s="3"/>
       <c r="P639" s="3"/>
     </row>
-    <row r="640" ht="15.75">
+    <row r="640" spans="1:16" ht="15.75">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -12327,7 +12417,7 @@
       <c r="O640" s="3"/>
       <c r="P640" s="3"/>
     </row>
-    <row r="641" ht="15.75">
+    <row r="641" spans="1:16" ht="15.75">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -12345,7 +12435,7 @@
       <c r="O641" s="3"/>
       <c r="P641" s="3"/>
     </row>
-    <row r="642" ht="15.75">
+    <row r="642" spans="1:16" ht="15.75">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -12363,7 +12453,7 @@
       <c r="O642" s="3"/>
       <c r="P642" s="3"/>
     </row>
-    <row r="643" ht="15.75">
+    <row r="643" spans="1:16" ht="15.75">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -12381,7 +12471,7 @@
       <c r="O643" s="3"/>
       <c r="P643" s="3"/>
     </row>
-    <row r="644" ht="15.75">
+    <row r="644" spans="1:16" ht="15.75">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -12399,7 +12489,7 @@
       <c r="O644" s="3"/>
       <c r="P644" s="3"/>
     </row>
-    <row r="645" ht="15.75">
+    <row r="645" spans="1:16" ht="15.75">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -12417,7 +12507,7 @@
       <c r="O645" s="3"/>
       <c r="P645" s="3"/>
     </row>
-    <row r="646" ht="15.75">
+    <row r="646" spans="1:16" ht="15.75">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -12435,7 +12525,7 @@
       <c r="O646" s="3"/>
       <c r="P646" s="3"/>
     </row>
-    <row r="647" ht="15.75">
+    <row r="647" spans="1:16" ht="15.75">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -12453,7 +12543,7 @@
       <c r="O647" s="3"/>
       <c r="P647" s="3"/>
     </row>
-    <row r="648" ht="15.75">
+    <row r="648" spans="1:16" ht="15.75">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -12471,7 +12561,7 @@
       <c r="O648" s="3"/>
       <c r="P648" s="3"/>
     </row>
-    <row r="649" ht="15.75">
+    <row r="649" spans="1:16" ht="15.75">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -12489,7 +12579,7 @@
       <c r="O649" s="3"/>
       <c r="P649" s="3"/>
     </row>
-    <row r="650" ht="15.75">
+    <row r="650" spans="1:16" ht="15.75">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -12507,7 +12597,7 @@
       <c r="O650" s="3"/>
       <c r="P650" s="3"/>
     </row>
-    <row r="651" ht="15.75">
+    <row r="651" spans="1:16" ht="15.75">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -12525,7 +12615,7 @@
       <c r="O651" s="3"/>
       <c r="P651" s="3"/>
     </row>
-    <row r="652" ht="15.75">
+    <row r="652" spans="1:16" ht="15.75">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -12543,7 +12633,7 @@
       <c r="O652" s="3"/>
       <c r="P652" s="3"/>
     </row>
-    <row r="653" ht="15.75">
+    <row r="653" spans="1:16" ht="15.75">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -12561,7 +12651,7 @@
       <c r="O653" s="3"/>
       <c r="P653" s="3"/>
     </row>
-    <row r="654" ht="15.75">
+    <row r="654" spans="1:16" ht="15.75">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -12579,7 +12669,7 @@
       <c r="O654" s="3"/>
       <c r="P654" s="3"/>
     </row>
-    <row r="655" ht="15.75">
+    <row r="655" spans="1:16" ht="15.75">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -12597,7 +12687,7 @@
       <c r="O655" s="3"/>
       <c r="P655" s="3"/>
     </row>
-    <row r="656" ht="15.75">
+    <row r="656" spans="1:16" ht="15.75">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -12615,7 +12705,7 @@
       <c r="O656" s="3"/>
       <c r="P656" s="3"/>
     </row>
-    <row r="657" ht="15.75">
+    <row r="657" spans="1:16" ht="15.75">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -12633,7 +12723,7 @@
       <c r="O657" s="3"/>
       <c r="P657" s="3"/>
     </row>
-    <row r="658" ht="15.75">
+    <row r="658" spans="1:16" ht="15.75">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -12651,7 +12741,7 @@
       <c r="O658" s="3"/>
       <c r="P658" s="3"/>
     </row>
-    <row r="659" ht="15.75">
+    <row r="659" spans="1:16" ht="15.75">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -12669,7 +12759,7 @@
       <c r="O659" s="3"/>
       <c r="P659" s="3"/>
     </row>
-    <row r="660" ht="15.75">
+    <row r="660" spans="1:16" ht="15.75">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -12687,7 +12777,7 @@
       <c r="O660" s="3"/>
       <c r="P660" s="3"/>
     </row>
-    <row r="661" ht="15.75">
+    <row r="661" spans="1:16" ht="15.75">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -12705,7 +12795,7 @@
       <c r="O661" s="3"/>
       <c r="P661" s="3"/>
     </row>
-    <row r="662" ht="15.75">
+    <row r="662" spans="1:16" ht="15.75">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -12723,7 +12813,7 @@
       <c r="O662" s="3"/>
       <c r="P662" s="3"/>
     </row>
-    <row r="663" ht="15.75">
+    <row r="663" spans="1:16" ht="15.75">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -12741,7 +12831,7 @@
       <c r="O663" s="3"/>
       <c r="P663" s="3"/>
     </row>
-    <row r="664" ht="15.75">
+    <row r="664" spans="1:16" ht="15.75">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -12759,7 +12849,7 @@
       <c r="O664" s="3"/>
       <c r="P664" s="3"/>
     </row>
-    <row r="665" ht="15.75">
+    <row r="665" spans="1:16" ht="15.75">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -12777,7 +12867,7 @@
       <c r="O665" s="3"/>
       <c r="P665" s="3"/>
     </row>
-    <row r="666" ht="15.75">
+    <row r="666" spans="1:16" ht="15.75">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -12795,7 +12885,7 @@
       <c r="O666" s="3"/>
       <c r="P666" s="3"/>
     </row>
-    <row r="667" ht="15.75">
+    <row r="667" spans="1:16" ht="15.75">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -12813,7 +12903,7 @@
       <c r="O667" s="3"/>
       <c r="P667" s="3"/>
     </row>
-    <row r="668" ht="15.75">
+    <row r="668" spans="1:16" ht="15.75">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -12831,7 +12921,7 @@
       <c r="O668" s="3"/>
       <c r="P668" s="3"/>
     </row>
-    <row r="669" ht="15.75">
+    <row r="669" spans="1:16" ht="15.75">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -12849,7 +12939,7 @@
       <c r="O669" s="3"/>
       <c r="P669" s="3"/>
     </row>
-    <row r="670" ht="15.75">
+    <row r="670" spans="1:16" ht="15.75">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -12867,7 +12957,7 @@
       <c r="O670" s="3"/>
       <c r="P670" s="3"/>
     </row>
-    <row r="671" ht="15.75">
+    <row r="671" spans="1:16" ht="15.75">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -12885,7 +12975,7 @@
       <c r="O671" s="3"/>
       <c r="P671" s="3"/>
     </row>
-    <row r="672" ht="15.75">
+    <row r="672" spans="1:16" ht="15.75">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -12903,7 +12993,7 @@
       <c r="O672" s="3"/>
       <c r="P672" s="3"/>
     </row>
-    <row r="673" ht="15.75">
+    <row r="673" spans="1:16" ht="15.75">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -12921,7 +13011,7 @@
       <c r="O673" s="3"/>
       <c r="P673" s="3"/>
     </row>
-    <row r="674" ht="15.75">
+    <row r="674" spans="1:16" ht="15.75">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -12939,7 +13029,7 @@
       <c r="O674" s="3"/>
       <c r="P674" s="3"/>
     </row>
-    <row r="675" ht="15.75">
+    <row r="675" spans="1:16" ht="15.75">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -12957,7 +13047,7 @@
       <c r="O675" s="3"/>
       <c r="P675" s="3"/>
     </row>
-    <row r="676" ht="15.75">
+    <row r="676" spans="1:16" ht="15.75">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -12975,7 +13065,7 @@
       <c r="O676" s="3"/>
       <c r="P676" s="3"/>
     </row>
-    <row r="677" ht="15.75">
+    <row r="677" spans="1:16" ht="15.75">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -12993,7 +13083,7 @@
       <c r="O677" s="3"/>
       <c r="P677" s="3"/>
     </row>
-    <row r="678" ht="15.75">
+    <row r="678" spans="1:16" ht="15.75">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -13011,7 +13101,7 @@
       <c r="O678" s="3"/>
       <c r="P678" s="3"/>
     </row>
-    <row r="679" ht="15.75">
+    <row r="679" spans="1:16" ht="15.75">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -13029,7 +13119,7 @@
       <c r="O679" s="3"/>
       <c r="P679" s="3"/>
     </row>
-    <row r="680" ht="15.75">
+    <row r="680" spans="1:16" ht="15.75">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -13047,7 +13137,7 @@
       <c r="O680" s="3"/>
       <c r="P680" s="3"/>
     </row>
-    <row r="681" ht="15.75">
+    <row r="681" spans="1:16" ht="15.75">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -13065,7 +13155,7 @@
       <c r="O681" s="3"/>
       <c r="P681" s="3"/>
     </row>
-    <row r="682" ht="15.75">
+    <row r="682" spans="1:16" ht="15.75">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -13083,7 +13173,7 @@
       <c r="O682" s="3"/>
       <c r="P682" s="3"/>
     </row>
-    <row r="683" ht="15.75">
+    <row r="683" spans="1:16" ht="15.75">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -13101,7 +13191,7 @@
       <c r="O683" s="3"/>
       <c r="P683" s="3"/>
     </row>
-    <row r="684" ht="15.75">
+    <row r="684" spans="1:16" ht="15.75">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -13119,7 +13209,7 @@
       <c r="O684" s="3"/>
       <c r="P684" s="3"/>
     </row>
-    <row r="685" ht="15.75">
+    <row r="685" spans="1:16" ht="15.75">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -13137,7 +13227,7 @@
       <c r="O685" s="3"/>
       <c r="P685" s="3"/>
     </row>
-    <row r="686" ht="15.75">
+    <row r="686" spans="1:16" ht="15.75">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -13155,7 +13245,7 @@
       <c r="O686" s="3"/>
       <c r="P686" s="3"/>
     </row>
-    <row r="687" ht="15.75">
+    <row r="687" spans="1:16" ht="15.75">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -13173,7 +13263,7 @@
       <c r="O687" s="3"/>
       <c r="P687" s="3"/>
     </row>
-    <row r="688" ht="15.75">
+    <row r="688" spans="1:16" ht="15.75">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -13191,7 +13281,7 @@
       <c r="O688" s="3"/>
       <c r="P688" s="3"/>
     </row>
-    <row r="689" ht="15.75">
+    <row r="689" spans="1:16" ht="15.75">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -13209,7 +13299,7 @@
       <c r="O689" s="3"/>
       <c r="P689" s="3"/>
     </row>
-    <row r="690" ht="15.75">
+    <row r="690" spans="1:16" ht="15.75">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -13227,7 +13317,7 @@
       <c r="O690" s="3"/>
       <c r="P690" s="3"/>
     </row>
-    <row r="691" ht="15.75">
+    <row r="691" spans="1:16" ht="15.75">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -13245,7 +13335,7 @@
       <c r="O691" s="3"/>
       <c r="P691" s="3"/>
     </row>
-    <row r="692" ht="15.75">
+    <row r="692" spans="1:16" ht="15.75">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -13263,7 +13353,7 @@
       <c r="O692" s="3"/>
       <c r="P692" s="3"/>
     </row>
-    <row r="693" ht="15.75">
+    <row r="693" spans="1:16" ht="15.75">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -13281,7 +13371,7 @@
       <c r="O693" s="3"/>
       <c r="P693" s="3"/>
     </row>
-    <row r="694" ht="15.75">
+    <row r="694" spans="1:16" ht="15.75">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -13299,7 +13389,7 @@
       <c r="O694" s="3"/>
       <c r="P694" s="3"/>
     </row>
-    <row r="695" ht="15.75">
+    <row r="695" spans="1:16" ht="15.75">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -13317,7 +13407,7 @@
       <c r="O695" s="3"/>
       <c r="P695" s="3"/>
     </row>
-    <row r="696" ht="15.75">
+    <row r="696" spans="1:16" ht="15.75">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -13335,7 +13425,7 @@
       <c r="O696" s="3"/>
       <c r="P696" s="3"/>
     </row>
-    <row r="697" ht="15.75">
+    <row r="697" spans="1:16" ht="15.75">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -13353,7 +13443,7 @@
       <c r="O697" s="3"/>
       <c r="P697" s="3"/>
     </row>
-    <row r="698" ht="15.75">
+    <row r="698" spans="1:16" ht="15.75">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -13371,7 +13461,7 @@
       <c r="O698" s="3"/>
       <c r="P698" s="3"/>
     </row>
-    <row r="699" ht="15.75">
+    <row r="699" spans="1:16" ht="15.75">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -13389,7 +13479,7 @@
       <c r="O699" s="3"/>
       <c r="P699" s="3"/>
     </row>
-    <row r="700" ht="15.75">
+    <row r="700" spans="1:16" ht="15.75">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -13407,7 +13497,7 @@
       <c r="O700" s="3"/>
       <c r="P700" s="3"/>
     </row>
-    <row r="701" ht="15.75">
+    <row r="701" spans="1:16" ht="15.75">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -13425,7 +13515,7 @@
       <c r="O701" s="3"/>
       <c r="P701" s="3"/>
     </row>
-    <row r="702" ht="15.75">
+    <row r="702" spans="1:16" ht="15.75">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -13443,7 +13533,7 @@
       <c r="O702" s="3"/>
       <c r="P702" s="3"/>
     </row>
-    <row r="703" ht="15.75">
+    <row r="703" spans="1:16" ht="15.75">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -13461,7 +13551,7 @@
       <c r="O703" s="3"/>
       <c r="P703" s="3"/>
     </row>
-    <row r="704" ht="15.75">
+    <row r="704" spans="1:16" ht="15.75">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -13479,7 +13569,7 @@
       <c r="O704" s="3"/>
       <c r="P704" s="3"/>
     </row>
-    <row r="705" ht="15.75">
+    <row r="705" spans="1:16" ht="15.75">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -13497,7 +13587,7 @@
       <c r="O705" s="3"/>
       <c r="P705" s="3"/>
     </row>
-    <row r="706" ht="15.75">
+    <row r="706" spans="1:16" ht="15.75">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -13515,7 +13605,7 @@
       <c r="O706" s="3"/>
       <c r="P706" s="3"/>
     </row>
-    <row r="707" ht="15.75">
+    <row r="707" spans="1:16" ht="15.75">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -13533,7 +13623,7 @@
       <c r="O707" s="3"/>
       <c r="P707" s="3"/>
     </row>
-    <row r="708" ht="15.75">
+    <row r="708" spans="1:16" ht="15.75">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -13551,7 +13641,7 @@
       <c r="O708" s="3"/>
       <c r="P708" s="3"/>
     </row>
-    <row r="709" ht="15.75">
+    <row r="709" spans="1:16" ht="15.75">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -13569,7 +13659,7 @@
       <c r="O709" s="3"/>
       <c r="P709" s="3"/>
     </row>
-    <row r="710" ht="15.75">
+    <row r="710" spans="1:16" ht="15.75">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -13587,7 +13677,7 @@
       <c r="O710" s="3"/>
       <c r="P710" s="3"/>
     </row>
-    <row r="711" ht="15.75">
+    <row r="711" spans="1:16" ht="15.75">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -13605,7 +13695,7 @@
       <c r="O711" s="3"/>
       <c r="P711" s="3"/>
     </row>
-    <row r="712" ht="15.75">
+    <row r="712" spans="1:16" ht="15.75">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -13623,7 +13713,7 @@
       <c r="O712" s="3"/>
       <c r="P712" s="3"/>
     </row>
-    <row r="713" ht="15.75">
+    <row r="713" spans="1:16" ht="15.75">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -13641,7 +13731,7 @@
       <c r="O713" s="3"/>
       <c r="P713" s="3"/>
     </row>
-    <row r="714" ht="15.75">
+    <row r="714" spans="1:16" ht="15.75">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -13659,7 +13749,7 @@
       <c r="O714" s="3"/>
       <c r="P714" s="3"/>
     </row>
-    <row r="715" ht="15.75">
+    <row r="715" spans="1:16" ht="15.75">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -13677,7 +13767,7 @@
       <c r="O715" s="3"/>
       <c r="P715" s="3"/>
     </row>
-    <row r="716" ht="15.75">
+    <row r="716" spans="1:16" ht="15.75">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -13695,7 +13785,7 @@
       <c r="O716" s="3"/>
       <c r="P716" s="3"/>
     </row>
-    <row r="717" ht="15.75">
+    <row r="717" spans="1:16" ht="15.75">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -13713,7 +13803,7 @@
       <c r="O717" s="3"/>
       <c r="P717" s="3"/>
     </row>
-    <row r="718" ht="15.75">
+    <row r="718" spans="1:16" ht="15.75">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -13731,7 +13821,7 @@
       <c r="O718" s="3"/>
       <c r="P718" s="3"/>
     </row>
-    <row r="719" ht="15.75">
+    <row r="719" spans="1:16" ht="15.75">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -13749,7 +13839,7 @@
       <c r="O719" s="3"/>
       <c r="P719" s="3"/>
     </row>
-    <row r="720" ht="15.75">
+    <row r="720" spans="1:16" ht="15.75">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -13767,7 +13857,7 @@
       <c r="O720" s="3"/>
       <c r="P720" s="3"/>
     </row>
-    <row r="721" ht="15.75">
+    <row r="721" spans="1:16" ht="15.75">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -13785,7 +13875,7 @@
       <c r="O721" s="3"/>
       <c r="P721" s="3"/>
     </row>
-    <row r="722" ht="15.75">
+    <row r="722" spans="1:16" ht="15.75">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -13803,7 +13893,7 @@
       <c r="O722" s="3"/>
       <c r="P722" s="3"/>
     </row>
-    <row r="723" ht="15.75">
+    <row r="723" spans="1:16" ht="15.75">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -13821,7 +13911,7 @@
       <c r="O723" s="3"/>
       <c r="P723" s="3"/>
     </row>
-    <row r="724" ht="15.75">
+    <row r="724" spans="1:16" ht="15.75">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -13839,7 +13929,7 @@
       <c r="O724" s="3"/>
       <c r="P724" s="3"/>
     </row>
-    <row r="725" ht="15.75">
+    <row r="725" spans="1:16" ht="15.75">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -13857,7 +13947,7 @@
       <c r="O725" s="3"/>
       <c r="P725" s="3"/>
     </row>
-    <row r="726" ht="15.75">
+    <row r="726" spans="1:16" ht="15.75">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -13875,7 +13965,7 @@
       <c r="O726" s="3"/>
       <c r="P726" s="3"/>
     </row>
-    <row r="727" ht="15.75">
+    <row r="727" spans="1:16" ht="15.75">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -13893,7 +13983,7 @@
       <c r="O727" s="3"/>
       <c r="P727" s="3"/>
     </row>
-    <row r="728" ht="15.75">
+    <row r="728" spans="1:16" ht="15.75">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -13911,7 +14001,7 @@
       <c r="O728" s="3"/>
       <c r="P728" s="3"/>
     </row>
-    <row r="729" ht="15.75">
+    <row r="729" spans="1:16" ht="15.75">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -13929,7 +14019,7 @@
       <c r="O729" s="3"/>
       <c r="P729" s="3"/>
     </row>
-    <row r="730" ht="15.75">
+    <row r="730" spans="1:16" ht="15.75">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -13947,7 +14037,7 @@
       <c r="O730" s="3"/>
       <c r="P730" s="3"/>
     </row>
-    <row r="731" ht="15.75">
+    <row r="731" spans="1:16" ht="15.75">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -13965,7 +14055,7 @@
       <c r="O731" s="3"/>
       <c r="P731" s="3"/>
     </row>
-    <row r="732" ht="15.75">
+    <row r="732" spans="1:16" ht="15.75">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -13983,7 +14073,7 @@
       <c r="O732" s="3"/>
       <c r="P732" s="3"/>
     </row>
-    <row r="733" ht="15.75">
+    <row r="733" spans="1:16" ht="15.75">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -14001,7 +14091,7 @@
       <c r="O733" s="3"/>
       <c r="P733" s="3"/>
     </row>
-    <row r="734" ht="15.75">
+    <row r="734" spans="1:16" ht="15.75">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -14019,7 +14109,7 @@
       <c r="O734" s="3"/>
       <c r="P734" s="3"/>
     </row>
-    <row r="735" ht="15.75">
+    <row r="735" spans="1:16" ht="15.75">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -14037,7 +14127,7 @@
       <c r="O735" s="3"/>
       <c r="P735" s="3"/>
     </row>
-    <row r="736" ht="15.75">
+    <row r="736" spans="1:16" ht="15.75">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -14055,7 +14145,7 @@
       <c r="O736" s="3"/>
       <c r="P736" s="3"/>
     </row>
-    <row r="737" ht="15.75">
+    <row r="737" spans="1:16" ht="15.75">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -14073,7 +14163,7 @@
       <c r="O737" s="3"/>
       <c r="P737" s="3"/>
     </row>
-    <row r="738" ht="15.75">
+    <row r="738" spans="1:16" ht="15.75">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -14091,7 +14181,7 @@
       <c r="O738" s="3"/>
       <c r="P738" s="3"/>
     </row>
-    <row r="739" ht="15.75">
+    <row r="739" spans="1:16" ht="15.75">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -14109,7 +14199,7 @@
       <c r="O739" s="3"/>
       <c r="P739" s="3"/>
     </row>
-    <row r="740" ht="15.75">
+    <row r="740" spans="1:16" ht="15.75">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -14127,7 +14217,7 @@
       <c r="O740" s="3"/>
       <c r="P740" s="3"/>
     </row>
-    <row r="741" ht="15.75">
+    <row r="741" spans="1:16" ht="15.75">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -14145,7 +14235,7 @@
       <c r="O741" s="3"/>
       <c r="P741" s="3"/>
     </row>
-    <row r="742" ht="15.75">
+    <row r="742" spans="1:16" ht="15.75">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -14163,7 +14253,7 @@
       <c r="O742" s="3"/>
       <c r="P742" s="3"/>
     </row>
-    <row r="743" ht="15.75">
+    <row r="743" spans="1:16" ht="15.75">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -14181,7 +14271,7 @@
       <c r="O743" s="3"/>
       <c r="P743" s="3"/>
     </row>
-    <row r="744" ht="15.75">
+    <row r="744" spans="1:16" ht="15.75">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -14199,7 +14289,7 @@
       <c r="O744" s="3"/>
       <c r="P744" s="3"/>
     </row>
-    <row r="745" ht="15.75">
+    <row r="745" spans="1:16" ht="15.75">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -14217,7 +14307,7 @@
       <c r="O745" s="3"/>
       <c r="P745" s="3"/>
     </row>
-    <row r="746" ht="15.75">
+    <row r="746" spans="1:16" ht="15.75">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -14235,7 +14325,7 @@
       <c r="O746" s="3"/>
       <c r="P746" s="3"/>
     </row>
-    <row r="747" ht="15.75">
+    <row r="747" spans="1:16" ht="15.75">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -14253,7 +14343,7 @@
       <c r="O747" s="3"/>
       <c r="P747" s="3"/>
     </row>
-    <row r="748" ht="15.75">
+    <row r="748" spans="1:16" ht="15.75">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -14271,7 +14361,7 @@
       <c r="O748" s="3"/>
       <c r="P748" s="3"/>
     </row>
-    <row r="749" ht="15.75">
+    <row r="749" spans="1:16" ht="15.75">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -14289,7 +14379,7 @@
       <c r="O749" s="3"/>
       <c r="P749" s="3"/>
     </row>
-    <row r="750" ht="15.75">
+    <row r="750" spans="1:16" ht="15.75">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -14307,7 +14397,7 @@
       <c r="O750" s="3"/>
       <c r="P750" s="3"/>
     </row>
-    <row r="751" ht="15.75">
+    <row r="751" spans="1:16" ht="15.75">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -14325,7 +14415,7 @@
       <c r="O751" s="3"/>
       <c r="P751" s="3"/>
     </row>
-    <row r="752" ht="15.75">
+    <row r="752" spans="1:16" ht="15.75">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -14343,7 +14433,7 @@
       <c r="O752" s="3"/>
       <c r="P752" s="3"/>
     </row>
-    <row r="753" ht="15.75">
+    <row r="753" spans="1:16" ht="15.75">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -14361,7 +14451,7 @@
       <c r="O753" s="3"/>
       <c r="P753" s="3"/>
     </row>
-    <row r="754" ht="15.75">
+    <row r="754" spans="1:16" ht="15.75">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -14379,7 +14469,7 @@
       <c r="O754" s="3"/>
       <c r="P754" s="3"/>
     </row>
-    <row r="755" ht="15.75">
+    <row r="755" spans="1:16" ht="15.75">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -14397,7 +14487,7 @@
       <c r="O755" s="3"/>
       <c r="P755" s="3"/>
     </row>
-    <row r="756" ht="15.75">
+    <row r="756" spans="1:16" ht="15.75">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -14415,7 +14505,7 @@
       <c r="O756" s="3"/>
       <c r="P756" s="3"/>
     </row>
-    <row r="757" ht="15.75">
+    <row r="757" spans="1:16" ht="15.75">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -14433,7 +14523,7 @@
       <c r="O757" s="3"/>
       <c r="P757" s="3"/>
     </row>
-    <row r="758" ht="15.75">
+    <row r="758" spans="1:16" ht="15.75">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -14451,7 +14541,7 @@
       <c r="O758" s="3"/>
       <c r="P758" s="3"/>
     </row>
-    <row r="759" ht="15.75">
+    <row r="759" spans="1:16" ht="15.75">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -14469,7 +14559,7 @@
       <c r="O759" s="3"/>
       <c r="P759" s="3"/>
     </row>
-    <row r="760" ht="15.75">
+    <row r="760" spans="1:16" ht="15.75">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -14487,7 +14577,7 @@
       <c r="O760" s="3"/>
       <c r="P760" s="3"/>
     </row>
-    <row r="761" ht="15.75">
+    <row r="761" spans="1:16" ht="15.75">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -14505,7 +14595,7 @@
       <c r="O761" s="3"/>
       <c r="P761" s="3"/>
     </row>
-    <row r="762" ht="15.75">
+    <row r="762" spans="1:16" ht="15.75">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -14523,7 +14613,7 @@
       <c r="O762" s="3"/>
       <c r="P762" s="3"/>
     </row>
-    <row r="763" ht="15.75">
+    <row r="763" spans="1:16" ht="15.75">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -14541,7 +14631,7 @@
       <c r="O763" s="3"/>
       <c r="P763" s="3"/>
     </row>
-    <row r="764" ht="15.75">
+    <row r="764" spans="1:16" ht="15.75">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -14559,7 +14649,7 @@
       <c r="O764" s="3"/>
       <c r="P764" s="3"/>
     </row>
-    <row r="765" ht="15.75">
+    <row r="765" spans="1:16" ht="15.75">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -14577,7 +14667,7 @@
       <c r="O765" s="3"/>
       <c r="P765" s="3"/>
     </row>
-    <row r="766" ht="15.75">
+    <row r="766" spans="1:16" ht="15.75">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -14595,7 +14685,7 @@
       <c r="O766" s="3"/>
       <c r="P766" s="3"/>
     </row>
-    <row r="767" ht="15.75">
+    <row r="767" spans="1:16" ht="15.75">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -14613,7 +14703,7 @@
       <c r="O767" s="3"/>
       <c r="P767" s="3"/>
     </row>
-    <row r="768" ht="15.75">
+    <row r="768" spans="1:16" ht="15.75">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -14631,7 +14721,7 @@
       <c r="O768" s="3"/>
       <c r="P768" s="3"/>
     </row>
-    <row r="769" ht="15.75">
+    <row r="769" spans="1:16" ht="15.75">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -14649,7 +14739,7 @@
       <c r="O769" s="3"/>
       <c r="P769" s="3"/>
     </row>
-    <row r="770" ht="15.75">
+    <row r="770" spans="1:16" ht="15.75">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -14667,7 +14757,7 @@
       <c r="O770" s="3"/>
       <c r="P770" s="3"/>
     </row>
-    <row r="771" ht="15.75">
+    <row r="771" spans="1:16" ht="15.75">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -14685,7 +14775,7 @@
       <c r="O771" s="3"/>
       <c r="P771" s="3"/>
     </row>
-    <row r="772" ht="15.75">
+    <row r="772" spans="1:16" ht="15.75">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -14703,7 +14793,7 @@
       <c r="O772" s="3"/>
       <c r="P772" s="3"/>
     </row>
-    <row r="773" ht="15.75">
+    <row r="773" spans="1:16" ht="15.75">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -14721,7 +14811,7 @@
       <c r="O773" s="3"/>
       <c r="P773" s="3"/>
     </row>
-    <row r="774" ht="15.75">
+    <row r="774" spans="1:16" ht="15.75">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -14739,7 +14829,7 @@
       <c r="O774" s="3"/>
       <c r="P774" s="3"/>
     </row>
-    <row r="775" ht="15.75">
+    <row r="775" spans="1:16" ht="15.75">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -14757,7 +14847,7 @@
       <c r="O775" s="3"/>
       <c r="P775" s="3"/>
     </row>
-    <row r="776" ht="15.75">
+    <row r="776" spans="1:16" ht="15.75">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -14775,7 +14865,7 @@
       <c r="O776" s="3"/>
       <c r="P776" s="3"/>
     </row>
-    <row r="777" ht="15.75">
+    <row r="777" spans="1:16" ht="15.75">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -14793,7 +14883,7 @@
       <c r="O777" s="3"/>
       <c r="P777" s="3"/>
     </row>
-    <row r="778" ht="15.75">
+    <row r="778" spans="1:16" ht="15.75">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -14811,7 +14901,7 @@
       <c r="O778" s="3"/>
       <c r="P778" s="3"/>
     </row>
-    <row r="779" ht="15.75">
+    <row r="779" spans="1:16" ht="15.75">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -14829,7 +14919,7 @@
       <c r="O779" s="3"/>
       <c r="P779" s="3"/>
     </row>
-    <row r="780" ht="15.75">
+    <row r="780" spans="1:16" ht="15.75">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -14847,7 +14937,7 @@
       <c r="O780" s="3"/>
       <c r="P780" s="3"/>
     </row>
-    <row r="781" ht="15.75">
+    <row r="781" spans="1:16" ht="15.75">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -14865,7 +14955,7 @@
       <c r="O781" s="3"/>
       <c r="P781" s="3"/>
     </row>
-    <row r="782" ht="15.75">
+    <row r="782" spans="1:16" ht="15.75">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -14883,7 +14973,7 @@
       <c r="O782" s="3"/>
       <c r="P782" s="3"/>
     </row>
-    <row r="783" ht="15.75">
+    <row r="783" spans="1:16" ht="15.75">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -14901,7 +14991,7 @@
       <c r="O783" s="3"/>
       <c r="P783" s="3"/>
     </row>
-    <row r="784" ht="15.75">
+    <row r="784" spans="1:16" ht="15.75">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -14919,7 +15009,7 @@
       <c r="O784" s="3"/>
       <c r="P784" s="3"/>
     </row>
-    <row r="785" ht="15.75">
+    <row r="785" spans="1:16" ht="15.75">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -14937,7 +15027,7 @@
       <c r="O785" s="3"/>
       <c r="P785" s="3"/>
     </row>
-    <row r="786" ht="15.75">
+    <row r="786" spans="1:16" ht="15.75">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -14955,7 +15045,7 @@
       <c r="O786" s="3"/>
       <c r="P786" s="3"/>
     </row>
-    <row r="787" ht="15.75">
+    <row r="787" spans="1:16" ht="15.75">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -14973,7 +15063,7 @@
       <c r="O787" s="3"/>
       <c r="P787" s="3"/>
     </row>
-    <row r="788" ht="15.75">
+    <row r="788" spans="1:16" ht="15.75">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -14991,7 +15081,7 @@
       <c r="O788" s="3"/>
       <c r="P788" s="3"/>
     </row>
-    <row r="789" ht="15.75">
+    <row r="789" spans="1:16" ht="15.75">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -15009,7 +15099,7 @@
       <c r="O789" s="3"/>
       <c r="P789" s="3"/>
     </row>
-    <row r="790" ht="15.75">
+    <row r="790" spans="1:16" ht="15.75">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -15027,7 +15117,7 @@
       <c r="O790" s="3"/>
       <c r="P790" s="3"/>
     </row>
-    <row r="791" ht="15.75">
+    <row r="791" spans="1:16" ht="15.75">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -15045,7 +15135,7 @@
       <c r="O791" s="3"/>
       <c r="P791" s="3"/>
     </row>
-    <row r="792" ht="15.75">
+    <row r="792" spans="1:16" ht="15.75">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -15063,7 +15153,7 @@
       <c r="O792" s="3"/>
       <c r="P792" s="3"/>
     </row>
-    <row r="793" ht="15.75">
+    <row r="793" spans="1:16" ht="15.75">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -15081,7 +15171,7 @@
       <c r="O793" s="3"/>
       <c r="P793" s="3"/>
     </row>
-    <row r="794" ht="15.75">
+    <row r="794" spans="1:16" ht="15.75">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -15099,7 +15189,7 @@
       <c r="O794" s="3"/>
       <c r="P794" s="3"/>
     </row>
-    <row r="795" ht="15.75">
+    <row r="795" spans="1:16" ht="15.75">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -15117,7 +15207,7 @@
       <c r="O795" s="3"/>
       <c r="P795" s="3"/>
     </row>
-    <row r="796" ht="15.75">
+    <row r="796" spans="1:16" ht="15.75">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -15135,7 +15225,7 @@
       <c r="O796" s="3"/>
       <c r="P796" s="3"/>
     </row>
-    <row r="797" ht="15.75">
+    <row r="797" spans="1:16" ht="15.75">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -15153,7 +15243,7 @@
       <c r="O797" s="3"/>
       <c r="P797" s="3"/>
     </row>
-    <row r="798" ht="15.75">
+    <row r="798" spans="1:16" ht="15.75">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -15171,7 +15261,7 @@
       <c r="O798" s="3"/>
       <c r="P798" s="3"/>
     </row>
-    <row r="799" ht="15.75">
+    <row r="799" spans="1:16" ht="15.75">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -15189,7 +15279,7 @@
       <c r="O799" s="3"/>
       <c r="P799" s="3"/>
     </row>
-    <row r="800" ht="15.75">
+    <row r="800" spans="1:16" ht="15.75">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -15207,7 +15297,7 @@
       <c r="O800" s="3"/>
       <c r="P800" s="3"/>
     </row>
-    <row r="801" ht="15.75">
+    <row r="801" spans="1:16" ht="15.75">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -15225,7 +15315,7 @@
       <c r="O801" s="3"/>
       <c r="P801" s="3"/>
     </row>
-    <row r="802" ht="15.75">
+    <row r="802" spans="1:16" ht="15.75">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -15243,7 +15333,7 @@
       <c r="O802" s="3"/>
       <c r="P802" s="3"/>
     </row>
-    <row r="803" ht="15.75">
+    <row r="803" spans="1:16" ht="15.75">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -15261,7 +15351,7 @@
       <c r="O803" s="3"/>
       <c r="P803" s="3"/>
     </row>
-    <row r="804" ht="15.75">
+    <row r="804" spans="1:16" ht="15.75">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -15279,7 +15369,7 @@
       <c r="O804" s="3"/>
       <c r="P804" s="3"/>
     </row>
-    <row r="805" ht="15.75">
+    <row r="805" spans="1:16" ht="15.75">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -15297,7 +15387,7 @@
       <c r="O805" s="3"/>
       <c r="P805" s="3"/>
     </row>
-    <row r="806" ht="15.75">
+    <row r="806" spans="1:16" ht="15.75">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -15315,7 +15405,7 @@
       <c r="O806" s="3"/>
       <c r="P806" s="3"/>
     </row>
-    <row r="807" ht="15.75">
+    <row r="807" spans="1:16" ht="15.75">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -15333,7 +15423,7 @@
       <c r="O807" s="3"/>
       <c r="P807" s="3"/>
     </row>
-    <row r="808" ht="15.75">
+    <row r="808" spans="1:16" ht="15.75">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -15351,7 +15441,7 @@
       <c r="O808" s="3"/>
       <c r="P808" s="3"/>
     </row>
-    <row r="809" ht="15.75">
+    <row r="809" spans="1:16" ht="15.75">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -15369,7 +15459,7 @@
       <c r="O809" s="3"/>
       <c r="P809" s="3"/>
     </row>
-    <row r="810" ht="15.75">
+    <row r="810" spans="1:16" ht="15.75">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -15387,7 +15477,7 @@
       <c r="O810" s="3"/>
       <c r="P810" s="3"/>
     </row>
-    <row r="811" ht="15.75">
+    <row r="811" spans="1:16" ht="15.75">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -15405,7 +15495,7 @@
       <c r="O811" s="3"/>
       <c r="P811" s="3"/>
     </row>
-    <row r="812" ht="15.75">
+    <row r="812" spans="1:16" ht="15.75">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -15423,7 +15513,7 @@
       <c r="O812" s="3"/>
       <c r="P812" s="3"/>
     </row>
-    <row r="813" ht="15.75">
+    <row r="813" spans="1:16" ht="15.75">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -15441,7 +15531,7 @@
       <c r="O813" s="3"/>
       <c r="P813" s="3"/>
     </row>
-    <row r="814" ht="15.75">
+    <row r="814" spans="1:16" ht="15.75">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -15459,7 +15549,7 @@
       <c r="O814" s="3"/>
       <c r="P814" s="3"/>
     </row>
-    <row r="815" ht="15.75">
+    <row r="815" spans="1:16" ht="15.75">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -15477,7 +15567,7 @@
       <c r="O815" s="3"/>
       <c r="P815" s="3"/>
     </row>
-    <row r="816" ht="15.75">
+    <row r="816" spans="1:16" ht="15.75">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -15495,7 +15585,7 @@
       <c r="O816" s="3"/>
       <c r="P816" s="3"/>
     </row>
-    <row r="817" ht="15.75">
+    <row r="817" spans="1:16" ht="15.75">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -15513,7 +15603,7 @@
       <c r="O817" s="3"/>
       <c r="P817" s="3"/>
     </row>
-    <row r="818" ht="15.75">
+    <row r="818" spans="1:16" ht="15.75">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -15531,7 +15621,7 @@
       <c r="O818" s="3"/>
       <c r="P818" s="3"/>
     </row>
-    <row r="819" ht="15.75">
+    <row r="819" spans="1:16" ht="15.75">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -15549,7 +15639,7 @@
       <c r="O819" s="3"/>
       <c r="P819" s="3"/>
     </row>
-    <row r="820" ht="15.75">
+    <row r="820" spans="1:16" ht="15.75">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -15567,7 +15657,7 @@
       <c r="O820" s="3"/>
       <c r="P820" s="3"/>
     </row>
-    <row r="821" ht="15.75">
+    <row r="821" spans="1:16" ht="15.75">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -15585,7 +15675,7 @@
       <c r="O821" s="3"/>
       <c r="P821" s="3"/>
     </row>
-    <row r="822" ht="15.75">
+    <row r="822" spans="1:16" ht="15.75">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -15603,7 +15693,7 @@
       <c r="O822" s="3"/>
       <c r="P822" s="3"/>
     </row>
-    <row r="823" ht="15.75">
+    <row r="823" spans="1:16" ht="15.75">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -15621,7 +15711,7 @@
       <c r="O823" s="3"/>
       <c r="P823" s="3"/>
     </row>
-    <row r="824" ht="15.75">
+    <row r="824" spans="1:16" ht="15.75">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -15639,7 +15729,7 @@
       <c r="O824" s="3"/>
       <c r="P824" s="3"/>
     </row>
-    <row r="825" ht="15.75">
+    <row r="825" spans="1:16" ht="15.75">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -15657,7 +15747,7 @@
       <c r="O825" s="3"/>
       <c r="P825" s="3"/>
     </row>
-    <row r="826" ht="15.75">
+    <row r="826" spans="1:16" ht="15.75">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -15675,7 +15765,7 @@
       <c r="O826" s="3"/>
       <c r="P826" s="3"/>
     </row>
-    <row r="827" ht="15.75">
+    <row r="827" spans="1:16" ht="15.75">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -15693,7 +15783,7 @@
       <c r="O827" s="3"/>
       <c r="P827" s="3"/>
     </row>
-    <row r="828" ht="15.75">
+    <row r="828" spans="1:16" ht="15.75">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -15711,7 +15801,7 @@
       <c r="O828" s="3"/>
       <c r="P828" s="3"/>
     </row>
-    <row r="829" ht="15.75">
+    <row r="829" spans="1:16" ht="15.75">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -15729,7 +15819,7 @@
       <c r="O829" s="3"/>
       <c r="P829" s="3"/>
     </row>
-    <row r="830" ht="15.75">
+    <row r="830" spans="1:16" ht="15.75">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -15747,7 +15837,7 @@
       <c r="O830" s="3"/>
       <c r="P830" s="3"/>
     </row>
-    <row r="831" ht="15.75">
+    <row r="831" spans="1:16" ht="15.75">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -15765,7 +15855,7 @@
       <c r="O831" s="3"/>
       <c r="P831" s="3"/>
     </row>
-    <row r="832" ht="15.75">
+    <row r="832" spans="1:16" ht="15.75">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -15783,7 +15873,7 @@
       <c r="O832" s="3"/>
       <c r="P832" s="3"/>
     </row>
-    <row r="833" ht="15.75">
+    <row r="833" spans="1:16" ht="15.75">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -15801,7 +15891,7 @@
       <c r="O833" s="3"/>
       <c r="P833" s="3"/>
     </row>
-    <row r="834" ht="15.75">
+    <row r="834" spans="1:16" ht="15.75">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -15819,7 +15909,7 @@
       <c r="O834" s="3"/>
       <c r="P834" s="3"/>
     </row>
-    <row r="835" ht="15.75">
+    <row r="835" spans="1:16" ht="15.75">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -15837,7 +15927,7 @@
       <c r="O835" s="3"/>
       <c r="P835" s="3"/>
     </row>
-    <row r="836" ht="15.75">
+    <row r="836" spans="1:16" ht="15.75">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -15855,7 +15945,7 @@
       <c r="O836" s="3"/>
       <c r="P836" s="3"/>
     </row>
-    <row r="837" ht="15.75">
+    <row r="837" spans="1:16" ht="15.75">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -15873,7 +15963,7 @@
       <c r="O837" s="3"/>
       <c r="P837" s="3"/>
     </row>
-    <row r="838" ht="15.75">
+    <row r="838" spans="1:16" ht="15.75">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -15891,7 +15981,7 @@
       <c r="O838" s="3"/>
       <c r="P838" s="3"/>
     </row>
-    <row r="839" ht="15.75">
+    <row r="839" spans="1:16" ht="15.75">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -15909,7 +15999,7 @@
       <c r="O839" s="3"/>
       <c r="P839" s="3"/>
     </row>
-    <row r="840" ht="15.75">
+    <row r="840" spans="1:16" ht="15.75">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -15927,7 +16017,7 @@
       <c r="O840" s="3"/>
       <c r="P840" s="3"/>
     </row>
-    <row r="841" ht="15.75">
+    <row r="841" spans="1:16" ht="15.75">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -15945,7 +16035,7 @@
       <c r="O841" s="3"/>
       <c r="P841" s="3"/>
     </row>
-    <row r="842" ht="15.75">
+    <row r="842" spans="1:16" ht="15.75">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -15963,7 +16053,7 @@
       <c r="O842" s="3"/>
       <c r="P842" s="3"/>
     </row>
-    <row r="843" ht="15.75">
+    <row r="843" spans="1:16" ht="15.75">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -15981,7 +16071,7 @@
       <c r="O843" s="3"/>
       <c r="P843" s="3"/>
     </row>
-    <row r="844" ht="15.75">
+    <row r="844" spans="1:16" ht="15.75">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -15999,7 +16089,7 @@
       <c r="O844" s="3"/>
       <c r="P844" s="3"/>
     </row>
-    <row r="845" ht="15.75">
+    <row r="845" spans="1:16" ht="15.75">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -16017,7 +16107,7 @@
       <c r="O845" s="3"/>
       <c r="P845" s="3"/>
     </row>
-    <row r="846" ht="15.75">
+    <row r="846" spans="1:16" ht="15.75">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -16035,7 +16125,7 @@
       <c r="O846" s="3"/>
       <c r="P846" s="3"/>
     </row>
-    <row r="847" ht="15.75">
+    <row r="847" spans="1:16" ht="15.75">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -16053,7 +16143,7 @@
       <c r="O847" s="3"/>
       <c r="P847" s="3"/>
     </row>
-    <row r="848" ht="15.75">
+    <row r="848" spans="1:16" ht="15.75">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -16071,7 +16161,7 @@
       <c r="O848" s="3"/>
       <c r="P848" s="3"/>
     </row>
-    <row r="849" ht="15.75">
+    <row r="849" spans="1:16" ht="15.75">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -16089,7 +16179,7 @@
       <c r="O849" s="3"/>
       <c r="P849" s="3"/>
     </row>
-    <row r="850" ht="15.75">
+    <row r="850" spans="1:16" ht="15.75">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -16107,7 +16197,7 @@
       <c r="O850" s="3"/>
       <c r="P850" s="3"/>
     </row>
-    <row r="851" ht="15.75">
+    <row r="851" spans="1:16" ht="15.75">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -16125,7 +16215,7 @@
       <c r="O851" s="3"/>
       <c r="P851" s="3"/>
     </row>
-    <row r="852" ht="15.75">
+    <row r="852" spans="1:16" ht="15.75">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -16143,7 +16233,7 @@
       <c r="O852" s="3"/>
       <c r="P852" s="3"/>
     </row>
-    <row r="853" ht="15.75">
+    <row r="853" spans="1:16" ht="15.75">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -16161,7 +16251,7 @@
       <c r="O853" s="3"/>
       <c r="P853" s="3"/>
     </row>
-    <row r="854" ht="15.75">
+    <row r="854" spans="1:16" ht="15.75">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -16179,7 +16269,7 @@
       <c r="O854" s="3"/>
       <c r="P854" s="3"/>
     </row>
-    <row r="855" ht="15.75">
+    <row r="855" spans="1:16" ht="15.75">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -16197,7 +16287,7 @@
       <c r="O855" s="3"/>
       <c r="P855" s="3"/>
     </row>
-    <row r="856" ht="15.75">
+    <row r="856" spans="1:16" ht="15.75">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -16215,7 +16305,7 @@
       <c r="O856" s="3"/>
       <c r="P856" s="3"/>
     </row>
-    <row r="857" ht="15.75">
+    <row r="857" spans="1:16" ht="15.75">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -16233,7 +16323,7 @@
       <c r="O857" s="3"/>
       <c r="P857" s="3"/>
     </row>
-    <row r="858" ht="15.75">
+    <row r="858" spans="1:16" ht="15.75">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -16251,7 +16341,7 @@
       <c r="O858" s="3"/>
       <c r="P858" s="3"/>
     </row>
-    <row r="859" ht="15.75">
+    <row r="859" spans="1:16" ht="15.75">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -16269,7 +16359,7 @@
       <c r="O859" s="3"/>
       <c r="P859" s="3"/>
     </row>
-    <row r="860" ht="15.75">
+    <row r="860" spans="1:16" ht="15.75">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -16287,7 +16377,7 @@
       <c r="O860" s="3"/>
       <c r="P860" s="3"/>
     </row>
-    <row r="861" ht="15.75">
+    <row r="861" spans="1:16" ht="15.75">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -16305,7 +16395,7 @@
       <c r="O861" s="3"/>
       <c r="P861" s="3"/>
     </row>
-    <row r="862" ht="15.75">
+    <row r="862" spans="1:16" ht="15.75">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -16323,7 +16413,7 @@
       <c r="O862" s="3"/>
       <c r="P862" s="3"/>
     </row>
-    <row r="863" ht="15.75">
+    <row r="863" spans="1:16" ht="15.75">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -16341,7 +16431,7 @@
       <c r="O863" s="3"/>
       <c r="P863" s="3"/>
     </row>
-    <row r="864" ht="15.75">
+    <row r="864" spans="1:16" ht="15.75">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -16359,7 +16449,7 @@
       <c r="O864" s="3"/>
       <c r="P864" s="3"/>
     </row>
-    <row r="865" ht="15.75">
+    <row r="865" spans="1:16" ht="15.75">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -16377,7 +16467,7 @@
       <c r="O865" s="3"/>
       <c r="P865" s="3"/>
     </row>
-    <row r="866" ht="15.75">
+    <row r="866" spans="1:16" ht="15.75">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -16395,7 +16485,7 @@
       <c r="O866" s="3"/>
       <c r="P866" s="3"/>
     </row>
-    <row r="867" ht="15.75">
+    <row r="867" spans="1:16" ht="15.75">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -16413,7 +16503,7 @@
       <c r="O867" s="3"/>
       <c r="P867" s="3"/>
     </row>
-    <row r="868" ht="15.75">
+    <row r="868" spans="1:16" ht="15.75">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -16431,7 +16521,7 @@
       <c r="O868" s="3"/>
       <c r="P868" s="3"/>
     </row>
-    <row r="869" ht="15.75">
+    <row r="869" spans="1:16" ht="15.75">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -16449,7 +16539,7 @@
       <c r="O869" s="3"/>
       <c r="P869" s="3"/>
     </row>
-    <row r="870" ht="15.75">
+    <row r="870" spans="1:16" ht="15.75">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -16467,7 +16557,7 @@
       <c r="O870" s="3"/>
       <c r="P870" s="3"/>
     </row>
-    <row r="871" ht="15.75">
+    <row r="871" spans="1:16" ht="15.75">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -16485,7 +16575,7 @@
       <c r="O871" s="3"/>
       <c r="P871" s="3"/>
     </row>
-    <row r="872" ht="15.75">
+    <row r="872" spans="1:16" ht="15.75">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -16503,7 +16593,7 @@
       <c r="O872" s="3"/>
       <c r="P872" s="3"/>
     </row>
-    <row r="873" ht="15.75">
+    <row r="873" spans="1:16" ht="15.75">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -16521,7 +16611,7 @@
       <c r="O873" s="3"/>
       <c r="P873" s="3"/>
     </row>
-    <row r="874" ht="15.75">
+    <row r="874" spans="1:16" ht="15.75">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -16539,7 +16629,7 @@
       <c r="O874" s="3"/>
       <c r="P874" s="3"/>
     </row>
-    <row r="875" ht="15.75">
+    <row r="875" spans="1:16" ht="15.75">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -16557,7 +16647,7 @@
       <c r="O875" s="3"/>
       <c r="P875" s="3"/>
     </row>
-    <row r="876" ht="15.75">
+    <row r="876" spans="1:16" ht="15.75">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -16575,7 +16665,7 @@
       <c r="O876" s="3"/>
       <c r="P876" s="3"/>
     </row>
-    <row r="877" ht="15.75">
+    <row r="877" spans="1:16" ht="15.75">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -16593,7 +16683,7 @@
       <c r="O877" s="3"/>
       <c r="P877" s="3"/>
     </row>
-    <row r="878" ht="15.75">
+    <row r="878" spans="1:16" ht="15.75">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -16611,7 +16701,7 @@
       <c r="O878" s="3"/>
       <c r="P878" s="3"/>
     </row>
-    <row r="879" ht="15.75">
+    <row r="879" spans="1:16" ht="15.75">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -16629,7 +16719,7 @@
       <c r="O879" s="3"/>
       <c r="P879" s="3"/>
     </row>
-    <row r="880" ht="15.75">
+    <row r="880" spans="1:16" ht="15.75">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -16647,7 +16737,7 @@
       <c r="O880" s="3"/>
       <c r="P880" s="3"/>
     </row>
-    <row r="881" ht="15.75">
+    <row r="881" spans="1:16" ht="15.75">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -16665,7 +16755,7 @@
       <c r="O881" s="3"/>
       <c r="P881" s="3"/>
     </row>
-    <row r="882" ht="15.75">
+    <row r="882" spans="1:16" ht="15.75">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -16683,7 +16773,7 @@
       <c r="O882" s="3"/>
       <c r="P882" s="3"/>
     </row>
-    <row r="883" ht="15.75">
+    <row r="883" spans="1:16" ht="15.75">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -16701,7 +16791,7 @@
       <c r="O883" s="3"/>
       <c r="P883" s="3"/>
     </row>
-    <row r="884" ht="15.75">
+    <row r="884" spans="1:16" ht="15.75">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -16719,7 +16809,7 @@
       <c r="O884" s="3"/>
       <c r="P884" s="3"/>
     </row>
-    <row r="885" ht="15.75">
+    <row r="885" spans="1:16" ht="15.75">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -16737,7 +16827,7 @@
       <c r="O885" s="3"/>
       <c r="P885" s="3"/>
     </row>
-    <row r="886" ht="15.75">
+    <row r="886" spans="1:16" ht="15.75">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -16755,7 +16845,7 @@
       <c r="O886" s="3"/>
       <c r="P886" s="3"/>
     </row>
-    <row r="887" ht="15.75">
+    <row r="887" spans="1:16" ht="15.75">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -16773,7 +16863,7 @@
       <c r="O887" s="3"/>
       <c r="P887" s="3"/>
     </row>
-    <row r="888" ht="15.75">
+    <row r="888" spans="1:16" ht="15.75">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -16791,7 +16881,7 @@
       <c r="O888" s="3"/>
       <c r="P888" s="3"/>
     </row>
-    <row r="889" ht="15.75">
+    <row r="889" spans="1:16" ht="15.75">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -16809,7 +16899,7 @@
       <c r="O889" s="3"/>
       <c r="P889" s="3"/>
     </row>
-    <row r="890" ht="15.75">
+    <row r="890" spans="1:16" ht="15.75">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -16827,7 +16917,7 @@
       <c r="O890" s="3"/>
       <c r="P890" s="3"/>
     </row>
-    <row r="891" ht="15.75">
+    <row r="891" spans="1:16" ht="15.75">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -16845,7 +16935,7 @@
       <c r="O891" s="3"/>
       <c r="P891" s="3"/>
     </row>
-    <row r="892" ht="15.75">
+    <row r="892" spans="1:16" ht="15.75">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -16863,7 +16953,7 @@
       <c r="O892" s="3"/>
       <c r="P892" s="3"/>
     </row>
-    <row r="893" ht="15.75">
+    <row r="893" spans="1:16" ht="15.75">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -16881,7 +16971,7 @@
       <c r="O893" s="3"/>
       <c r="P893" s="3"/>
     </row>
-    <row r="894" ht="15.75">
+    <row r="894" spans="1:16" ht="15.75">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -16899,7 +16989,7 @@
       <c r="O894" s="3"/>
       <c r="P894" s="3"/>
     </row>
-    <row r="895" ht="15.75">
+    <row r="895" spans="1:16" ht="15.75">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -16917,7 +17007,7 @@
       <c r="O895" s="3"/>
       <c r="P895" s="3"/>
     </row>
-    <row r="896" ht="15.75">
+    <row r="896" spans="1:16" ht="15.75">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -16935,7 +17025,7 @@
       <c r="O896" s="3"/>
       <c r="P896" s="3"/>
     </row>
-    <row r="897" ht="15.75">
+    <row r="897" spans="1:16" ht="15.75">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -16953,7 +17043,7 @@
       <c r="O897" s="3"/>
       <c r="P897" s="3"/>
     </row>
-    <row r="898" ht="15.75">
+    <row r="898" spans="1:16" ht="15.75">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -16971,7 +17061,7 @@
       <c r="O898" s="3"/>
       <c r="P898" s="3"/>
     </row>
-    <row r="899" ht="15.75">
+    <row r="899" spans="1:16" ht="15.75">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -16989,7 +17079,7 @@
       <c r="O899" s="3"/>
       <c r="P899" s="3"/>
     </row>
-    <row r="900" ht="15.75">
+    <row r="900" spans="1:16" ht="15.75">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -17007,7 +17097,7 @@
       <c r="O900" s="3"/>
       <c r="P900" s="3"/>
     </row>
-    <row r="901" ht="15.75">
+    <row r="901" spans="1:16" ht="15.75">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -17025,7 +17115,7 @@
       <c r="O901" s="3"/>
       <c r="P901" s="3"/>
     </row>
-    <row r="902" ht="15.75">
+    <row r="902" spans="1:16" ht="15.75">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -17043,7 +17133,7 @@
       <c r="O902" s="3"/>
       <c r="P902" s="3"/>
     </row>
-    <row r="903" ht="15.75">
+    <row r="903" spans="1:16" ht="15.75">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -17061,7 +17151,7 @@
       <c r="O903" s="3"/>
       <c r="P903" s="3"/>
     </row>
-    <row r="904" ht="15.75">
+    <row r="904" spans="1:16" ht="15.75">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -17079,7 +17169,7 @@
       <c r="O904" s="3"/>
       <c r="P904" s="3"/>
     </row>
-    <row r="905" ht="15.75">
+    <row r="905" spans="1:16" ht="15.75">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -17097,7 +17187,7 @@
       <c r="O905" s="3"/>
       <c r="P905" s="3"/>
     </row>
-    <row r="906" ht="15.75">
+    <row r="906" spans="1:16" ht="15.75">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -17115,7 +17205,7 @@
       <c r="O906" s="3"/>
       <c r="P906" s="3"/>
     </row>
-    <row r="907" ht="15.75">
+    <row r="907" spans="1:16" ht="15.75">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -17133,7 +17223,7 @@
       <c r="O907" s="3"/>
       <c r="P907" s="3"/>
     </row>
-    <row r="908" ht="15.75">
+    <row r="908" spans="1:16" ht="15.75">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -17151,7 +17241,7 @@
       <c r="O908" s="3"/>
       <c r="P908" s="3"/>
     </row>
-    <row r="909" ht="15.75">
+    <row r="909" spans="1:16" ht="15.75">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -17169,7 +17259,7 @@
       <c r="O909" s="3"/>
       <c r="P909" s="3"/>
     </row>
-    <row r="910" ht="15.75">
+    <row r="910" spans="1:16" ht="15.75">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -17187,7 +17277,7 @@
       <c r="O910" s="3"/>
       <c r="P910" s="3"/>
     </row>
-    <row r="911" ht="15.75">
+    <row r="911" spans="1:16" ht="15.75">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -17205,7 +17295,7 @@
       <c r="O911" s="3"/>
       <c r="P911" s="3"/>
     </row>
-    <row r="912" ht="15.75">
+    <row r="912" spans="1:16" ht="15.75">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -17223,7 +17313,7 @@
       <c r="O912" s="3"/>
       <c r="P912" s="3"/>
     </row>
-    <row r="913" ht="15.75">
+    <row r="913" spans="1:16" ht="15.75">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -17241,7 +17331,7 @@
       <c r="O913" s="3"/>
       <c r="P913" s="3"/>
     </row>
-    <row r="914" ht="15.75">
+    <row r="914" spans="1:16" ht="15.75">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -17259,7 +17349,7 @@
       <c r="O914" s="3"/>
       <c r="P914" s="3"/>
     </row>
-    <row r="915" ht="15.75">
+    <row r="915" spans="1:16" ht="15.75">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -17277,7 +17367,7 @@
       <c r="O915" s="3"/>
       <c r="P915" s="3"/>
     </row>
-    <row r="916" ht="15.75">
+    <row r="916" spans="1:16" ht="15.75">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -17295,7 +17385,7 @@
       <c r="O916" s="3"/>
       <c r="P916" s="3"/>
     </row>
-    <row r="917" ht="15.75">
+    <row r="917" spans="1:16" ht="15.75">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -17313,7 +17403,7 @@
       <c r="O917" s="3"/>
       <c r="P917" s="3"/>
     </row>
-    <row r="918" ht="15.75">
+    <row r="918" spans="1:16" ht="15.75">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -17331,7 +17421,7 @@
       <c r="O918" s="3"/>
       <c r="P918" s="3"/>
     </row>
-    <row r="919" ht="15.75">
+    <row r="919" spans="1:16" ht="15.75">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -17349,7 +17439,7 @@
       <c r="O919" s="3"/>
       <c r="P919" s="3"/>
     </row>
-    <row r="920" ht="15.75">
+    <row r="920" spans="1:16" ht="15.75">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -17367,7 +17457,7 @@
       <c r="O920" s="3"/>
       <c r="P920" s="3"/>
     </row>
-    <row r="921" ht="15.75">
+    <row r="921" spans="1:16" ht="15.75">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -17385,7 +17475,7 @@
       <c r="O921" s="3"/>
       <c r="P921" s="3"/>
     </row>
-    <row r="922" ht="15.75">
+    <row r="922" spans="1:16" ht="15.75">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -17403,7 +17493,7 @@
       <c r="O922" s="3"/>
       <c r="P922" s="3"/>
     </row>
-    <row r="923" ht="15.75">
+    <row r="923" spans="1:16" ht="15.75">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -17421,7 +17511,7 @@
       <c r="O923" s="3"/>
       <c r="P923" s="3"/>
     </row>
-    <row r="924" ht="15.75">
+    <row r="924" spans="1:16" ht="15.75">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -17439,7 +17529,7 @@
       <c r="O924" s="3"/>
       <c r="P924" s="3"/>
     </row>
-    <row r="925" ht="15.75">
+    <row r="925" spans="1:16" ht="15.75">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -17457,7 +17547,7 @@
       <c r="O925" s="3"/>
       <c r="P925" s="3"/>
     </row>
-    <row r="926" ht="15.75">
+    <row r="926" spans="1:16" ht="15.75">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -17475,7 +17565,7 @@
       <c r="O926" s="3"/>
       <c r="P926" s="3"/>
     </row>
-    <row r="927" ht="15.75">
+    <row r="927" spans="1:16" ht="15.75">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -17493,7 +17583,7 @@
       <c r="O927" s="3"/>
       <c r="P927" s="3"/>
     </row>
-    <row r="928" ht="15.75">
+    <row r="928" spans="1:16" ht="15.75">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -17511,7 +17601,7 @@
       <c r="O928" s="3"/>
       <c r="P928" s="3"/>
     </row>
-    <row r="929" ht="15.75">
+    <row r="929" spans="1:16" ht="15.75">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -17529,7 +17619,7 @@
       <c r="O929" s="3"/>
       <c r="P929" s="3"/>
     </row>
-    <row r="930" ht="15.75">
+    <row r="930" spans="1:16" ht="15.75">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -17547,7 +17637,7 @@
       <c r="O930" s="3"/>
       <c r="P930" s="3"/>
     </row>
-    <row r="931" ht="15.75">
+    <row r="931" spans="1:16" ht="15.75">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -17565,7 +17655,7 @@
       <c r="O931" s="3"/>
       <c r="P931" s="3"/>
     </row>
-    <row r="932" ht="15.75">
+    <row r="932" spans="1:16" ht="15.75">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -17583,7 +17673,7 @@
       <c r="O932" s="3"/>
       <c r="P932" s="3"/>
     </row>
-    <row r="933" ht="15.75">
+    <row r="933" spans="1:16" ht="15.75">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -17601,7 +17691,7 @@
       <c r="O933" s="3"/>
       <c r="P933" s="3"/>
     </row>
-    <row r="934" ht="15.75">
+    <row r="934" spans="1:16" ht="15.75">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -17619,7 +17709,7 @@
       <c r="O934" s="3"/>
       <c r="P934" s="3"/>
     </row>
-    <row r="935" ht="15.75">
+    <row r="935" spans="1:16" ht="15.75">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -17637,7 +17727,7 @@
       <c r="O935" s="3"/>
       <c r="P935" s="3"/>
     </row>
-    <row r="936" ht="15.75">
+    <row r="936" spans="1:16" ht="15.75">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -17655,7 +17745,7 @@
       <c r="O936" s="3"/>
       <c r="P936" s="3"/>
     </row>
-    <row r="937" ht="15.75">
+    <row r="937" spans="1:16" ht="15.75">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -17673,7 +17763,7 @@
       <c r="O937" s="3"/>
       <c r="P937" s="3"/>
     </row>
-    <row r="938" ht="15.75">
+    <row r="938" spans="1:16" ht="15.75">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -17691,7 +17781,7 @@
       <c r="O938" s="3"/>
       <c r="P938" s="3"/>
     </row>
-    <row r="939" ht="15.75">
+    <row r="939" spans="1:16" ht="15.75">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -17709,7 +17799,7 @@
       <c r="O939" s="3"/>
       <c r="P939" s="3"/>
     </row>
-    <row r="940" ht="15.75">
+    <row r="940" spans="1:16" ht="15.75">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -17727,7 +17817,7 @@
       <c r="O940" s="3"/>
       <c r="P940" s="3"/>
     </row>
-    <row r="941" ht="15.75">
+    <row r="941" spans="1:16" ht="15.75">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -17745,7 +17835,7 @@
       <c r="O941" s="3"/>
       <c r="P941" s="3"/>
     </row>
-    <row r="942" ht="15.75">
+    <row r="942" spans="1:16" ht="15.75">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -17763,7 +17853,7 @@
       <c r="O942" s="3"/>
       <c r="P942" s="3"/>
     </row>
-    <row r="943" ht="15.75">
+    <row r="943" spans="1:16" ht="15.75">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -17781,7 +17871,7 @@
       <c r="O943" s="3"/>
       <c r="P943" s="3"/>
     </row>
-    <row r="944" ht="15.75">
+    <row r="944" spans="1:16" ht="15.75">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -17799,7 +17889,7 @@
       <c r="O944" s="3"/>
       <c r="P944" s="3"/>
     </row>
-    <row r="945" ht="15.75">
+    <row r="945" spans="1:16" ht="15.75">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -17817,7 +17907,7 @@
       <c r="O945" s="3"/>
       <c r="P945" s="3"/>
     </row>
-    <row r="946" ht="15.75">
+    <row r="946" spans="1:16" ht="15.75">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -17835,7 +17925,7 @@
       <c r="O946" s="3"/>
       <c r="P946" s="3"/>
     </row>
-    <row r="947" ht="15.75">
+    <row r="947" spans="1:16" ht="15.75">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -17853,7 +17943,7 @@
       <c r="O947" s="3"/>
       <c r="P947" s="3"/>
     </row>
-    <row r="948" ht="15.75">
+    <row r="948" spans="1:16" ht="15.75">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -17871,7 +17961,7 @@
       <c r="O948" s="3"/>
       <c r="P948" s="3"/>
     </row>
-    <row r="949" ht="15.75">
+    <row r="949" spans="1:16" ht="15.75">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -17889,7 +17979,7 @@
       <c r="O949" s="3"/>
       <c r="P949" s="3"/>
     </row>
-    <row r="950" ht="15.75">
+    <row r="950" spans="1:16" ht="15.75">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -17907,7 +17997,7 @@
       <c r="O950" s="3"/>
       <c r="P950" s="3"/>
     </row>
-    <row r="951" ht="15.75">
+    <row r="951" spans="1:16" ht="15.75">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -17925,7 +18015,7 @@
       <c r="O951" s="3"/>
       <c r="P951" s="3"/>
     </row>
-    <row r="952" ht="15.75">
+    <row r="952" spans="1:16" ht="15.75">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -17943,7 +18033,7 @@
       <c r="O952" s="3"/>
       <c r="P952" s="3"/>
     </row>
-    <row r="953" ht="15.75">
+    <row r="953" spans="1:16" ht="15.75">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -17961,7 +18051,7 @@
       <c r="O953" s="3"/>
       <c r="P953" s="3"/>
     </row>
-    <row r="954" ht="15.75">
+    <row r="954" spans="1:16" ht="15.75">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -17979,7 +18069,7 @@
       <c r="O954" s="3"/>
       <c r="P954" s="3"/>
     </row>
-    <row r="955" ht="15.75">
+    <row r="955" spans="1:16" ht="15.75">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -17997,7 +18087,7 @@
       <c r="O955" s="3"/>
       <c r="P955" s="3"/>
     </row>
-    <row r="956" ht="15.75">
+    <row r="956" spans="1:16" ht="15.75">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -18015,7 +18105,7 @@
       <c r="O956" s="3"/>
       <c r="P956" s="3"/>
     </row>
-    <row r="957" ht="15.75">
+    <row r="957" spans="1:16" ht="15.75">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -18033,7 +18123,7 @@
       <c r="O957" s="3"/>
       <c r="P957" s="3"/>
     </row>
-    <row r="958" ht="15.75">
+    <row r="958" spans="1:16" ht="15.75">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -18051,7 +18141,7 @@
       <c r="O958" s="3"/>
       <c r="P958" s="3"/>
     </row>
-    <row r="959" ht="15.75">
+    <row r="959" spans="1:16" ht="15.75">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -18069,7 +18159,7 @@
       <c r="O959" s="3"/>
       <c r="P959" s="3"/>
     </row>
-    <row r="960" ht="15.75">
+    <row r="960" spans="1:16" ht="15.75">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -18087,7 +18177,7 @@
       <c r="O960" s="3"/>
       <c r="P960" s="3"/>
     </row>
-    <row r="961" ht="15.75">
+    <row r="961" spans="1:16" ht="15.75">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -18105,7 +18195,7 @@
       <c r="O961" s="3"/>
       <c r="P961" s="3"/>
     </row>
-    <row r="962" ht="15.75">
+    <row r="962" spans="1:16" ht="15.75">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -18123,7 +18213,7 @@
       <c r="O962" s="3"/>
       <c r="P962" s="3"/>
     </row>
-    <row r="963" ht="15.75">
+    <row r="963" spans="1:16" ht="15.75">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -18141,7 +18231,7 @@
       <c r="O963" s="3"/>
       <c r="P963" s="3"/>
     </row>
-    <row r="964" ht="15.75">
+    <row r="964" spans="1:16" ht="15.75">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -18159,7 +18249,7 @@
       <c r="O964" s="3"/>
       <c r="P964" s="3"/>
     </row>
-    <row r="965" ht="15.75">
+    <row r="965" spans="1:16" ht="15.75">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -18177,7 +18267,7 @@
       <c r="O965" s="3"/>
       <c r="P965" s="3"/>
     </row>
-    <row r="966" ht="15.75">
+    <row r="966" spans="1:16" ht="15.75">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -18195,7 +18285,7 @@
       <c r="O966" s="3"/>
       <c r="P966" s="3"/>
     </row>
-    <row r="967" ht="15.75">
+    <row r="967" spans="1:16" ht="15.75">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -18213,7 +18303,7 @@
       <c r="O967" s="3"/>
       <c r="P967" s="3"/>
     </row>
-    <row r="968" ht="15.75">
+    <row r="968" spans="1:16" ht="15.75">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -18231,7 +18321,7 @@
       <c r="O968" s="3"/>
       <c r="P968" s="3"/>
     </row>
-    <row r="969" ht="15.75">
+    <row r="969" spans="1:16" ht="15.75">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -18249,7 +18339,7 @@
       <c r="O969" s="3"/>
       <c r="P969" s="3"/>
     </row>
-    <row r="970" ht="15.75">
+    <row r="970" spans="1:16" ht="15.75">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -18267,7 +18357,7 @@
       <c r="O970" s="3"/>
       <c r="P970" s="3"/>
     </row>
-    <row r="971" ht="15.75">
+    <row r="971" spans="1:16" ht="15.75">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -18285,7 +18375,7 @@
       <c r="O971" s="3"/>
       <c r="P971" s="3"/>
     </row>
-    <row r="972" ht="15.75">
+    <row r="972" spans="1:16" ht="15.75">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -18303,7 +18393,7 @@
       <c r="O972" s="3"/>
       <c r="P972" s="3"/>
     </row>
-    <row r="973" ht="15.75">
+    <row r="973" spans="1:16" ht="15.75">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -18321,7 +18411,7 @@
       <c r="O973" s="3"/>
       <c r="P973" s="3"/>
     </row>
-    <row r="974" ht="15.75">
+    <row r="974" spans="1:16" ht="15.75">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -18339,7 +18429,7 @@
       <c r="O974" s="3"/>
       <c r="P974" s="3"/>
     </row>
-    <row r="975" ht="15.75">
+    <row r="975" spans="1:16" ht="15.75">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -18357,7 +18447,7 @@
       <c r="O975" s="3"/>
       <c r="P975" s="3"/>
     </row>
-    <row r="976" ht="15.75">
+    <row r="976" spans="1:16" ht="15.75">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -18375,7 +18465,7 @@
       <c r="O976" s="3"/>
       <c r="P976" s="3"/>
     </row>
-    <row r="977" ht="15.75">
+    <row r="977" spans="1:16" ht="15.75">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -18393,7 +18483,7 @@
       <c r="O977" s="3"/>
       <c r="P977" s="3"/>
     </row>
-    <row r="978" ht="15.75">
+    <row r="978" spans="1:16" ht="15.75">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -18411,7 +18501,7 @@
       <c r="O978" s="3"/>
       <c r="P978" s="3"/>
     </row>
-    <row r="979" ht="15.75">
+    <row r="979" spans="1:16" ht="15.75">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -18429,7 +18519,7 @@
       <c r="O979" s="3"/>
       <c r="P979" s="3"/>
     </row>
-    <row r="980" ht="15.75">
+    <row r="980" spans="1:16" ht="15.75">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -18447,7 +18537,7 @@
       <c r="O980" s="3"/>
       <c r="P980" s="3"/>
     </row>
-    <row r="981" ht="15.75">
+    <row r="981" spans="1:16" ht="15.75">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -18465,7 +18555,7 @@
       <c r="O981" s="3"/>
       <c r="P981" s="3"/>
     </row>
-    <row r="982" ht="15.75">
+    <row r="982" spans="1:16" ht="15.75">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -18483,7 +18573,7 @@
       <c r="O982" s="3"/>
       <c r="P982" s="3"/>
     </row>
-    <row r="983" ht="15.75">
+    <row r="983" spans="1:16" ht="15.75">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -18501,7 +18591,7 @@
       <c r="O983" s="3"/>
       <c r="P983" s="3"/>
     </row>
-    <row r="984" ht="15.75">
+    <row r="984" spans="1:16" ht="15.75">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -18519,7 +18609,7 @@
       <c r="O984" s="3"/>
       <c r="P984" s="3"/>
     </row>
-    <row r="985" ht="15.75">
+    <row r="985" spans="1:16" ht="15.75">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -18537,7 +18627,7 @@
       <c r="O985" s="3"/>
       <c r="P985" s="3"/>
     </row>
-    <row r="986" ht="15.75">
+    <row r="986" spans="1:16" ht="15.75">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -18555,7 +18645,7 @@
       <c r="O986" s="3"/>
       <c r="P986" s="3"/>
     </row>
-    <row r="987" ht="15.75">
+    <row r="987" spans="1:16" ht="15.75">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -18573,7 +18663,7 @@
       <c r="O987" s="3"/>
       <c r="P987" s="3"/>
     </row>
-    <row r="988" ht="15.75">
+    <row r="988" spans="1:16" ht="15.75">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -18591,7 +18681,7 @@
       <c r="O988" s="3"/>
       <c r="P988" s="3"/>
     </row>
-    <row r="989" ht="15.75">
+    <row r="989" spans="1:16" ht="15.75">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -18609,7 +18699,7 @@
       <c r="O989" s="3"/>
       <c r="P989" s="3"/>
     </row>
-    <row r="990" ht="15.75">
+    <row r="990" spans="1:16" ht="15.75">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -18627,7 +18717,7 @@
       <c r="O990" s="3"/>
       <c r="P990" s="3"/>
     </row>
-    <row r="991" ht="15.75">
+    <row r="991" spans="1:16" ht="15.75">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -18645,7 +18735,7 @@
       <c r="O991" s="3"/>
       <c r="P991" s="3"/>
     </row>
-    <row r="992" ht="15.75">
+    <row r="992" spans="1:16" ht="15.75">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -18663,7 +18753,7 @@
       <c r="O992" s="3"/>
       <c r="P992" s="3"/>
     </row>
-    <row r="993" ht="15.75">
+    <row r="993" spans="1:16" ht="15.75">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -18681,7 +18771,7 @@
       <c r="O993" s="3"/>
       <c r="P993" s="3"/>
     </row>
-    <row r="994" ht="15.75">
+    <row r="994" spans="1:16" ht="15.75">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -18699,7 +18789,7 @@
       <c r="O994" s="3"/>
       <c r="P994" s="3"/>
     </row>
-    <row r="995" ht="15.75">
+    <row r="995" spans="1:16" ht="15.75">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -18717,7 +18807,7 @@
       <c r="O995" s="3"/>
       <c r="P995" s="3"/>
     </row>
-    <row r="996" ht="15.75">
+    <row r="996" spans="1:16" ht="15.75">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -18735,7 +18825,7 @@
       <c r="O996" s="3"/>
       <c r="P996" s="3"/>
     </row>
-    <row r="997" ht="15.75">
+    <row r="997" spans="1:16" ht="15.75">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -18753,7 +18843,7 @@
       <c r="O997" s="3"/>
       <c r="P997" s="3"/>
     </row>
-    <row r="998" ht="15.75">
+    <row r="998" spans="1:16" ht="15.75">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -18771,7 +18861,7 @@
       <c r="O998" s="3"/>
       <c r="P998" s="3"/>
     </row>
-    <row r="999" ht="15.75">
+    <row r="999" spans="1:16" ht="15.75">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -18789,7 +18879,7 @@
       <c r="O999" s="3"/>
       <c r="P999" s="3"/>
     </row>
-    <row r="1000" ht="15.75">
+    <row r="1000" spans="1:16" ht="15.75">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -18810,5 +18900,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5118055" footer="0.5118055"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
 </worksheet>
 </file>
--- a/TestData/Web_POS/Order/auto_switching_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/auto_switching_order_test_data.xlsx
@@ -131,12 +131,6 @@
     <t>TC_16</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>Index9QA</t>
   </si>
   <si>
@@ -203,25 +197,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -234,7 +211,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -502,7 +479,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K19"/>
+      <selection activeCell="G17" sqref="G17:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
@@ -1138,14 +1115,14 @@
       <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>18</v>
@@ -1159,7 +1136,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1176,14 +1153,14 @@
       <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>18</v>
@@ -1197,7 +1174,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
@@ -1214,14 +1191,14 @@
       <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>18</v>

--- a/TestData/Web_POS/Order/auto_switching_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/auto_switching_order_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46" count="200">
   <si>
     <t>TC_Id</t>
   </si>
@@ -141,6 +141,18 @@
   <si>
     <t>TC_18</t>
   </si>
+  <si>
+    <t>1000 : 1</t>
+  </si>
+  <si>
+    <t>1001 : 1</t>
+  </si>
+  <si>
+    <t>1002 : 1</t>
+  </si>
+  <si>
+    <t>600 : 1</t>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +252,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1125,7 +1137,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" ht="14.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1145,10 +1157,10 @@
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>39</v>
@@ -1163,7 +1175,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" ht="14.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1183,10 +1195,10 @@
         <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>39</v>
@@ -1201,7 +1213,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" ht="14.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1221,10 +1233,10 @@
         <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>39</v>

--- a/TestData/Web_POS/Order/auto_switching_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/auto_switching_order_test_data.xlsx
@@ -478,7 +478,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="B13">
       <selection activeCell="G17" sqref="G17:H19"/>
     </sheetView>
   </sheetViews>
